--- a/output.xlsx
+++ b/output.xlsx
@@ -1783,48 +1783,807 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43466</v>
+        <v>42736</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2061.41</v>
+        <v>1902.42</v>
       </c>
       <c r="O60" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="P60" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>50.87</v>
       </c>
       <c r="R60" t="n">
-        <v>2895.67</v>
+        <v>2018.15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1902.42</v>
+      </c>
+      <c r="O61" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P61" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2692.31</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1902.42</v>
+      </c>
+      <c r="O62" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P62" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2692.31</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1902.42</v>
+      </c>
+      <c r="O63" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P63" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2692.31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1902.42</v>
+      </c>
+      <c r="O64" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P64" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2692.31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O65" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P65" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O66" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P66" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O67" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P67" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O68" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P68" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O69" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P69" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O70" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P70" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O71" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P71" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43100</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O72" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P72" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O73" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P73" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O74" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O75" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P75" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O76" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P76" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1904.32</v>
+      </c>
+      <c r="O77" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P77" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2694.21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O78" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P78" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2711.35</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O79" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P79" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2711.35</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O80" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="P80" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2711.35</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O81" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="P81" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2743.78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O82" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="P82" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2743.78</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O83" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="P83" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2743.78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O84" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="P84" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2743.78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="O85" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="P85" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2743.78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="O86" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P86" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2895.67</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>43497</v>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
         <v>2061.41</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O87" t="n">
         <v>109.23</v>
       </c>
-      <c r="P61" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="R61" t="n">
+      <c r="P87" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R87" t="n">
         <v>2895.67</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="O88" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P88" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2895.67</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="O89" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P89" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2895.67</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="O90" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P90" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2895.67</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="O91" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P91" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2912.16</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="O92" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P92" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2912.16</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="O93" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P93" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2912.16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="O94" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="P94" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2912.16</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -403,45 +403,50 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
+          <t>netto_da_pagare</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>par_a_prec</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>par_godute</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>par_saldo</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>par_spett</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>periodo</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>scatti</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>sup_ass</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>superm</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>totale_retributivo</t>
         </is>
@@ -457,16 +462,19 @@
       <c r="H2" t="n">
         <v>1634.56</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v>255</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>85.87</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -480,16 +488,19 @@
       <c r="H3" t="n">
         <v>1634.56</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v>1339</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>85.87</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -503,16 +514,19 @@
       <c r="H4" t="n">
         <v>1634.56</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v>1695</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>85.87</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -526,16 +540,19 @@
       <c r="H5" t="n">
         <v>1634.56</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v>1342</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>85.87</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -549,16 +566,19 @@
       <c r="H6" t="n">
         <v>1634.56</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v>755</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>85.87</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -572,16 +592,19 @@
       <c r="H7" t="n">
         <v>1634.56</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v>402</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>85.87</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -595,16 +618,19 @@
       <c r="H8" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v>1271</v>
       </c>
       <c r="P8" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -618,16 +644,19 @@
       <c r="H9" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v>1306</v>
       </c>
       <c r="P9" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -641,16 +670,19 @@
       <c r="H10" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v>1264</v>
       </c>
       <c r="P10" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -664,16 +696,19 @@
       <c r="H11" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v>1262</v>
       </c>
       <c r="P11" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -687,16 +722,19 @@
       <c r="H12" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v>2472</v>
       </c>
       <c r="P12" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -710,16 +748,19 @@
       <c r="H13" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v>1259</v>
       </c>
       <c r="P13" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -733,16 +774,19 @@
       <c r="H14" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v>1306</v>
       </c>
       <c r="P14" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -756,16 +800,19 @@
       <c r="H15" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v>1262</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S15" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -779,16 +826,19 @@
       <c r="H16" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v>1260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S16" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -802,16 +852,19 @@
       <c r="H17" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v>1963</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S17" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -825,16 +878,19 @@
       <c r="H18" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="J18" t="n">
+        <v>1960</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S18" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -848,16 +904,19 @@
       <c r="H19" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="J19" t="n">
+        <v>2104</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S19" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -871,16 +930,19 @@
       <c r="H20" t="n">
         <v>1679.89</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="J20" t="n">
+        <v>1193</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S20" t="n">
         <v>1730.76</v>
       </c>
     </row>
@@ -894,16 +956,19 @@
       <c r="H21" t="n">
         <v>1724.89</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="J21" t="n">
+        <v>1861</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S21" t="n">
         <v>1775.76</v>
       </c>
     </row>
@@ -917,16 +982,19 @@
       <c r="H22" t="n">
         <v>1724.89</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="J22" t="n">
+        <v>2210</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S22" t="n">
         <v>1775.76</v>
       </c>
     </row>
@@ -940,16 +1008,19 @@
       <c r="H23" t="n">
         <v>1724.89</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="J23" t="n">
+        <v>2130</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S23" t="n">
         <v>1775.76</v>
       </c>
     </row>
@@ -963,16 +1034,19 @@
       <c r="H24" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
+      <c r="J24" t="n">
+        <v>3158</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S24" t="n">
         <v>1897.98</v>
       </c>
     </row>
@@ -986,16 +1060,19 @@
       <c r="H25" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
+      <c r="J25" t="n">
+        <v>2141</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S25" t="n">
         <v>1897.98</v>
       </c>
     </row>
@@ -1009,16 +1086,19 @@
       <c r="H26" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="J26" t="n">
+        <v>2155</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S26" t="n">
         <v>1897.98</v>
       </c>
     </row>
@@ -1032,16 +1112,19 @@
       <c r="H27" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="J27" t="n">
+        <v>2074</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S27" t="n">
         <v>1897.98</v>
       </c>
     </row>
@@ -1055,16 +1138,19 @@
       <c r="H28" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="J28" t="n">
+        <v>2083</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S28" t="n">
         <v>1897.98</v>
       </c>
     </row>
@@ -1078,16 +1164,19 @@
       <c r="H29" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O29" t="n">
+      <c r="J29" t="n">
+        <v>1928</v>
+      </c>
+      <c r="P29" t="n">
         <v>32.43</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S29" t="n">
         <v>1930.41</v>
       </c>
     </row>
@@ -1101,16 +1190,19 @@
       <c r="H30" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O30" t="n">
+      <c r="J30" t="n">
+        <v>1976</v>
+      </c>
+      <c r="P30" t="n">
         <v>32.43</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S30" t="n">
         <v>1930.41</v>
       </c>
     </row>
@@ -1124,16 +1216,19 @@
       <c r="H31" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O31" t="n">
+      <c r="J31" t="n">
+        <v>2111</v>
+      </c>
+      <c r="P31" t="n">
         <v>32.43</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S31" t="n">
         <v>1930.41</v>
       </c>
     </row>
@@ -1147,16 +1242,19 @@
       <c r="H32" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O32" t="n">
+      <c r="J32" t="n">
+        <v>2465</v>
+      </c>
+      <c r="P32" t="n">
         <v>32.43</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S32" t="n">
         <v>1930.41</v>
       </c>
     </row>
@@ -1170,16 +1268,19 @@
       <c r="H33" t="n">
         <v>1847.11</v>
       </c>
-      <c r="O33" t="n">
+      <c r="J33" t="n">
+        <v>1326</v>
+      </c>
+      <c r="P33" t="n">
         <v>32.43</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S33" t="n">
         <v>1930.41</v>
       </c>
     </row>
@@ -1193,16 +1294,19 @@
       <c r="H34" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O34" t="n">
+      <c r="J34" t="n">
+        <v>2300</v>
+      </c>
+      <c r="P34" t="n">
         <v>32.43</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S34" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1216,16 +1320,19 @@
       <c r="H35" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O35" t="n">
+      <c r="J35" t="n">
+        <v>2412</v>
+      </c>
+      <c r="P35" t="n">
         <v>32.43</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S35" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1239,16 +1346,19 @@
       <c r="H36" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O36" t="n">
+      <c r="J36" t="n">
+        <v>2123</v>
+      </c>
+      <c r="P36" t="n">
         <v>32.43</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S36" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1262,16 +1372,19 @@
       <c r="H37" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O37" t="n">
+      <c r="J37" t="n">
+        <v>2108</v>
+      </c>
+      <c r="P37" t="n">
         <v>32.43</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S37" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1285,16 +1398,19 @@
       <c r="H38" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O38" t="n">
+      <c r="J38" t="n">
+        <v>2119</v>
+      </c>
+      <c r="P38" t="n">
         <v>32.43</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S38" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1308,16 +1424,19 @@
       <c r="H39" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O39" t="n">
+      <c r="J39" t="n">
+        <v>2143</v>
+      </c>
+      <c r="P39" t="n">
         <v>32.43</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S39" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1331,16 +1450,19 @@
       <c r="H40" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O40" t="n">
+      <c r="J40" t="n">
+        <v>2145</v>
+      </c>
+      <c r="P40" t="n">
         <v>32.43</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S40" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1354,16 +1476,19 @@
       <c r="H41" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O41" t="n">
+      <c r="J41" t="n">
+        <v>2144</v>
+      </c>
+      <c r="P41" t="n">
         <v>32.43</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S41" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1377,16 +1502,19 @@
       <c r="H42" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O42" t="n">
+      <c r="J42" t="n">
+        <v>2163</v>
+      </c>
+      <c r="P42" t="n">
         <v>32.43</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
       <c r="Q42" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S42" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1400,16 +1528,19 @@
       <c r="H43" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O43" t="n">
+      <c r="J43" t="n">
+        <v>2414</v>
+      </c>
+      <c r="P43" t="n">
         <v>32.43</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S43" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1423,16 +1554,19 @@
       <c r="H44" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O44" t="n">
+      <c r="J44" t="n">
+        <v>2276</v>
+      </c>
+      <c r="P44" t="n">
         <v>32.43</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S44" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1446,16 +1580,19 @@
       <c r="H45" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O45" t="n">
+      <c r="J45" t="n">
+        <v>2530</v>
+      </c>
+      <c r="P45" t="n">
         <v>32.43</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
       <c r="Q45" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S45" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1469,16 +1606,19 @@
       <c r="H46" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O46" t="n">
+      <c r="J46" t="n">
+        <v>1362</v>
+      </c>
+      <c r="P46" t="n">
         <v>32.43</v>
       </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S46" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1492,16 +1632,19 @@
       <c r="H47" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O47" t="n">
+      <c r="J47" t="n">
+        <v>1970</v>
+      </c>
+      <c r="P47" t="n">
         <v>32.43</v>
       </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
       <c r="Q47" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S47" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1515,16 +1658,19 @@
       <c r="H48" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O48" t="n">
+      <c r="J48" t="n">
+        <v>2189</v>
+      </c>
+      <c r="P48" t="n">
         <v>32.43</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
       <c r="Q48" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S48" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1538,16 +1684,19 @@
       <c r="H49" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O49" t="n">
+      <c r="J49" t="n">
+        <v>2793</v>
+      </c>
+      <c r="P49" t="n">
         <v>32.43</v>
       </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
       <c r="Q49" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S49" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1561,16 +1710,19 @@
       <c r="H50" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O50" t="n">
+      <c r="J50" t="n">
+        <v>2191</v>
+      </c>
+      <c r="P50" t="n">
         <v>32.43</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
       <c r="Q50" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S50" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1584,16 +1736,19 @@
       <c r="H51" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O51" t="n">
+      <c r="J51" t="n">
+        <v>2194</v>
+      </c>
+      <c r="P51" t="n">
         <v>32.43</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
       <c r="Q51" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S51" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1607,16 +1762,19 @@
       <c r="H52" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O52" t="n">
+      <c r="J52" t="n">
+        <v>2261</v>
+      </c>
+      <c r="P52" t="n">
         <v>32.43</v>
       </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
       <c r="Q52" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S52" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1630,16 +1788,19 @@
       <c r="H53" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O53" t="n">
+      <c r="J53" t="n">
+        <v>2837</v>
+      </c>
+      <c r="P53" t="n">
         <v>32.43</v>
       </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
       <c r="Q53" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S53" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1653,16 +1814,19 @@
       <c r="H54" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O54" t="n">
+      <c r="J54" t="n">
+        <v>2891</v>
+      </c>
+      <c r="P54" t="n">
         <v>32.43</v>
       </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
       <c r="Q54" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S54" t="n">
         <v>1985.72</v>
       </c>
     </row>
@@ -1676,16 +1840,19 @@
       <c r="H55" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O55" t="n">
+      <c r="J55" t="n">
+        <v>2655</v>
+      </c>
+      <c r="P55" t="n">
         <v>64.86</v>
       </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
       <c r="Q55" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S55" t="n">
         <v>2018.15</v>
       </c>
     </row>
@@ -1699,16 +1866,19 @@
       <c r="H56" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O56" t="n">
+      <c r="J56" t="n">
+        <v>2586</v>
+      </c>
+      <c r="P56" t="n">
         <v>64.86</v>
       </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
       <c r="Q56" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S56" t="n">
         <v>2018.15</v>
       </c>
     </row>
@@ -1722,16 +1892,19 @@
       <c r="H57" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O57" t="n">
+      <c r="J57" t="n">
+        <v>2763</v>
+      </c>
+      <c r="P57" t="n">
         <v>64.86</v>
       </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
       <c r="Q57" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S57" t="n">
         <v>2018.15</v>
       </c>
     </row>
@@ -1745,16 +1918,19 @@
       <c r="H58" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O58" t="n">
+      <c r="J58" t="n">
+        <v>2367</v>
+      </c>
+      <c r="P58" t="n">
         <v>64.86</v>
       </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
       <c r="Q58" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S58" t="n">
         <v>2018.15</v>
       </c>
     </row>
@@ -1768,16 +1944,19 @@
       <c r="H59" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O59" t="n">
+      <c r="J59" t="n">
+        <v>1383</v>
+      </c>
+      <c r="P59" t="n">
         <v>64.86</v>
       </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
       <c r="Q59" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S59" t="n">
         <v>2018.15</v>
       </c>
     </row>
@@ -1791,16 +1970,19 @@
       <c r="H60" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O60" t="n">
+      <c r="J60" t="n">
+        <v>2755</v>
+      </c>
+      <c r="P60" t="n">
         <v>64.86</v>
       </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
       <c r="Q60" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S60" t="n">
         <v>2018.15</v>
       </c>
     </row>
@@ -1814,16 +1996,19 @@
       <c r="H61" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O61" t="n">
+      <c r="J61" t="n">
+        <v>1895</v>
+      </c>
+      <c r="P61" t="n">
         <v>64.86</v>
       </c>
-      <c r="P61" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q61" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R61" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S61" t="n">
         <v>2692.31</v>
       </c>
     </row>
@@ -1837,16 +2022,19 @@
       <c r="H62" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O62" t="n">
+      <c r="J62" t="n">
+        <v>2444</v>
+      </c>
+      <c r="P62" t="n">
         <v>64.86</v>
       </c>
-      <c r="P62" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q62" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R62" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S62" t="n">
         <v>2692.31</v>
       </c>
     </row>
@@ -1860,16 +2048,19 @@
       <c r="H63" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O63" t="n">
+      <c r="J63" t="n">
+        <v>2375</v>
+      </c>
+      <c r="P63" t="n">
         <v>64.86</v>
       </c>
-      <c r="P63" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q63" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R63" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S63" t="n">
         <v>2692.31</v>
       </c>
     </row>
@@ -1883,16 +2074,19 @@
       <c r="H64" t="n">
         <v>1902.42</v>
       </c>
-      <c r="O64" t="n">
+      <c r="J64" t="n">
+        <v>2242</v>
+      </c>
+      <c r="P64" t="n">
         <v>64.86</v>
       </c>
-      <c r="P64" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q64" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R64" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S64" t="n">
         <v>2692.31</v>
       </c>
     </row>
@@ -1906,16 +2100,19 @@
       <c r="H65" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O65" t="n">
+      <c r="J65" t="n">
+        <v>2209</v>
+      </c>
+      <c r="P65" t="n">
         <v>64.86</v>
       </c>
-      <c r="P65" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q65" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R65" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S65" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -1929,16 +2126,19 @@
       <c r="H66" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O66" t="n">
+      <c r="J66" t="n">
+        <v>2273</v>
+      </c>
+      <c r="P66" t="n">
         <v>64.86</v>
       </c>
-      <c r="P66" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q66" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R66" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S66" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -1952,16 +2152,19 @@
       <c r="H67" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O67" t="n">
+      <c r="J67" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P67" t="n">
         <v>64.86</v>
       </c>
-      <c r="P67" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q67" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R67" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S67" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -1975,16 +2178,19 @@
       <c r="H68" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O68" t="n">
+      <c r="J68" t="n">
+        <v>1999</v>
+      </c>
+      <c r="P68" t="n">
         <v>64.86</v>
       </c>
-      <c r="P68" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q68" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R68" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S68" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -1998,16 +2204,19 @@
       <c r="H69" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O69" t="n">
+      <c r="J69" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P69" t="n">
         <v>64.86</v>
       </c>
-      <c r="P69" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q69" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R69" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S69" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2021,16 +2230,19 @@
       <c r="H70" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O70" t="n">
+      <c r="J70" t="n">
+        <v>1871</v>
+      </c>
+      <c r="P70" t="n">
         <v>64.86</v>
       </c>
-      <c r="P70" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q70" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R70" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S70" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2044,16 +2256,19 @@
       <c r="H71" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O71" t="n">
+      <c r="J71" t="n">
+        <v>1838</v>
+      </c>
+      <c r="P71" t="n">
         <v>64.86</v>
       </c>
-      <c r="P71" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q71" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R71" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S71" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2067,16 +2282,19 @@
       <c r="H72" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O72" t="n">
+      <c r="J72" t="n">
+        <v>1818</v>
+      </c>
+      <c r="P72" t="n">
         <v>64.86</v>
       </c>
-      <c r="P72" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q72" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R72" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S72" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2090,16 +2308,19 @@
       <c r="H73" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O73" t="n">
+      <c r="J73" t="n">
+        <v>2050</v>
+      </c>
+      <c r="P73" t="n">
         <v>64.86</v>
       </c>
-      <c r="P73" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q73" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R73" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S73" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2113,16 +2334,19 @@
       <c r="H74" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O74" t="n">
+      <c r="J74" t="n">
+        <v>2058</v>
+      </c>
+      <c r="P74" t="n">
         <v>64.86</v>
       </c>
-      <c r="P74" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q74" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R74" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S74" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2136,16 +2360,19 @@
       <c r="H75" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O75" t="n">
+      <c r="J75" t="n">
+        <v>1977</v>
+      </c>
+      <c r="P75" t="n">
         <v>64.86</v>
       </c>
-      <c r="P75" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q75" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R75" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S75" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2159,16 +2386,19 @@
       <c r="H76" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O76" t="n">
+      <c r="J76" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P76" t="n">
         <v>64.86</v>
       </c>
-      <c r="P76" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q76" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R76" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S76" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2182,16 +2412,19 @@
       <c r="H77" t="n">
         <v>1904.32</v>
       </c>
-      <c r="O77" t="n">
+      <c r="J77" t="n">
+        <v>2071</v>
+      </c>
+      <c r="P77" t="n">
         <v>64.86</v>
       </c>
-      <c r="P77" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q77" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R77" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S77" t="n">
         <v>2694.21</v>
       </c>
     </row>
@@ -2205,16 +2438,19 @@
       <c r="H78" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O78" t="n">
+      <c r="J78" t="n">
+        <v>3960</v>
+      </c>
+      <c r="P78" t="n">
         <v>64.86</v>
       </c>
-      <c r="P78" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q78" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R78" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S78" t="n">
         <v>2711.35</v>
       </c>
     </row>
@@ -2228,16 +2464,19 @@
       <c r="H79" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O79" t="n">
+      <c r="J79" t="n">
+        <v>1929</v>
+      </c>
+      <c r="P79" t="n">
         <v>64.86</v>
       </c>
-      <c r="P79" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q79" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R79" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S79" t="n">
         <v>2711.35</v>
       </c>
     </row>
@@ -2251,16 +2490,19 @@
       <c r="H80" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O80" t="n">
+      <c r="J80" t="n">
+        <v>2007</v>
+      </c>
+      <c r="P80" t="n">
         <v>64.86</v>
       </c>
-      <c r="P80" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q80" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R80" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S80" t="n">
         <v>2711.35</v>
       </c>
     </row>
@@ -2274,16 +2516,19 @@
       <c r="H81" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O81" t="n">
+      <c r="J81" t="n">
+        <v>2193</v>
+      </c>
+      <c r="P81" t="n">
         <v>97.29000000000001</v>
       </c>
-      <c r="P81" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q81" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R81" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S81" t="n">
         <v>2743.78</v>
       </c>
     </row>
@@ -2297,16 +2542,19 @@
       <c r="H82" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O82" t="n">
+      <c r="J82" t="n">
+        <v>2174</v>
+      </c>
+      <c r="P82" t="n">
         <v>97.29000000000001</v>
       </c>
-      <c r="P82" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q82" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R82" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S82" t="n">
         <v>2743.78</v>
       </c>
     </row>
@@ -2320,16 +2568,19 @@
       <c r="H83" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O83" t="n">
+      <c r="J83" t="n">
+        <v>2056</v>
+      </c>
+      <c r="P83" t="n">
         <v>97.29000000000001</v>
       </c>
-      <c r="P83" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q83" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R83" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S83" t="n">
         <v>2743.78</v>
       </c>
     </row>
@@ -2343,16 +2594,19 @@
       <c r="H84" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O84" t="n">
+      <c r="J84" t="n">
+        <v>1852</v>
+      </c>
+      <c r="P84" t="n">
         <v>97.29000000000001</v>
       </c>
-      <c r="P84" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q84" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R84" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S84" t="n">
         <v>2743.78</v>
       </c>
     </row>
@@ -2366,16 +2620,19 @@
       <c r="H85" t="n">
         <v>1921.46</v>
       </c>
-      <c r="O85" t="n">
+      <c r="J85" t="n">
+        <v>1846</v>
+      </c>
+      <c r="P85" t="n">
         <v>97.29000000000001</v>
       </c>
-      <c r="P85" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q85" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R85" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S85" t="n">
         <v>2743.78</v>
       </c>
     </row>
@@ -2389,16 +2646,19 @@
       <c r="H86" t="n">
         <v>2061.41</v>
       </c>
-      <c r="O86" t="n">
+      <c r="J86" t="n">
+        <v>2090</v>
+      </c>
+      <c r="P86" t="n">
         <v>109.23</v>
       </c>
-      <c r="P86" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q86" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R86" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S86" t="n">
         <v>2895.67</v>
       </c>
     </row>
@@ -2412,16 +2672,19 @@
       <c r="H87" t="n">
         <v>2061.41</v>
       </c>
-      <c r="O87" t="n">
+      <c r="J87" t="n">
+        <v>2128</v>
+      </c>
+      <c r="P87" t="n">
         <v>109.23</v>
       </c>
-      <c r="P87" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q87" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R87" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S87" t="n">
         <v>2895.67</v>
       </c>
     </row>
@@ -2435,16 +2698,19 @@
       <c r="H88" t="n">
         <v>2061.41</v>
       </c>
-      <c r="O88" t="n">
+      <c r="J88" t="n">
+        <v>2078</v>
+      </c>
+      <c r="P88" t="n">
         <v>109.23</v>
       </c>
-      <c r="P88" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q88" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R88" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S88" t="n">
         <v>2895.67</v>
       </c>
     </row>
@@ -2458,16 +2724,19 @@
       <c r="H89" t="n">
         <v>2061.41</v>
       </c>
-      <c r="O89" t="n">
+      <c r="J89" t="n">
+        <v>2141</v>
+      </c>
+      <c r="P89" t="n">
         <v>109.23</v>
       </c>
-      <c r="P89" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q89" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R89" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S89" t="n">
         <v>2895.67</v>
       </c>
     </row>
@@ -2481,16 +2750,19 @@
       <c r="H90" t="n">
         <v>2061.41</v>
       </c>
-      <c r="O90" t="n">
+      <c r="J90" t="n">
+        <v>2078</v>
+      </c>
+      <c r="P90" t="n">
         <v>109.23</v>
       </c>
-      <c r="P90" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q90" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R90" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S90" t="n">
         <v>2895.67</v>
       </c>
     </row>
@@ -2504,16 +2776,19 @@
       <c r="H91" t="n">
         <v>2077.9</v>
       </c>
-      <c r="O91" t="n">
+      <c r="J91" t="n">
+        <v>1913</v>
+      </c>
+      <c r="P91" t="n">
         <v>109.23</v>
       </c>
-      <c r="P91" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q91" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R91" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S91" t="n">
         <v>2912.16</v>
       </c>
     </row>
@@ -2527,16 +2802,19 @@
       <c r="H92" t="n">
         <v>2077.9</v>
       </c>
-      <c r="O92" t="n">
+      <c r="J92" t="n">
+        <v>2321</v>
+      </c>
+      <c r="P92" t="n">
         <v>109.23</v>
       </c>
-      <c r="P92" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q92" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R92" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S92" t="n">
         <v>2912.16</v>
       </c>
     </row>
@@ -2550,16 +2828,19 @@
       <c r="H93" t="n">
         <v>2077.9</v>
       </c>
-      <c r="O93" t="n">
+      <c r="J93" t="n">
+        <v>2087</v>
+      </c>
+      <c r="P93" t="n">
         <v>109.23</v>
       </c>
-      <c r="P93" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q93" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R93" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S93" t="n">
         <v>2912.16</v>
       </c>
     </row>
@@ -2573,16 +2854,19 @@
       <c r="H94" t="n">
         <v>2077.9</v>
       </c>
-      <c r="O94" t="n">
+      <c r="J94" t="n">
+        <v>2302</v>
+      </c>
+      <c r="P94" t="n">
         <v>109.23</v>
       </c>
-      <c r="P94" t="n">
-        <v>674.16</v>
-      </c>
       <c r="Q94" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="R94" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="S94" t="n">
         <v>2912.16</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -459,11 +459,35 @@
       <c r="B2" t="n">
         <v>10.33</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" t="n">
         <v>1634.56</v>
       </c>
       <c r="J2" t="n">
         <v>255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -485,11 +509,35 @@
       <c r="B3" t="n">
         <v>10.33</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H3" t="n">
         <v>1634.56</v>
       </c>
       <c r="J3" t="n">
         <v>1339</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.67</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -511,11 +559,35 @@
       <c r="B4" t="n">
         <v>10.33</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H4" t="n">
         <v>1634.56</v>
       </c>
       <c r="J4" t="n">
         <v>1695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17.34</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -537,11 +609,35 @@
       <c r="B5" t="n">
         <v>10.33</v>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H5" t="n">
         <v>1634.56</v>
       </c>
       <c r="J5" t="n">
         <v>1342</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>26.01</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -563,11 +659,35 @@
       <c r="B6" t="n">
         <v>10.33</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H6" t="n">
         <v>1634.56</v>
       </c>
       <c r="J6" t="n">
         <v>755</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="N6" t="n">
+        <v>34.68</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -589,11 +709,35 @@
       <c r="B7" t="n">
         <v>10.33</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H7" t="n">
         <v>1634.56</v>
       </c>
       <c r="J7" t="n">
         <v>402</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="N7" t="n">
+        <v>34.68</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -615,11 +759,35 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H8" t="n">
         <v>1679.89</v>
       </c>
       <c r="J8" t="n">
         <v>1271</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.67</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -641,11 +809,35 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
+      <c r="C9" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H9" t="n">
         <v>1679.89</v>
       </c>
       <c r="J9" t="n">
         <v>1306</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17.34</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -667,11 +859,35 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
+      <c r="C10" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H10" t="n">
         <v>1679.89</v>
       </c>
       <c r="J10" t="n">
         <v>1264</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="N10" t="n">
+        <v>26.01</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -693,11 +909,35 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
+      <c r="C11" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H11" t="n">
         <v>1679.89</v>
       </c>
       <c r="J11" t="n">
         <v>1262</v>
+      </c>
+      <c r="K11" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="N11" t="n">
+        <v>34.68</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -719,11 +959,35 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
+      <c r="C12" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.35</v>
+      </c>
       <c r="H12" t="n">
         <v>1679.89</v>
       </c>
       <c r="J12" t="n">
         <v>2472</v>
+      </c>
+      <c r="K12" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>43.35</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -745,11 +1009,35 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
+      <c r="C13" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.02</v>
+      </c>
       <c r="H13" t="n">
         <v>1679.89</v>
       </c>
       <c r="J13" t="n">
         <v>1259</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>52.02</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -771,11 +1059,35 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
+      <c r="C14" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.69</v>
+      </c>
       <c r="H14" t="n">
         <v>1679.89</v>
       </c>
       <c r="J14" t="n">
         <v>1306</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="N14" t="n">
+        <v>60.69</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -797,11 +1109,35 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
+      <c r="C15" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.36</v>
+      </c>
       <c r="H15" t="n">
         <v>1679.89</v>
       </c>
       <c r="J15" t="n">
         <v>1262</v>
+      </c>
+      <c r="K15" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>104.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>69.36</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -823,11 +1159,35 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
+      <c r="C16" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.03</v>
+      </c>
       <c r="H16" t="n">
         <v>1679.89</v>
       </c>
       <c r="J16" t="n">
         <v>1260</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>112.71</v>
+      </c>
+      <c r="N16" t="n">
+        <v>78.03</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -849,11 +1209,35 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.7</v>
+      </c>
       <c r="H17" t="n">
         <v>1679.89</v>
       </c>
       <c r="J17" t="n">
         <v>1963</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>121.38</v>
+      </c>
+      <c r="N17" t="n">
+        <v>86.7</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -875,11 +1259,35 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
+      <c r="C18" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18.37</v>
+      </c>
       <c r="H18" t="n">
         <v>1679.89</v>
       </c>
       <c r="J18" t="n">
         <v>1960</v>
+      </c>
+      <c r="K18" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>130.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>95.37</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -901,11 +1309,35 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
       <c r="H19" t="n">
         <v>1679.89</v>
       </c>
       <c r="J19" t="n">
         <v>2104</v>
+      </c>
+      <c r="K19" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>138.68</v>
+      </c>
+      <c r="N19" t="n">
+        <v>104</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -927,11 +1359,35 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
+      <c r="C20" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
       <c r="H20" t="n">
         <v>1679.89</v>
       </c>
       <c r="J20" t="n">
         <v>1193</v>
+      </c>
+      <c r="K20" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>138.68</v>
+      </c>
+      <c r="N20" t="n">
+        <v>104</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -953,11 +1409,35 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
+      <c r="C21" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H21" t="n">
         <v>1724.89</v>
       </c>
       <c r="J21" t="n">
         <v>1861</v>
+      </c>
+      <c r="K21" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>143.35</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.67</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -979,11 +1459,35 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
+      <c r="C22" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H22" t="n">
         <v>1724.89</v>
       </c>
       <c r="J22" t="n">
         <v>2210</v>
+      </c>
+      <c r="K22" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>152.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17.34</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1005,11 +1509,35 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
+      <c r="C23" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H23" t="n">
         <v>1724.89</v>
       </c>
       <c r="J23" t="n">
         <v>2130</v>
+      </c>
+      <c r="K23" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>160.69</v>
+      </c>
+      <c r="N23" t="n">
+        <v>26.01</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1031,11 +1559,35 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
+      <c r="C24" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H24" t="n">
         <v>1847.11</v>
       </c>
       <c r="J24" t="n">
         <v>3158</v>
+      </c>
+      <c r="K24" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>169.36</v>
+      </c>
+      <c r="N24" t="n">
+        <v>34.68</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1057,11 +1609,35 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
+      <c r="C25" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.35</v>
+      </c>
       <c r="H25" t="n">
         <v>1847.11</v>
       </c>
       <c r="J25" t="n">
         <v>2141</v>
+      </c>
+      <c r="K25" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>178.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>43.35</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1083,11 +1659,35 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
+      <c r="C26" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10.02</v>
+      </c>
       <c r="H26" t="n">
         <v>1847.11</v>
       </c>
       <c r="J26" t="n">
         <v>2155</v>
+      </c>
+      <c r="K26" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="N26" t="n">
+        <v>52.02</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1109,11 +1709,35 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
+      <c r="C27" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11.69</v>
+      </c>
       <c r="H27" t="n">
         <v>1847.11</v>
       </c>
       <c r="J27" t="n">
         <v>2074</v>
+      </c>
+      <c r="K27" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>195.37</v>
+      </c>
+      <c r="N27" t="n">
+        <v>60.69</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1135,11 +1759,35 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
+      <c r="C28" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13.36</v>
+      </c>
       <c r="H28" t="n">
         <v>1847.11</v>
       </c>
       <c r="J28" t="n">
         <v>2083</v>
+      </c>
+      <c r="K28" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>204.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>69.36</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1161,11 +1809,35 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
+      <c r="C29" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.03</v>
+      </c>
       <c r="H29" t="n">
         <v>1847.11</v>
       </c>
       <c r="J29" t="n">
         <v>1928</v>
+      </c>
+      <c r="K29" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>212.71</v>
+      </c>
+      <c r="N29" t="n">
+        <v>78.03</v>
       </c>
       <c r="P29" t="n">
         <v>32.43</v>
@@ -1187,11 +1859,35 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
+      <c r="C30" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="F30" t="n">
+        <v>16.7</v>
+      </c>
       <c r="H30" t="n">
         <v>1847.11</v>
       </c>
       <c r="J30" t="n">
         <v>1976</v>
+      </c>
+      <c r="K30" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>221.38</v>
+      </c>
+      <c r="N30" t="n">
+        <v>86.7</v>
       </c>
       <c r="P30" t="n">
         <v>32.43</v>
@@ -1213,11 +1909,35 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
+      <c r="C31" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18.37</v>
+      </c>
       <c r="H31" t="n">
         <v>1847.11</v>
       </c>
       <c r="J31" t="n">
         <v>2111</v>
+      </c>
+      <c r="K31" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>230.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>95.37</v>
       </c>
       <c r="P31" t="n">
         <v>32.43</v>
@@ -1239,11 +1959,35 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
+      <c r="C32" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20</v>
+      </c>
       <c r="H32" t="n">
         <v>1847.11</v>
       </c>
       <c r="J32" t="n">
         <v>2465</v>
+      </c>
+      <c r="K32" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="N32" t="n">
+        <v>104</v>
       </c>
       <c r="P32" t="n">
         <v>32.43</v>
@@ -1265,11 +2009,35 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
+      <c r="C33" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
       <c r="H33" t="n">
         <v>1847.11</v>
       </c>
       <c r="J33" t="n">
         <v>1326</v>
+      </c>
+      <c r="K33" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="N33" t="n">
+        <v>104</v>
       </c>
       <c r="P33" t="n">
         <v>32.43</v>
@@ -1291,11 +2059,35 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
+      <c r="C34" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H34" t="n">
         <v>1902.42</v>
       </c>
       <c r="J34" t="n">
         <v>2300</v>
+      </c>
+      <c r="K34" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>247.35</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.67</v>
       </c>
       <c r="P34" t="n">
         <v>32.43</v>
@@ -1317,11 +2109,35 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
+      <c r="C35" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H35" t="n">
         <v>1902.42</v>
       </c>
       <c r="J35" t="n">
         <v>2412</v>
+      </c>
+      <c r="K35" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>256.02</v>
+      </c>
+      <c r="N35" t="n">
+        <v>17.34</v>
       </c>
       <c r="P35" t="n">
         <v>32.43</v>
@@ -1343,11 +2159,35 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
+      <c r="C36" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H36" t="n">
         <v>1902.42</v>
       </c>
       <c r="J36" t="n">
         <v>2123</v>
+      </c>
+      <c r="K36" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>264.69</v>
+      </c>
+      <c r="N36" t="n">
+        <v>26.01</v>
       </c>
       <c r="P36" t="n">
         <v>32.43</v>
@@ -1369,11 +2209,35 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
+      <c r="C37" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H37" t="n">
         <v>1902.42</v>
       </c>
       <c r="J37" t="n">
         <v>2108</v>
+      </c>
+      <c r="K37" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>273.36</v>
+      </c>
+      <c r="N37" t="n">
+        <v>34.68</v>
       </c>
       <c r="P37" t="n">
         <v>32.43</v>
@@ -1395,11 +2259,35 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
+      <c r="C38" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8.35</v>
+      </c>
       <c r="H38" t="n">
         <v>1902.42</v>
       </c>
       <c r="J38" t="n">
         <v>2119</v>
+      </c>
+      <c r="K38" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>282.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>43.35</v>
       </c>
       <c r="P38" t="n">
         <v>32.43</v>
@@ -1421,11 +2309,35 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
+      <c r="C39" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10.02</v>
+      </c>
       <c r="H39" t="n">
         <v>1902.42</v>
       </c>
       <c r="J39" t="n">
         <v>2143</v>
+      </c>
+      <c r="K39" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>290.7</v>
+      </c>
+      <c r="N39" t="n">
+        <v>52.02</v>
       </c>
       <c r="P39" t="n">
         <v>32.43</v>
@@ -1447,11 +2359,35 @@
       <c r="B40" t="n">
         <v>0</v>
       </c>
+      <c r="C40" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11.69</v>
+      </c>
       <c r="H40" t="n">
         <v>1902.42</v>
       </c>
       <c r="J40" t="n">
         <v>2145</v>
+      </c>
+      <c r="K40" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>299.37</v>
+      </c>
+      <c r="N40" t="n">
+        <v>60.69</v>
       </c>
       <c r="P40" t="n">
         <v>32.43</v>
@@ -1473,11 +2409,35 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
+      <c r="C41" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="F41" t="n">
+        <v>13.36</v>
+      </c>
       <c r="H41" t="n">
         <v>1902.42</v>
       </c>
       <c r="J41" t="n">
         <v>2144</v>
+      </c>
+      <c r="K41" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>308.04</v>
+      </c>
+      <c r="N41" t="n">
+        <v>69.36</v>
       </c>
       <c r="P41" t="n">
         <v>32.43</v>
@@ -1499,11 +2459,35 @@
       <c r="B42" t="n">
         <v>0</v>
       </c>
+      <c r="C42" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>35.21</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15.03</v>
+      </c>
       <c r="H42" t="n">
         <v>1902.42</v>
       </c>
       <c r="J42" t="n">
         <v>2163</v>
+      </c>
+      <c r="K42" t="n">
+        <v>198.68</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>276.71</v>
+      </c>
+      <c r="N42" t="n">
+        <v>78.03</v>
       </c>
       <c r="P42" t="n">
         <v>32.43</v>
@@ -1525,11 +2509,35 @@
       <c r="B43" t="n">
         <v>0</v>
       </c>
+      <c r="C43" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16.7</v>
+      </c>
       <c r="H43" t="n">
         <v>1902.42</v>
       </c>
       <c r="J43" t="n">
         <v>2414</v>
+      </c>
+      <c r="K43" t="n">
+        <v>198.68</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>285.38</v>
+      </c>
+      <c r="N43" t="n">
+        <v>86.7</v>
       </c>
       <c r="P43" t="n">
         <v>32.43</v>
@@ -1551,11 +2559,35 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
+      <c r="C44" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="F44" t="n">
+        <v>18.37</v>
+      </c>
       <c r="H44" t="n">
         <v>1902.42</v>
       </c>
       <c r="J44" t="n">
         <v>2276</v>
+      </c>
+      <c r="K44" t="n">
+        <v>198.68</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>294.05</v>
+      </c>
+      <c r="N44" t="n">
+        <v>95.37</v>
       </c>
       <c r="P44" t="n">
         <v>32.43</v>
@@ -1577,11 +2609,35 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
+      <c r="C45" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20</v>
+      </c>
       <c r="H45" t="n">
         <v>1902.42</v>
       </c>
       <c r="J45" t="n">
         <v>2530</v>
+      </c>
+      <c r="K45" t="n">
+        <v>198.68</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="N45" t="n">
+        <v>104</v>
       </c>
       <c r="P45" t="n">
         <v>32.43</v>
@@ -1603,11 +2659,35 @@
       <c r="B46" t="n">
         <v>0</v>
       </c>
+      <c r="C46" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20</v>
+      </c>
       <c r="H46" t="n">
         <v>1902.42</v>
       </c>
       <c r="J46" t="n">
         <v>1362</v>
+      </c>
+      <c r="K46" t="n">
+        <v>198.68</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="N46" t="n">
+        <v>104</v>
       </c>
       <c r="P46" t="n">
         <v>32.43</v>
@@ -1629,11 +2709,35 @@
       <c r="B47" t="n">
         <v>0</v>
       </c>
+      <c r="C47" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H47" t="n">
         <v>1902.42</v>
       </c>
       <c r="J47" t="n">
         <v>1970</v>
+      </c>
+      <c r="K47" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>311.35</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.67</v>
       </c>
       <c r="P47" t="n">
         <v>32.43</v>
@@ -1655,11 +2759,35 @@
       <c r="B48" t="n">
         <v>0</v>
       </c>
+      <c r="C48" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H48" t="n">
         <v>1902.42</v>
       </c>
       <c r="J48" t="n">
         <v>2189</v>
+      </c>
+      <c r="K48" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>320.02</v>
+      </c>
+      <c r="N48" t="n">
+        <v>17.34</v>
       </c>
       <c r="P48" t="n">
         <v>32.43</v>
@@ -1681,11 +2809,35 @@
       <c r="B49" t="n">
         <v>0</v>
       </c>
+      <c r="C49" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H49" t="n">
         <v>1902.42</v>
       </c>
       <c r="J49" t="n">
         <v>2793</v>
+      </c>
+      <c r="K49" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>328.69</v>
+      </c>
+      <c r="N49" t="n">
+        <v>26.01</v>
       </c>
       <c r="P49" t="n">
         <v>32.43</v>
@@ -1707,11 +2859,35 @@
       <c r="B50" t="n">
         <v>0</v>
       </c>
+      <c r="C50" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H50" t="n">
         <v>1902.42</v>
       </c>
       <c r="J50" t="n">
         <v>2191</v>
+      </c>
+      <c r="K50" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>337.36</v>
+      </c>
+      <c r="N50" t="n">
+        <v>34.68</v>
       </c>
       <c r="P50" t="n">
         <v>32.43</v>
@@ -1733,11 +2909,35 @@
       <c r="B51" t="n">
         <v>0</v>
       </c>
+      <c r="C51" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8.35</v>
+      </c>
       <c r="H51" t="n">
         <v>1902.42</v>
       </c>
       <c r="J51" t="n">
         <v>2194</v>
+      </c>
+      <c r="K51" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>346.03</v>
+      </c>
+      <c r="N51" t="n">
+        <v>43.35</v>
       </c>
       <c r="P51" t="n">
         <v>32.43</v>
@@ -1759,11 +2959,35 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
+      <c r="C52" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10.02</v>
+      </c>
       <c r="H52" t="n">
         <v>1902.42</v>
       </c>
       <c r="J52" t="n">
         <v>2261</v>
+      </c>
+      <c r="K52" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>354.7</v>
+      </c>
+      <c r="N52" t="n">
+        <v>52.02</v>
       </c>
       <c r="P52" t="n">
         <v>32.43</v>
@@ -1785,11 +3009,35 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
+      <c r="C53" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11.69</v>
+      </c>
       <c r="H53" t="n">
         <v>1902.42</v>
       </c>
       <c r="J53" t="n">
         <v>2837</v>
+      </c>
+      <c r="K53" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>363.37</v>
+      </c>
+      <c r="N53" t="n">
+        <v>60.69</v>
       </c>
       <c r="P53" t="n">
         <v>32.43</v>
@@ -1811,11 +3059,35 @@
       <c r="B54" t="n">
         <v>0</v>
       </c>
+      <c r="C54" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13.36</v>
+      </c>
       <c r="H54" t="n">
         <v>1902.42</v>
       </c>
       <c r="J54" t="n">
         <v>2891</v>
+      </c>
+      <c r="K54" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>372.04</v>
+      </c>
+      <c r="N54" t="n">
+        <v>69.36</v>
       </c>
       <c r="P54" t="n">
         <v>32.43</v>
@@ -1837,11 +3109,35 @@
       <c r="B55" t="n">
         <v>0</v>
       </c>
+      <c r="C55" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D55" t="n">
+        <v>12</v>
+      </c>
+      <c r="E55" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15.03</v>
+      </c>
       <c r="H55" t="n">
         <v>1902.42</v>
       </c>
       <c r="J55" t="n">
         <v>2655</v>
+      </c>
+      <c r="K55" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>380.71</v>
+      </c>
+      <c r="N55" t="n">
+        <v>78.03</v>
       </c>
       <c r="P55" t="n">
         <v>64.86</v>
@@ -1863,11 +3159,35 @@
       <c r="B56" t="n">
         <v>0</v>
       </c>
+      <c r="C56" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D56" t="n">
+        <v>12</v>
+      </c>
+      <c r="E56" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16.7</v>
+      </c>
       <c r="H56" t="n">
         <v>1902.42</v>
       </c>
       <c r="J56" t="n">
         <v>2586</v>
+      </c>
+      <c r="K56" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>389.38</v>
+      </c>
+      <c r="N56" t="n">
+        <v>86.7</v>
       </c>
       <c r="P56" t="n">
         <v>64.86</v>
@@ -1889,11 +3209,35 @@
       <c r="B57" t="n">
         <v>0</v>
       </c>
+      <c r="C57" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D57" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="F57" t="n">
+        <v>18.37</v>
+      </c>
       <c r="H57" t="n">
         <v>1902.42</v>
       </c>
       <c r="J57" t="n">
         <v>2763</v>
+      </c>
+      <c r="K57" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>398.05</v>
+      </c>
+      <c r="N57" t="n">
+        <v>95.37</v>
       </c>
       <c r="P57" t="n">
         <v>64.86</v>
@@ -1915,11 +3259,35 @@
       <c r="B58" t="n">
         <v>0</v>
       </c>
+      <c r="C58" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D58" t="n">
+        <v>14</v>
+      </c>
+      <c r="E58" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20</v>
+      </c>
       <c r="H58" t="n">
         <v>1902.42</v>
       </c>
       <c r="J58" t="n">
         <v>2367</v>
+      </c>
+      <c r="K58" t="n">
+        <v>298.68</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>402.68</v>
+      </c>
+      <c r="N58" t="n">
+        <v>104</v>
       </c>
       <c r="P58" t="n">
         <v>64.86</v>
@@ -1941,11 +3309,35 @@
       <c r="B59" t="n">
         <v>0</v>
       </c>
+      <c r="C59" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20</v>
+      </c>
       <c r="H59" t="n">
         <v>1902.42</v>
       </c>
       <c r="J59" t="n">
         <v>1383</v>
+      </c>
+      <c r="K59" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>406.68</v>
+      </c>
+      <c r="N59" t="n">
+        <v>104</v>
       </c>
       <c r="P59" t="n">
         <v>64.86</v>
@@ -1967,11 +3359,35 @@
       <c r="B60" t="n">
         <v>0</v>
       </c>
+      <c r="C60" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H60" t="n">
         <v>1902.42</v>
       </c>
       <c r="J60" t="n">
         <v>2755</v>
+      </c>
+      <c r="K60" t="n">
+        <v>402.68</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>411.35</v>
+      </c>
+      <c r="N60" t="n">
+        <v>8.67</v>
       </c>
       <c r="P60" t="n">
         <v>64.86</v>
@@ -1993,11 +3409,35 @@
       <c r="B61" t="n">
         <v>0</v>
       </c>
+      <c r="C61" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H61" t="n">
         <v>1902.42</v>
       </c>
       <c r="J61" t="n">
         <v>1895</v>
+      </c>
+      <c r="K61" t="n">
+        <v>402.68</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>420.02</v>
+      </c>
+      <c r="N61" t="n">
+        <v>17.34</v>
       </c>
       <c r="P61" t="n">
         <v>64.86</v>
@@ -2019,11 +3459,35 @@
       <c r="B62" t="n">
         <v>0</v>
       </c>
+      <c r="C62" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H62" t="n">
         <v>1902.42</v>
       </c>
       <c r="J62" t="n">
         <v>2444</v>
+      </c>
+      <c r="K62" t="n">
+        <v>402.68</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>428.69</v>
+      </c>
+      <c r="N62" t="n">
+        <v>26.01</v>
       </c>
       <c r="P62" t="n">
         <v>64.86</v>
@@ -2045,11 +3509,35 @@
       <c r="B63" t="n">
         <v>0</v>
       </c>
+      <c r="C63" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H63" t="n">
         <v>1902.42</v>
       </c>
       <c r="J63" t="n">
         <v>2375</v>
+      </c>
+      <c r="K63" t="n">
+        <v>402.68</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>437.36</v>
+      </c>
+      <c r="N63" t="n">
+        <v>34.68</v>
       </c>
       <c r="P63" t="n">
         <v>64.86</v>
@@ -2071,11 +3559,35 @@
       <c r="B64" t="n">
         <v>0</v>
       </c>
+      <c r="C64" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11</v>
+      </c>
+      <c r="E64" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.35</v>
+      </c>
       <c r="H64" t="n">
         <v>1902.42</v>
       </c>
       <c r="J64" t="n">
         <v>2242</v>
+      </c>
+      <c r="K64" t="n">
+        <v>402.68</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>446.03</v>
+      </c>
+      <c r="N64" t="n">
+        <v>43.35</v>
       </c>
       <c r="P64" t="n">
         <v>64.86</v>
@@ -2097,11 +3609,35 @@
       <c r="B65" t="n">
         <v>0</v>
       </c>
+      <c r="C65" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D65" t="n">
+        <v>13</v>
+      </c>
+      <c r="E65" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10.02</v>
+      </c>
       <c r="H65" t="n">
         <v>1904.32</v>
       </c>
       <c r="J65" t="n">
         <v>2209</v>
+      </c>
+      <c r="K65" t="n">
+        <v>402.68</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>454.7</v>
+      </c>
+      <c r="N65" t="n">
+        <v>52.02</v>
       </c>
       <c r="P65" t="n">
         <v>64.86</v>
@@ -2123,11 +3659,35 @@
       <c r="B66" t="n">
         <v>0</v>
       </c>
+      <c r="C66" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13</v>
+      </c>
+      <c r="E66" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11.69</v>
+      </c>
       <c r="H66" t="n">
         <v>1904.32</v>
       </c>
       <c r="J66" t="n">
         <v>2273</v>
+      </c>
+      <c r="K66" t="n">
+        <v>398.68</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>459.37</v>
+      </c>
+      <c r="N66" t="n">
+        <v>60.69</v>
       </c>
       <c r="P66" t="n">
         <v>64.86</v>
@@ -2149,11 +3709,35 @@
       <c r="B67" t="n">
         <v>0</v>
       </c>
+      <c r="C67" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="D67" t="n">
+        <v>16</v>
+      </c>
+      <c r="E67" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="F67" t="n">
+        <v>13.36</v>
+      </c>
       <c r="H67" t="n">
         <v>1904.32</v>
       </c>
       <c r="J67" t="n">
         <v>2001</v>
+      </c>
+      <c r="K67" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>464.04</v>
+      </c>
+      <c r="N67" t="n">
+        <v>69.36</v>
       </c>
       <c r="P67" t="n">
         <v>64.86</v>
@@ -2175,11 +3759,35 @@
       <c r="B68" t="n">
         <v>0</v>
       </c>
+      <c r="C68" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="D68" t="n">
+        <v>20</v>
+      </c>
+      <c r="E68" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15.03</v>
+      </c>
       <c r="H68" t="n">
         <v>1904.32</v>
       </c>
       <c r="J68" t="n">
         <v>1999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>472.71</v>
+      </c>
+      <c r="N68" t="n">
+        <v>78.03</v>
       </c>
       <c r="P68" t="n">
         <v>64.86</v>
@@ -2201,11 +3809,35 @@
       <c r="B69" t="n">
         <v>0</v>
       </c>
+      <c r="C69" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="D69" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="F69" t="n">
+        <v>16.7</v>
+      </c>
       <c r="H69" t="n">
         <v>1904.32</v>
       </c>
       <c r="J69" t="n">
         <v>2001</v>
+      </c>
+      <c r="K69" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>481.38</v>
+      </c>
+      <c r="N69" t="n">
+        <v>86.7</v>
       </c>
       <c r="P69" t="n">
         <v>64.86</v>
@@ -2227,11 +3859,35 @@
       <c r="B70" t="n">
         <v>0</v>
       </c>
+      <c r="C70" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D70" t="n">
+        <v>20</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F70" t="n">
+        <v>18.37</v>
+      </c>
       <c r="H70" t="n">
         <v>1904.32</v>
       </c>
       <c r="J70" t="n">
         <v>1871</v>
+      </c>
+      <c r="K70" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>490.05</v>
+      </c>
+      <c r="N70" t="n">
+        <v>95.37</v>
       </c>
       <c r="P70" t="n">
         <v>64.86</v>
@@ -2253,11 +3909,35 @@
       <c r="B71" t="n">
         <v>0</v>
       </c>
+      <c r="C71" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F71" t="n">
+        <v>20</v>
+      </c>
       <c r="H71" t="n">
         <v>1904.32</v>
       </c>
       <c r="J71" t="n">
         <v>1838</v>
+      </c>
+      <c r="K71" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="N71" t="n">
+        <v>104</v>
       </c>
       <c r="P71" t="n">
         <v>64.86</v>
@@ -2279,11 +3959,35 @@
       <c r="B72" t="n">
         <v>0</v>
       </c>
+      <c r="C72" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D72" t="n">
+        <v>20</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20</v>
+      </c>
       <c r="H72" t="n">
         <v>1904.32</v>
       </c>
       <c r="J72" t="n">
         <v>1818</v>
+      </c>
+      <c r="K72" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="N72" t="n">
+        <v>104</v>
       </c>
       <c r="P72" t="n">
         <v>64.86</v>
@@ -2305,11 +4009,35 @@
       <c r="B73" t="n">
         <v>0</v>
       </c>
+      <c r="C73" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H73" t="n">
         <v>1904.32</v>
       </c>
       <c r="J73" t="n">
         <v>2050</v>
+      </c>
+      <c r="K73" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>507.35</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.67</v>
       </c>
       <c r="P73" t="n">
         <v>64.86</v>
@@ -2331,11 +4059,35 @@
       <c r="B74" t="n">
         <v>0</v>
       </c>
+      <c r="C74" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H74" t="n">
         <v>1904.32</v>
       </c>
       <c r="J74" t="n">
         <v>2058</v>
+      </c>
+      <c r="K74" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>516.02</v>
+      </c>
+      <c r="N74" t="n">
+        <v>17.34</v>
       </c>
       <c r="P74" t="n">
         <v>64.86</v>
@@ -2357,11 +4109,35 @@
       <c r="B75" t="n">
         <v>0</v>
       </c>
+      <c r="C75" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H75" t="n">
         <v>1904.32</v>
       </c>
       <c r="J75" t="n">
         <v>1977</v>
+      </c>
+      <c r="K75" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>524.6900000000001</v>
+      </c>
+      <c r="N75" t="n">
+        <v>26.01</v>
       </c>
       <c r="P75" t="n">
         <v>64.86</v>
@@ -2383,11 +4159,35 @@
       <c r="B76" t="n">
         <v>0</v>
       </c>
+      <c r="C76" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H76" t="n">
         <v>1904.32</v>
       </c>
       <c r="J76" t="n">
         <v>1980</v>
+      </c>
+      <c r="K76" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>533.36</v>
+      </c>
+      <c r="N76" t="n">
+        <v>34.68</v>
       </c>
       <c r="P76" t="n">
         <v>64.86</v>
@@ -2409,11 +4209,35 @@
       <c r="B77" t="n">
         <v>0</v>
       </c>
+      <c r="C77" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.35</v>
+      </c>
       <c r="H77" t="n">
         <v>1904.32</v>
       </c>
       <c r="J77" t="n">
         <v>2071</v>
+      </c>
+      <c r="K77" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>542.03</v>
+      </c>
+      <c r="N77" t="n">
+        <v>43.35</v>
       </c>
       <c r="P77" t="n">
         <v>64.86</v>
@@ -2435,11 +4259,35 @@
       <c r="B78" t="n">
         <v>0</v>
       </c>
+      <c r="C78" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10.02</v>
+      </c>
       <c r="H78" t="n">
         <v>1921.46</v>
       </c>
       <c r="J78" t="n">
         <v>3960</v>
+      </c>
+      <c r="K78" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>550.7</v>
+      </c>
+      <c r="N78" t="n">
+        <v>52.02</v>
       </c>
       <c r="P78" t="n">
         <v>64.86</v>
@@ -2461,11 +4309,35 @@
       <c r="B79" t="n">
         <v>0</v>
       </c>
+      <c r="C79" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11.69</v>
+      </c>
       <c r="H79" t="n">
         <v>1921.46</v>
       </c>
       <c r="J79" t="n">
         <v>1929</v>
+      </c>
+      <c r="K79" t="n">
+        <v>498.68</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>559.37</v>
+      </c>
+      <c r="N79" t="n">
+        <v>60.69</v>
       </c>
       <c r="P79" t="n">
         <v>64.86</v>
@@ -2487,11 +4359,35 @@
       <c r="B80" t="n">
         <v>0</v>
       </c>
+      <c r="C80" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13.36</v>
+      </c>
       <c r="H80" t="n">
         <v>1921.46</v>
       </c>
       <c r="J80" t="n">
         <v>2007</v>
+      </c>
+      <c r="K80" t="n">
+        <v>494.68</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>564.04</v>
+      </c>
+      <c r="N80" t="n">
+        <v>69.36</v>
       </c>
       <c r="P80" t="n">
         <v>64.86</v>
@@ -2513,11 +4409,35 @@
       <c r="B81" t="n">
         <v>0</v>
       </c>
+      <c r="C81" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F81" t="n">
+        <v>15.03</v>
+      </c>
       <c r="H81" t="n">
         <v>1921.46</v>
       </c>
       <c r="J81" t="n">
         <v>2193</v>
+      </c>
+      <c r="K81" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>570.71</v>
+      </c>
+      <c r="N81" t="n">
+        <v>78.03</v>
       </c>
       <c r="P81" t="n">
         <v>97.29000000000001</v>
@@ -2539,11 +4459,35 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>16.7</v>
+      </c>
       <c r="H82" t="n">
         <v>1921.46</v>
       </c>
       <c r="J82" t="n">
         <v>2174</v>
+      </c>
+      <c r="K82" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>579.38</v>
+      </c>
+      <c r="N82" t="n">
+        <v>86.7</v>
       </c>
       <c r="P82" t="n">
         <v>97.29000000000001</v>
@@ -2565,11 +4509,35 @@
       <c r="B83" t="n">
         <v>0</v>
       </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F83" t="n">
+        <v>18.37</v>
+      </c>
       <c r="H83" t="n">
         <v>1921.46</v>
       </c>
       <c r="J83" t="n">
         <v>2056</v>
+      </c>
+      <c r="K83" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>588.05</v>
+      </c>
+      <c r="N83" t="n">
+        <v>95.37</v>
       </c>
       <c r="P83" t="n">
         <v>97.29000000000001</v>
@@ -2591,11 +4559,35 @@
       <c r="B84" t="n">
         <v>0</v>
       </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20</v>
+      </c>
       <c r="H84" t="n">
         <v>1921.46</v>
       </c>
       <c r="J84" t="n">
         <v>1852</v>
+      </c>
+      <c r="K84" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>596.6799999999999</v>
+      </c>
+      <c r="N84" t="n">
+        <v>104</v>
       </c>
       <c r="P84" t="n">
         <v>97.29000000000001</v>
@@ -2617,11 +4609,35 @@
       <c r="B85" t="n">
         <v>0</v>
       </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20</v>
+      </c>
       <c r="H85" t="n">
         <v>1921.46</v>
       </c>
       <c r="J85" t="n">
         <v>1846</v>
+      </c>
+      <c r="K85" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>596.6799999999999</v>
+      </c>
+      <c r="N85" t="n">
+        <v>104</v>
       </c>
       <c r="P85" t="n">
         <v>97.29000000000001</v>
@@ -2643,11 +4659,35 @@
       <c r="B86" t="n">
         <v>0</v>
       </c>
+      <c r="C86" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.67</v>
+      </c>
       <c r="H86" t="n">
         <v>2061.41</v>
       </c>
       <c r="J86" t="n">
         <v>2090</v>
+      </c>
+      <c r="K86" t="n">
+        <v>594.6799999999999</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>603.35</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8.67</v>
       </c>
       <c r="P86" t="n">
         <v>109.23</v>
@@ -2669,11 +4709,35 @@
       <c r="B87" t="n">
         <v>0</v>
       </c>
+      <c r="C87" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.34</v>
+      </c>
       <c r="H87" t="n">
         <v>2061.41</v>
       </c>
       <c r="J87" t="n">
         <v>2128</v>
+      </c>
+      <c r="K87" t="n">
+        <v>594.6799999999999</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>612.02</v>
+      </c>
+      <c r="N87" t="n">
+        <v>17.34</v>
       </c>
       <c r="P87" t="n">
         <v>109.23</v>
@@ -2695,11 +4759,35 @@
       <c r="B88" t="n">
         <v>0</v>
       </c>
+      <c r="C88" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5.01</v>
+      </c>
       <c r="H88" t="n">
         <v>2061.41</v>
       </c>
       <c r="J88" t="n">
         <v>2078</v>
+      </c>
+      <c r="K88" t="n">
+        <v>591.6799999999999</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>617.6900000000001</v>
+      </c>
+      <c r="N88" t="n">
+        <v>26.01</v>
       </c>
       <c r="P88" t="n">
         <v>109.23</v>
@@ -2721,11 +4809,35 @@
       <c r="B89" t="n">
         <v>0</v>
       </c>
+      <c r="C89" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6.68</v>
+      </c>
       <c r="H89" t="n">
         <v>2061.41</v>
       </c>
       <c r="J89" t="n">
         <v>2141</v>
+      </c>
+      <c r="K89" t="n">
+        <v>543.6799999999999</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>578.36</v>
+      </c>
+      <c r="N89" t="n">
+        <v>34.68</v>
       </c>
       <c r="P89" t="n">
         <v>109.23</v>
@@ -2747,11 +4859,35 @@
       <c r="B90" t="n">
         <v>0</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.35</v>
+      </c>
       <c r="H90" t="n">
         <v>2061.41</v>
       </c>
       <c r="J90" t="n">
         <v>2078</v>
+      </c>
+      <c r="K90" t="n">
+        <v>511.68</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>555.03</v>
+      </c>
+      <c r="N90" t="n">
+        <v>43.35</v>
       </c>
       <c r="P90" t="n">
         <v>109.23</v>
@@ -2773,11 +4909,35 @@
       <c r="B91" t="n">
         <v>0</v>
       </c>
+      <c r="C91" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10.02</v>
+      </c>
       <c r="H91" t="n">
         <v>2077.9</v>
       </c>
       <c r="J91" t="n">
         <v>1913</v>
+      </c>
+      <c r="K91" t="n">
+        <v>511.68</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>563.7</v>
+      </c>
+      <c r="N91" t="n">
+        <v>52.02</v>
       </c>
       <c r="P91" t="n">
         <v>109.23</v>
@@ -2799,11 +4959,35 @@
       <c r="B92" t="n">
         <v>0</v>
       </c>
+      <c r="C92" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11.69</v>
+      </c>
       <c r="H92" t="n">
         <v>2077.9</v>
       </c>
       <c r="J92" t="n">
         <v>2321</v>
+      </c>
+      <c r="K92" t="n">
+        <v>507.68</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>568.37</v>
+      </c>
+      <c r="N92" t="n">
+        <v>60.69</v>
       </c>
       <c r="P92" t="n">
         <v>109.23</v>
@@ -2825,11 +5009,35 @@
       <c r="B93" t="n">
         <v>0</v>
       </c>
+      <c r="C93" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>13.36</v>
+      </c>
       <c r="H93" t="n">
         <v>2077.9</v>
       </c>
       <c r="J93" t="n">
         <v>2087</v>
+      </c>
+      <c r="K93" t="n">
+        <v>459.68</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>529.04</v>
+      </c>
+      <c r="N93" t="n">
+        <v>69.36</v>
       </c>
       <c r="P93" t="n">
         <v>109.23</v>
@@ -2851,11 +5059,35 @@
       <c r="B94" t="n">
         <v>0</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15.03</v>
+      </c>
       <c r="H94" t="n">
         <v>2077.9</v>
       </c>
       <c r="J94" t="n">
         <v>2302</v>
+      </c>
+      <c r="K94" t="n">
+        <v>429.68</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>507.71</v>
+      </c>
+      <c r="N94" t="n">
+        <v>78.03</v>
       </c>
       <c r="P94" t="n">
         <v>109.23</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -5438,6 +5438,59 @@
         <v>2101</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B96" s="3" t="n"/>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F96" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H96" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L96" s="3" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="M96" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" s="3" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="O96" s="3" t="n">
+        <v>395.68</v>
+      </c>
+      <c r="P96" s="3" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="Q96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3" t="n">
+        <v>491.05</v>
+      </c>
+      <c r="S96" s="4" t="n">
+        <v>2245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -5491,6 +5491,218 @@
         <v>2245</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B97" s="3" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F97" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L97" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M97" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="O97" s="3" t="n">
+        <v>379.68</v>
+      </c>
+      <c r="P97" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3" t="n">
+        <v>483.68</v>
+      </c>
+      <c r="S97" s="4" t="n">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B98" s="3" t="n"/>
+      <c r="C98" s="3" t="n"/>
+      <c r="D98" s="3" t="n"/>
+      <c r="E98" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F98" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H98" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I98" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L98" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M98" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="O98" s="3" t="n">
+        <v>395.68</v>
+      </c>
+      <c r="P98" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3" t="n">
+        <v>499.68</v>
+      </c>
+      <c r="S98" s="4" t="n">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B99" s="3" t="n"/>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F99" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I99" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L99" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="O99" s="3" t="n">
+        <v>427.68</v>
+      </c>
+      <c r="P99" s="3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3" t="n">
+        <v>436.35</v>
+      </c>
+      <c r="S99" s="4" t="n">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B100" s="3" t="n"/>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="3" t="n"/>
+      <c r="E100" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F100" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H100" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I100" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L100" s="3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="O100" s="3" t="n">
+        <v>411.68</v>
+      </c>
+      <c r="P100" s="3" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="Q100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="n">
+        <v>429.02</v>
+      </c>
+      <c r="S100" s="4" t="n">
+        <v>2175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="#,##0.00\ &quot;€&quot;" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -47,19 +47,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,28 +603,28 @@
         <v>1730.76</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>0</v>
+        <v>8.67</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>1.67</v>
+        <v>8.67</v>
       </c>
       <c r="O3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1339</v>
@@ -588,28 +656,28 @@
         <v>1730.76</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0</v>
+        <v>17.34</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>3.34</v>
+        <v>17.34</v>
       </c>
       <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>17.34</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>17.34</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>1695</v>
@@ -641,28 +709,28 @@
         <v>1730.76</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0</v>
+        <v>26.01</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>5.01</v>
+        <v>26.01</v>
       </c>
       <c r="O5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>1342</v>
@@ -694,28 +762,28 @@
         <v>1730.76</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>6.68</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>5.68</v>
+        <v>34.68</v>
       </c>
       <c r="O6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>755</v>
@@ -750,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>6.68</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>6.68</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>402</v>
@@ -800,28 +868,28 @@
         <v>1730.76</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>5.68</v>
+        <v>34.68</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>1.67</v>
+        <v>8.67</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>4.35</v>
+        <v>43.35</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>43.35</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>1271</v>
@@ -859,7 +927,7 @@
         <v>3.34</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
         <v>6.02</v>
@@ -906,28 +974,28 @@
         <v>1730.76</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>5.68</v>
+        <v>34.68</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>5.01</v>
+        <v>26.01</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>7.69</v>
+        <v>60.69</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>60.69</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
         <v>1264</v>
@@ -965,7 +1033,7 @@
         <v>6.68</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="n">
         <v>9.359999999999999</v>
@@ -1018,7 +1086,7 @@
         <v>8.35</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="n">
         <v>10.03</v>
@@ -1071,7 +1139,7 @@
         <v>10.02</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="n">
         <v>11.7</v>
@@ -1118,28 +1186,28 @@
         <v>1730.76</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>5.68</v>
+        <v>34.68</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>11.69</v>
+        <v>60.69</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>13.37</v>
+        <v>95.37</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>60.69</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>95.37</v>
+        <v>0</v>
       </c>
       <c r="S14" s="4" t="n">
         <v>1306</v>
@@ -1171,28 +1239,28 @@
         <v>1730.76</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>5.68</v>
+        <v>34.68</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>13.36</v>
+        <v>69.36</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>15.04</v>
+        <v>104.04</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>69.36</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>104.04</v>
+        <v>0</v>
       </c>
       <c r="S15" s="4" t="n">
         <v>1262</v>
@@ -1230,7 +1298,7 @@
         <v>15.03</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="n">
         <v>15.71</v>
@@ -1283,7 +1351,7 @@
         <v>16.7</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="n">
         <v>17.38</v>
@@ -1336,7 +1404,7 @@
         <v>18.37</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="n">
         <v>18.05</v>
@@ -1389,7 +1457,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="n">
         <v>19.68</v>
@@ -1436,28 +1504,28 @@
         <v>1730.76</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>19.68</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>138.68</v>
+        <v>0</v>
       </c>
       <c r="S20" s="4" t="n">
         <v>1193</v>
@@ -1760,7 +1828,7 @@
         <v>10.02</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="n">
         <v>28.7</v>
@@ -1813,7 +1881,7 @@
         <v>11.69</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="n">
         <v>30.37</v>
@@ -1866,7 +1934,7 @@
         <v>13.36</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3" t="n">
         <v>32.04</v>
@@ -1919,7 +1987,7 @@
         <v>15.03</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="n">
         <v>28.71</v>
@@ -1972,7 +2040,7 @@
         <v>16.7</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3" t="n">
         <v>19.38</v>
@@ -2025,7 +2093,7 @@
         <v>18.37</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3" t="n">
         <v>21.05</v>
@@ -2078,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="n">
         <v>22.68</v>
@@ -2125,28 +2193,28 @@
         <v>1930.41</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>12.68</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>22.68</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>134.68</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>238.68</v>
+        <v>0</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>1326</v>
@@ -2184,7 +2252,7 @@
         <v>1.67</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N34" s="3" t="n">
         <v>22.85</v>
@@ -2237,7 +2305,7 @@
         <v>3.34</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="n">
         <v>24.52</v>
@@ -2290,7 +2358,7 @@
         <v>5.01</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N36" s="3" t="n">
         <v>26.19</v>
@@ -2343,7 +2411,7 @@
         <v>6.68</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N37" s="3" t="n">
         <v>26.86</v>
@@ -2396,7 +2464,7 @@
         <v>8.35</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N38" s="3" t="n">
         <v>28.53</v>
@@ -2449,7 +2517,7 @@
         <v>10.02</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N39" s="3" t="n">
         <v>30.2</v>
@@ -2502,7 +2570,7 @@
         <v>11.69</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N40" s="3" t="n">
         <v>31.87</v>
@@ -2555,7 +2623,7 @@
         <v>13.36</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="n">
         <v>33.54</v>
@@ -2608,7 +2676,7 @@
         <v>15.03</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="n">
         <v>35.21</v>
@@ -2661,7 +2729,7 @@
         <v>16.7</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="n">
         <v>36.88</v>
@@ -2714,7 +2782,7 @@
         <v>18.37</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="n">
         <v>38.55</v>
@@ -2767,7 +2835,7 @@
         <v>20</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="n">
         <v>39.18</v>
@@ -2814,28 +2882,28 @@
         <v>1985.72</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>22.68</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>40.18</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>198.68</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>302.68</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>1362</v>
@@ -2873,7 +2941,7 @@
         <v>1.67</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="n">
         <v>24.85</v>
@@ -2926,7 +2994,7 @@
         <v>3.34</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="n">
         <v>26.52</v>
@@ -2979,7 +3047,7 @@
         <v>5.01</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="n">
         <v>28.19</v>
@@ -3032,7 +3100,7 @@
         <v>6.68</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N50" s="3" t="n">
         <v>29.86</v>
@@ -3085,7 +3153,7 @@
         <v>8.35</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N51" s="3" t="n">
         <v>27.53</v>
@@ -3138,7 +3206,7 @@
         <v>10.02</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="n">
         <v>28.2</v>
@@ -3191,7 +3259,7 @@
         <v>11.69</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N53" s="3" t="n">
         <v>29.87</v>
@@ -3244,7 +3312,7 @@
         <v>13.36</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="n">
         <v>20.54</v>
@@ -3297,7 +3365,7 @@
         <v>15.03</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N55" s="3" t="n">
         <v>22.21</v>
@@ -3350,7 +3418,7 @@
         <v>16.7</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N56" s="3" t="n">
         <v>23.88</v>
@@ -3403,7 +3471,7 @@
         <v>18.37</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="n">
         <v>23.55</v>
@@ -3456,7 +3524,7 @@
         <v>20</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="n">
         <v>25.18</v>
@@ -3503,28 +3571,28 @@
         <v>2018.15</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>19.18</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>25.18</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>302.68</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>406.68</v>
+        <v>0</v>
       </c>
       <c r="S59" s="4" t="n">
         <v>1383</v>
@@ -3562,7 +3630,7 @@
         <v>1.67</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="n">
         <v>17.85</v>
@@ -3615,7 +3683,7 @@
         <v>3.34</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3" t="n">
         <v>15.52</v>
@@ -3668,7 +3736,7 @@
         <v>5.01</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="n">
         <v>16.19</v>
@@ -3721,7 +3789,7 @@
         <v>6.68</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N63" s="3" t="n">
         <v>17.86</v>
@@ -3774,7 +3842,7 @@
         <v>8.35</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N64" s="3" t="n">
         <v>16.53</v>
@@ -3827,7 +3895,7 @@
         <v>10.02</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N65" s="3" t="n">
         <v>16.2</v>
@@ -3880,7 +3948,7 @@
         <v>11.69</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="n">
         <v>17.87</v>
@@ -3933,7 +4001,7 @@
         <v>13.36</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N67" s="3" t="n">
         <v>16.54</v>
@@ -3986,7 +4054,7 @@
         <v>15.03</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N68" s="3" t="n">
         <v>13.21</v>
@@ -4039,7 +4107,7 @@
         <v>16.7</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N69" s="3" t="n">
         <v>14.88</v>
@@ -4092,7 +4160,7 @@
         <v>18.37</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3" t="n">
         <v>5.55</v>
@@ -4145,7 +4213,7 @@
         <v>20</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N71" s="3" t="n">
         <v>7.18</v>
@@ -4192,28 +4260,28 @@
         <v>2694.21</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>7.18</v>
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>7.18</v>
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>394.68</v>
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R72" s="3" t="n">
-        <v>498.68</v>
+        <v>0</v>
       </c>
       <c r="S72" s="4" t="n">
         <v>1818</v>
@@ -4463,7 +4531,7 @@
         <v>8.35</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N77" s="3" t="n">
         <v>7.53</v>
@@ -4510,28 +4578,28 @@
         <v>2711.35</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>10.02</v>
+        <v>0</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>498.68</v>
+        <v>0</v>
       </c>
       <c r="P78" s="3" t="n">
-        <v>52.02</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R78" s="3" t="n">
-        <v>550.7</v>
+        <v>0</v>
       </c>
       <c r="S78" s="4" t="n">
         <v>3960</v>
@@ -4569,7 +4637,7 @@
         <v>11.69</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N79" s="3" t="n">
         <v>7.87</v>
@@ -4622,7 +4690,7 @@
         <v>13.36</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N80" s="3" t="n">
         <v>9.539999999999999</v>
@@ -4675,7 +4743,7 @@
         <v>15.03</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="n">
         <v>8.210000000000001</v>
@@ -4722,13 +4790,13 @@
         <v>2743.78</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>16.7</v>
+        <v>11.82</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="N82" s="3" t="n">
         <v>4.88</v>
@@ -4775,13 +4843,13 @@
         <v>2743.78</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>0</v>
+        <v>18.37</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>18.37</v>
+        <v>11.82</v>
       </c>
       <c r="M83" s="3" t="n">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="n">
         <v>6.55</v>
@@ -4828,13 +4896,13 @@
         <v>2743.78</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>20</v>
+        <v>12.82</v>
       </c>
       <c r="M84" s="3" t="n">
-        <v>12.82</v>
+        <v>0</v>
       </c>
       <c r="N84" s="3" t="n">
         <v>7.18</v>
@@ -4884,25 +4952,25 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M85" s="3" t="n">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="N85" s="3" t="n">
-        <v>8.18</v>
+        <v>0</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>492.68</v>
+        <v>0</v>
       </c>
       <c r="P85" s="3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R85" s="3" t="n">
-        <v>596.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="S85" s="4" t="n">
         <v>1846</v>
@@ -4993,7 +5061,7 @@
         <v>3.34</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N87" s="3" t="n">
         <v>-1.48</v>
@@ -5046,7 +5114,7 @@
         <v>5.01</v>
       </c>
       <c r="M88" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N88" s="3" t="n">
         <v>0.19</v>
@@ -5099,7 +5167,7 @@
         <v>6.68</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="n">
         <v>1.86</v>
@@ -5152,7 +5220,7 @@
         <v>8.35</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N90" s="3" t="n">
         <v>3.53</v>
@@ -5205,7 +5273,7 @@
         <v>10.02</v>
       </c>
       <c r="M91" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="n">
         <v>5.2</v>
@@ -5258,7 +5326,7 @@
         <v>11.69</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N92" s="3" t="n">
         <v>6.87</v>
@@ -5311,7 +5379,7 @@
         <v>13.36</v>
       </c>
       <c r="M93" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93" s="3" t="n">
         <v>8.539999999999999</v>
@@ -5364,7 +5432,7 @@
         <v>15.03</v>
       </c>
       <c r="M94" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="n">
         <v>10.21</v>
@@ -5417,7 +5485,7 @@
         <v>16.7</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N95" s="3" t="n">
         <v>11.88</v>
@@ -5470,7 +5538,7 @@
         <v>18.37</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3" t="n">
         <v>13.55</v>
@@ -5523,7 +5591,7 @@
         <v>20</v>
       </c>
       <c r="M97" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N97" s="3" t="n">
         <v>15.18</v>
@@ -5570,28 +5638,28 @@
         <v>2912.16</v>
       </c>
       <c r="K98" s="3" t="n">
-        <v>-1.82</v>
+        <v>0</v>
       </c>
       <c r="L98" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M98" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N98" s="3" t="n">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>395.68</v>
+        <v>0</v>
       </c>
       <c r="P98" s="3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q98" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R98" s="3" t="n">
-        <v>499.68</v>
+        <v>0</v>
       </c>
       <c r="S98" s="4" t="n">
         <v>1941</v>
@@ -5703,7 +5771,590 @@
         <v>2175</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B101" s="3" t="n"/>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F101" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H101" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I101" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L101" s="3" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="M101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="O101" s="3" t="n">
+        <v>411.68</v>
+      </c>
+      <c r="P101" s="3" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="Q101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="n">
+        <v>437.69</v>
+      </c>
+      <c r="S101" s="4" t="n">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B102" s="3" t="n"/>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="3" t="n"/>
+      <c r="E102" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F102" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H102" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I102" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L102" s="3" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="M102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="O102" s="3" t="n">
+        <v>411.68</v>
+      </c>
+      <c r="P102" s="3" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="Q102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="n">
+        <v>446.36</v>
+      </c>
+      <c r="S102" s="4" t="n">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F103" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H103" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I103" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K103" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L103" s="3" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="M103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" s="3" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="O103" s="3" t="n">
+        <v>379.68</v>
+      </c>
+      <c r="P103" s="3" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="Q103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="3" t="n">
+        <v>423.03</v>
+      </c>
+      <c r="S103" s="4" t="n">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B104" s="3" t="n"/>
+      <c r="C104" s="3" t="n"/>
+      <c r="D104" s="3" t="n"/>
+      <c r="E104" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F104" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G104" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H104" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I104" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4" t="n">
+        <v>2926.71</v>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L104" s="3" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="M104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" s="3" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="O104" s="3" t="n">
+        <v>347.68</v>
+      </c>
+      <c r="P104" s="3" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="Q104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" s="3" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="S104" s="4" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B105" s="3" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F105" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I105" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4" t="n">
+        <v>2926.71</v>
+      </c>
+      <c r="K105" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L105" s="3" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="M105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" s="3" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="O105" s="3" t="n">
+        <v>347.68</v>
+      </c>
+      <c r="P105" s="3" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="Q105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="3" t="n">
+        <v>408.37</v>
+      </c>
+      <c r="S105" s="4" t="n">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B106" s="3" t="n"/>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="3" t="n"/>
+      <c r="E106" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F106" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G106" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H106" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I106" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4" t="n">
+        <v>2926.71</v>
+      </c>
+      <c r="K106" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L106" s="3" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="M106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" s="3" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="O106" s="3" t="n">
+        <v>283.68</v>
+      </c>
+      <c r="P106" s="3" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="Q106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" s="3" t="n">
+        <v>353.04</v>
+      </c>
+      <c r="S106" s="4" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B107" s="3" t="n"/>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+      <c r="E107" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F107" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H107" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I107" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K107" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L107" s="3" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="M107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" s="3" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="O107" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P107" s="3" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="Q107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" s="3" t="n">
+        <v>305.71</v>
+      </c>
+      <c r="S107" s="4" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B108" s="3" t="n"/>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F108" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H108" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I108" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K108" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L108" s="3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" s="3" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="O108" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P108" s="3" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="Q108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" s="3" t="n">
+        <v>314.38</v>
+      </c>
+      <c r="S108" s="4" t="n">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B109" s="3" t="n"/>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F109" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H109" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I109" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K109" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L109" s="3" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="M109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" s="3" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="O109" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P109" s="3" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="Q109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" s="3" t="n">
+        <v>323.05</v>
+      </c>
+      <c r="S109" s="4" t="n">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B110" s="3" t="n"/>
+      <c r="C110" s="3" t="n"/>
+      <c r="D110" s="3" t="n"/>
+      <c r="E110" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F110" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H110" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K110" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L110" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="O110" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P110" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" s="3" t="n">
+        <v>331.68</v>
+      </c>
+      <c r="S110" s="4" t="n">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B111" s="3" t="n"/>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F111" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H111" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I111" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" s="4" t="n">
+        <v>1969</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -523,387 +523,517 @@
           <t>netto_da_pagare</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>legenda_ordinario</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>legenda_straordinario</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>legenda_ferie</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>legenda_reperibilita</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>legenda_rol</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>41122</v>
+        <v>-686411</v>
       </c>
       <c r="B2" s="3" t="n"/>
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="4" t="n">
-        <v>1634.56</v>
+        <v>2092.45</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>145.64</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>85.87</v>
+        <v>674.16</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1730.76</v>
+        <v>2963.12</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0</v>
+        <v>22.68</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0</v>
+        <v>15.03</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0</v>
+        <v>35.21</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0</v>
+        <v>492.68</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>0</v>
+        <v>78.03</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0</v>
+        <v>570.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>255</v>
+        <v>2655</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>41153</v>
+        <v>-620515</v>
       </c>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="4" t="n">
-        <v>1634.56</v>
+        <v>2061.41</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>109.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>85.87</v>
+        <v>674.16</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1730.76</v>
+        <v>2895.67</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>8.67</v>
+        <v>33.18</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>8.67</v>
+        <v>26.52</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0</v>
+        <v>594.6799999999999</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>17.34</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0</v>
+        <v>612.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1339</v>
+        <v>2412</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>41183</v>
+        <v>-620242</v>
       </c>
       <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n"/>
       <c r="E4" s="4" t="n">
-        <v>1634.56</v>
+        <v>2077.9</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>109.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>85.87</v>
+        <v>674.16</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1730.76</v>
+        <v>2912.16</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>17.34</v>
+        <v>22.68</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>18.37</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>17.34</v>
+        <v>38.55</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>492.68</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>95.37</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>588.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1695</v>
+        <v>2763</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41214</v>
+        <v>-620212</v>
       </c>
       <c r="B5" s="3" t="n"/>
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="n">
-        <v>1634.56</v>
+        <v>2077.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>109.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>85.87</v>
+        <v>674.16</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1730.76</v>
+        <v>2912.16</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>26.01</v>
+        <v>22.68</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>26.01</v>
+        <v>39.18</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0</v>
+        <v>492.68</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>0</v>
+        <v>596.6799999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1342</v>
+        <v>2530</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41244</v>
+        <v>-620150</v>
       </c>
       <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="4" t="n">
-        <v>1634.56</v>
+        <v>2077.9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
+        <v>109.23</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>85.87</v>
+        <v>674.16</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1730.76</v>
+        <v>2912.16</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>34.68</v>
+        <v>15.18</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>34.68</v>
+        <v>18.52</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0</v>
+        <v>411.68</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>17.34</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>0</v>
+        <v>429.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>755</v>
+        <v>2175</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41274</v>
+        <v>-619877</v>
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="4" t="n">
-        <v>1634.56</v>
+        <v>2092.45</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0</v>
+        <v>145.64</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>85.87</v>
+        <v>674.16</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1730.76</v>
+        <v>2963.12</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0</v>
+        <v>15.18</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>18.37</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0</v>
+        <v>33.55</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0</v>
+        <v>227.68</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0</v>
+        <v>95.37</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0</v>
+        <v>323.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>402</v>
+        <v>2243</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41275</v>
+        <v>-619847</v>
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="4" t="n">
-        <v>1679.89</v>
+        <v>2092.45</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0</v>
+        <v>145.64</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>50.87</v>
+        <v>674.16</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1730.76</v>
+        <v>2963.12</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>34.68</v>
+        <v>15.18</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>8.67</v>
+        <v>20</v>
       </c>
       <c r="M8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>43.35</v>
+        <v>35.18</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0</v>
+        <v>227.68</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>0</v>
+        <v>331.68</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>1271</v>
+        <v>2170</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41306</v>
+        <v>41122</v>
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="4" t="n">
-        <v>1679.89</v>
+        <v>1634.56</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>0</v>
@@ -912,51 +1042,66 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>50.87</v>
+        <v>85.87</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>1730.76</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>17.34</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>52.02</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>1306</v>
+        <v>255</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41334</v>
+        <v>41183</v>
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="4" t="n">
-        <v>1679.89</v>
+        <v>1634.56</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>0</v>
@@ -965,51 +1110,66 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>50.87</v>
+        <v>85.87</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1730.76</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>26.01</v>
+        <v>3.34</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>60.69</v>
+        <v>3.34</v>
       </c>
       <c r="O10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>17.34</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0</v>
+        <v>17.34</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>1264</v>
+        <v>1695</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41365</v>
+        <v>41274</v>
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="4" t="n">
-        <v>1679.89</v>
+        <v>1634.56</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>0</v>
@@ -1018,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>50.87</v>
+        <v>85.87</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>1730.76</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>6.68</v>
@@ -1036,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>9.359999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>34.68</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>34.68</v>
@@ -1048,15 +1208,30 @@
         <v>0</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>69.36</v>
+        <v>34.68</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>1262</v>
+        <v>402</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41395</v>
+        <v>41275</v>
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
@@ -1083,33 +1258,48 @@
         <v>5.68</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>8.35</v>
+        <v>1.67</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>10.03</v>
+        <v>4.35</v>
       </c>
       <c r="O12" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P12" s="3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="n">
         <v>43.35</v>
       </c>
-      <c r="Q12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="n">
-        <v>78.03</v>
-      </c>
       <c r="S12" s="4" t="n">
-        <v>2472</v>
+        <v>1271</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41426</v>
+        <v>41334</v>
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
@@ -1136,33 +1326,48 @@
         <v>5.68</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>10.02</v>
+        <v>5.01</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>11.7</v>
+        <v>7.69</v>
       </c>
       <c r="O13" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>52.02</v>
+        <v>26.01</v>
       </c>
       <c r="Q13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>86.7</v>
+        <v>60.69</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>1259</v>
+        <v>1264</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41456</v>
+        <v>41365</v>
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
@@ -1186,36 +1391,51 @@
         <v>1730.76</v>
       </c>
       <c r="K14" s="3" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="O14" s="3" t="n">
         <v>34.68</v>
       </c>
-      <c r="L14" s="3" t="n">
-        <v>60.69</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>95.37</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>0</v>
+        <v>69.36</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>1306</v>
+        <v>1262</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41487</v>
+        <v>41395</v>
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
@@ -1227,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0</v>
@@ -1239,36 +1459,51 @@
         <v>1730.76</v>
       </c>
       <c r="K15" s="3" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="O15" s="3" t="n">
         <v>34.68</v>
       </c>
-      <c r="L15" s="3" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>104.04</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>43.35</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>0</v>
+        <v>78.03</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>1262</v>
+        <v>2472</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41518</v>
+        <v>41426</v>
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
@@ -1280,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>0</v>
@@ -1295,33 +1530,48 @@
         <v>5.68</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>15.03</v>
+        <v>10.02</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>15.71</v>
+        <v>11.7</v>
       </c>
       <c r="O16" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>78.03</v>
+        <v>52.02</v>
       </c>
       <c r="Q16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>112.71</v>
+        <v>86.7</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>1260</v>
+        <v>1259</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
@@ -1333,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>0</v>
@@ -1348,33 +1598,48 @@
         <v>5.68</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>16.7</v>
+        <v>11.69</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>17.38</v>
+        <v>13.37</v>
       </c>
       <c r="O17" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>86.7</v>
+        <v>60.69</v>
       </c>
       <c r="Q17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>121.38</v>
+        <v>95.37</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>1963</v>
+        <v>1306</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41579</v>
+        <v>41487</v>
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
@@ -1401,33 +1666,48 @@
         <v>5.68</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>18.37</v>
+        <v>13.36</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>18.05</v>
+        <v>15.04</v>
       </c>
       <c r="O18" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>95.37</v>
+        <v>69.36</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>130.05</v>
+        <v>104.04</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>1960</v>
+        <v>1262</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41609</v>
+        <v>41548</v>
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
@@ -1454,28 +1734,43 @@
         <v>5.68</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>19.68</v>
+        <v>17.38</v>
       </c>
       <c r="O19" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>104</v>
+        <v>86.7</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>138.68</v>
+        <v>121.38</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>2104</v>
+        <v>1963</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1504,31 +1799,46 @@
         <v>1730.76</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>0</v>
+        <v>19.68</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>0</v>
+        <v>138.68</v>
       </c>
       <c r="S20" s="4" t="n">
         <v>1193</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1583,10 +1893,25 @@
       <c r="S21" s="4" t="n">
         <v>1861</v>
       </c>
+      <c r="T21" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
@@ -1613,39 +1938,54 @@
         <v>19.68</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>3.34</v>
+        <v>5.01</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>23.02</v>
+        <v>24.69</v>
       </c>
       <c r="O22" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>17.34</v>
+        <v>26.01</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>152.02</v>
+        <v>160.69</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>2210</v>
+        <v>2130</v>
+      </c>
+      <c r="T22" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="V22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="4" t="n">
-        <v>1724.89</v>
+        <v>1847.11</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>0</v>
@@ -1660,39 +2000,54 @@
         <v>0</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>1775.76</v>
+        <v>1897.98</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>19.68</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>5.01</v>
+        <v>6.68</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>24.69</v>
+        <v>26.36</v>
       </c>
       <c r="O23" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>26.01</v>
+        <v>34.68</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>160.69</v>
+        <v>169.36</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>2130</v>
+        <v>3158</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="V23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
@@ -1719,33 +2074,48 @@
         <v>19.68</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>6.68</v>
+        <v>8.35</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>26.36</v>
+        <v>28.03</v>
       </c>
       <c r="O24" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>34.68</v>
+        <v>43.35</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>169.36</v>
+        <v>178.03</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>3158</v>
+        <v>2141</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U24" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
@@ -1772,33 +2142,48 @@
         <v>19.68</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>8.35</v>
+        <v>10.02</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>28.03</v>
+        <v>28.7</v>
       </c>
       <c r="O25" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>43.35</v>
+        <v>52.02</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>178.03</v>
+        <v>186.7</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>2141</v>
+        <v>2155</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U25" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V25" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
@@ -1825,33 +2210,48 @@
         <v>19.68</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>10.02</v>
+        <v>11.69</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>28.7</v>
+        <v>30.37</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>52.02</v>
+        <v>60.69</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>186.7</v>
+        <v>195.37</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>2155</v>
+        <v>2074</v>
+      </c>
+      <c r="T26" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="n"/>
@@ -1878,33 +2278,48 @@
         <v>19.68</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>11.69</v>
+        <v>13.36</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>30.37</v>
+        <v>32.04</v>
       </c>
       <c r="O27" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>60.69</v>
+        <v>69.36</v>
       </c>
       <c r="Q27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>195.37</v>
+        <v>204.04</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>2074</v>
+        <v>2083</v>
+      </c>
+      <c r="T27" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="U27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41852</v>
+        <v>41913</v>
       </c>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
@@ -1913,7 +2328,7 @@
         <v>1847.11</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>0</v>
+        <v>32.43</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>50.87</v>
@@ -1925,39 +2340,54 @@
         <v>0</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>1897.98</v>
+        <v>1930.41</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>19.68</v>
+        <v>12.68</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>13.36</v>
+        <v>16.7</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>32.04</v>
+        <v>19.38</v>
       </c>
       <c r="O28" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>69.36</v>
+        <v>86.7</v>
       </c>
       <c r="Q28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>204.04</v>
+        <v>221.38</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>2083</v>
+        <v>1976</v>
+      </c>
+      <c r="T28" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="U28" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="V28" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41883</v>
+        <v>42004</v>
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
@@ -1981,42 +2411,57 @@
         <v>1930.41</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>19.68</v>
+        <v>12.68</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>15.03</v>
+        <v>20</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>28.71</v>
+        <v>22.68</v>
       </c>
       <c r="O29" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>78.03</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>212.71</v>
+        <v>238.68</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>1928</v>
+        <v>1326</v>
+      </c>
+      <c r="T29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="4" t="n">
-        <v>1847.11</v>
+        <v>1902.42</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>32.43</v>
@@ -2031,45 +2476,60 @@
         <v>0</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>1930.41</v>
+        <v>1985.72</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>12.68</v>
+        <v>22.68</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>19.38</v>
+        <v>22.85</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>134.68</v>
+        <v>238.68</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>86.7</v>
+        <v>8.67</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>221.38</v>
+        <v>247.35</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>1976</v>
+        <v>2300</v>
+      </c>
+      <c r="T30" s="3" t="n">
+        <v>148</v>
+      </c>
+      <c r="U30" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V30" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="W30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41944</v>
+        <v>42064</v>
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="4" t="n">
-        <v>1847.11</v>
+        <v>1902.42</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>32.43</v>
@@ -2084,45 +2544,60 @@
         <v>0</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>1930.41</v>
+        <v>1985.72</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>12.68</v>
+        <v>22.68</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>18.37</v>
+        <v>5.01</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>21.05</v>
+        <v>26.19</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>134.68</v>
+        <v>238.68</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>95.37</v>
+        <v>26.01</v>
       </c>
       <c r="Q31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>230.05</v>
+        <v>264.69</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>2111</v>
+        <v>2123</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41974</v>
+        <v>42095</v>
       </c>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="4" t="n">
-        <v>1847.11</v>
+        <v>1902.42</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>32.43</v>
@@ -2137,45 +2612,60 @@
         <v>0</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>1930.41</v>
+        <v>1985.72</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>12.68</v>
+        <v>22.68</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>20</v>
+        <v>6.68</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>22.68</v>
+        <v>26.86</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>134.68</v>
+        <v>238.68</v>
       </c>
       <c r="P32" s="3" t="n">
-        <v>104</v>
+        <v>34.68</v>
       </c>
       <c r="Q32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>238.68</v>
+        <v>273.36</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>2465</v>
+        <v>2108</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42004</v>
+        <v>42125</v>
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="4" t="n">
-        <v>1847.11</v>
+        <v>1902.42</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>32.43</v>
@@ -2190,39 +2680,54 @@
         <v>0</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>1930.41</v>
+        <v>1985.72</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>0</v>
+        <v>22.68</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>0</v>
+        <v>28.53</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0</v>
+        <v>238.68</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>43.35</v>
       </c>
       <c r="Q33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>0</v>
+        <v>282.03</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>1326</v>
+        <v>2119</v>
+      </c>
+      <c r="T33" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42005</v>
+        <v>42156</v>
       </c>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
@@ -2249,33 +2754,48 @@
         <v>22.68</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1.67</v>
+        <v>10.02</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>22.85</v>
+        <v>30.2</v>
       </c>
       <c r="O34" s="3" t="n">
         <v>238.68</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>8.67</v>
+        <v>52.02</v>
       </c>
       <c r="Q34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>247.35</v>
+        <v>290.7</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>2300</v>
+        <v>2143</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42036</v>
+        <v>42186</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
@@ -2302,33 +2822,48 @@
         <v>22.68</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>3.34</v>
+        <v>11.69</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>24.52</v>
+        <v>31.87</v>
       </c>
       <c r="O35" s="3" t="n">
         <v>238.68</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>17.34</v>
+        <v>60.69</v>
       </c>
       <c r="Q35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>256.02</v>
+        <v>299.37</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>2412</v>
+        <v>2145</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42064</v>
+        <v>42217</v>
       </c>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
@@ -2355,33 +2890,48 @@
         <v>22.68</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>5.01</v>
+        <v>13.36</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>26.19</v>
+        <v>33.54</v>
       </c>
       <c r="O36" s="3" t="n">
         <v>238.68</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>26.01</v>
+        <v>69.36</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>264.69</v>
+        <v>308.04</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>2123</v>
+        <v>2144</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42095</v>
+        <v>42278</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
@@ -2408,33 +2958,48 @@
         <v>22.68</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>6.68</v>
+        <v>16.7</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>26.86</v>
+        <v>36.88</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>238.68</v>
+        <v>198.68</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>34.68</v>
+        <v>86.7</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>273.36</v>
+        <v>285.38</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>2108</v>
+        <v>2414</v>
+      </c>
+      <c r="T37" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="V37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42125</v>
+        <v>42369</v>
       </c>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
@@ -2461,33 +3026,48 @@
         <v>22.68</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>8.35</v>
+        <v>20</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>28.53</v>
+        <v>40.18</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>238.68</v>
+        <v>198.68</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>43.35</v>
+        <v>104</v>
       </c>
       <c r="Q38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>282.03</v>
+        <v>302.68</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>2119</v>
+        <v>1362</v>
+      </c>
+      <c r="T38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42156</v>
+        <v>42370</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
@@ -2511,36 +3091,51 @@
         <v>1985.72</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>22.68</v>
+        <v>33.18</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>10.02</v>
+        <v>1.67</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>30.2</v>
+        <v>24.85</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>238.68</v>
+        <v>302.68</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>52.02</v>
+        <v>8.67</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>290.7</v>
+        <v>311.35</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>2143</v>
+        <v>1970</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="U39" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V39" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42186</v>
+        <v>42430</v>
       </c>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
@@ -2564,36 +3159,51 @@
         <v>1985.72</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>22.68</v>
+        <v>33.18</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>11.69</v>
+        <v>5.01</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>31.87</v>
+        <v>28.19</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>238.68</v>
+        <v>302.68</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>60.69</v>
+        <v>26.01</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>299.37</v>
+        <v>328.69</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>2145</v>
+        <v>2793</v>
+      </c>
+      <c r="T40" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42217</v>
+        <v>42461</v>
       </c>
       <c r="B41" s="3" t="n"/>
       <c r="C41" s="3" t="n"/>
@@ -2617,36 +3227,51 @@
         <v>1985.72</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>22.68</v>
+        <v>33.18</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>13.36</v>
+        <v>6.68</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>33.54</v>
+        <v>29.86</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>238.68</v>
+        <v>302.68</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>69.36</v>
+        <v>34.68</v>
       </c>
       <c r="Q41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>308.04</v>
+        <v>337.36</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>2144</v>
+        <v>2191</v>
+      </c>
+      <c r="T41" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42248</v>
+        <v>42491</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
@@ -2670,36 +3295,51 @@
         <v>1985.72</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>22.68</v>
+        <v>29.18</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>15.03</v>
+        <v>8.35</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>35.21</v>
+        <v>27.53</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>198.68</v>
+        <v>302.68</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>78.03</v>
+        <v>43.35</v>
       </c>
       <c r="Q42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>276.71</v>
+        <v>346.03</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>2163</v>
+        <v>2194</v>
+      </c>
+      <c r="T42" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="U42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="W42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42278</v>
+        <v>42522</v>
       </c>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
@@ -2723,36 +3363,51 @@
         <v>1985.72</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>22.68</v>
+        <v>28.18</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>16.7</v>
+        <v>10.02</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>36.88</v>
+        <v>28.2</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>198.68</v>
+        <v>302.68</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>86.7</v>
+        <v>52.02</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>285.38</v>
+        <v>354.7</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>2414</v>
+        <v>2261</v>
+      </c>
+      <c r="T43" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42309</v>
+        <v>42552</v>
       </c>
       <c r="B44" s="3" t="n"/>
       <c r="C44" s="3" t="n"/>
@@ -2776,36 +3431,51 @@
         <v>1985.72</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>22.68</v>
+        <v>28.18</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>18.37</v>
+        <v>11.69</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>38.55</v>
+        <v>29.87</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>198.68</v>
+        <v>302.68</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>95.37</v>
+        <v>60.69</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>294.05</v>
+        <v>363.37</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>2276</v>
+        <v>2837</v>
+      </c>
+      <c r="T44" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U44" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42339</v>
+        <v>42583</v>
       </c>
       <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="n"/>
@@ -2829,36 +3499,51 @@
         <v>1985.72</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>22.68</v>
+        <v>19.18</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>20</v>
+        <v>13.36</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>39.18</v>
+        <v>20.54</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>198.68</v>
+        <v>302.68</v>
       </c>
       <c r="P45" s="3" t="n">
-        <v>104</v>
+        <v>69.36</v>
       </c>
       <c r="Q45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>302.68</v>
+        <v>372.04</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>2530</v>
+        <v>2891</v>
+      </c>
+      <c r="T45" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V45" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="W45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42369</v>
+        <v>42644</v>
       </c>
       <c r="B46" s="3" t="n"/>
       <c r="C46" s="3" t="n"/>
@@ -2867,7 +3552,7 @@
         <v>1902.42</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>50.87</v>
@@ -2879,39 +3564,54 @@
         <v>0</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1985.72</v>
+        <v>2018.15</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>0</v>
+        <v>19.18</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>0</v>
+        <v>23.88</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0</v>
+        <v>302.68</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>0</v>
+        <v>86.7</v>
       </c>
       <c r="Q46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>0</v>
+        <v>389.38</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>1362</v>
+        <v>2586</v>
+      </c>
+      <c r="T46" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42370</v>
+        <v>42735</v>
       </c>
       <c r="B47" s="3" t="n"/>
       <c r="C47" s="3" t="n"/>
@@ -2920,7 +3620,7 @@
         <v>1902.42</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>50.87</v>
@@ -2932,39 +3632,54 @@
         <v>0</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1985.72</v>
+        <v>2018.15</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>33.18</v>
+        <v>19.18</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>1.67</v>
+        <v>20</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>24.85</v>
+        <v>25.18</v>
       </c>
       <c r="O47" s="3" t="n">
         <v>302.68</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>8.67</v>
+        <v>104</v>
       </c>
       <c r="Q47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>311.35</v>
+        <v>406.68</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>1970</v>
+        <v>1383</v>
+      </c>
+      <c r="T47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42401</v>
+        <v>42736</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
@@ -2973,7 +3688,7 @@
         <v>1902.42</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>50.87</v>
@@ -2985,39 +3700,54 @@
         <v>0</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1985.72</v>
+        <v>2018.15</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>33.18</v>
+        <v>25.18</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>3.34</v>
+        <v>1.67</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>26.52</v>
+        <v>17.85</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>302.68</v>
+        <v>402.68</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>17.34</v>
+        <v>8.67</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>320.02</v>
+        <v>411.35</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>2189</v>
+        <v>2755</v>
+      </c>
+      <c r="T48" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="U48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="W48" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="X48" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
@@ -3026,34 +3756,34 @@
         <v>1902.42</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1985.72</v>
+        <v>2692.31</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>33.18</v>
+        <v>21.18</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>5.01</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>28.19</v>
+        <v>16.19</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>302.68</v>
+        <v>402.68</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>26.01</v>
@@ -3062,15 +3792,30 @@
         <v>0</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>328.69</v>
+        <v>428.69</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>2793</v>
+        <v>2444</v>
+      </c>
+      <c r="T49" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="X49" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
@@ -3079,34 +3824,34 @@
         <v>1902.42</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1985.72</v>
+        <v>2692.31</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>33.18</v>
+        <v>21.18</v>
       </c>
       <c r="L50" s="3" t="n">
         <v>6.68</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>29.86</v>
+        <v>17.86</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>302.68</v>
+        <v>402.68</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>34.68</v>
@@ -3115,15 +3860,30 @@
         <v>0</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>337.36</v>
+        <v>437.36</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>2191</v>
+        <v>2375</v>
+      </c>
+      <c r="T50" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="U50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="X50" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
@@ -3132,34 +3892,34 @@
         <v>1902.42</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1985.72</v>
+        <v>2692.31</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>29.18</v>
+        <v>19.18</v>
       </c>
       <c r="L51" s="3" t="n">
         <v>8.35</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>27.53</v>
+        <v>16.53</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>302.68</v>
+        <v>402.68</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>43.35</v>
@@ -3168,51 +3928,66 @@
         <v>0</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>346.03</v>
+        <v>446.03</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>2194</v>
+        <v>2242</v>
+      </c>
+      <c r="T51" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="U51" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V51" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="W51" s="3" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="X51" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="B52" s="3" t="n"/>
       <c r="C52" s="3" t="n"/>
       <c r="D52" s="3" t="n"/>
       <c r="E52" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1985.72</v>
+        <v>2694.21</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>28.18</v>
+        <v>19.18</v>
       </c>
       <c r="L52" s="3" t="n">
         <v>10.02</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>28.2</v>
+        <v>16.2</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>302.68</v>
+        <v>402.68</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>52.02</v>
@@ -3221,51 +3996,66 @@
         <v>0</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>354.7</v>
+        <v>454.7</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>2261</v>
+        <v>2209</v>
+      </c>
+      <c r="T52" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="W52" s="3" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="X52" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="B53" s="3" t="n"/>
       <c r="C53" s="3" t="n"/>
       <c r="D53" s="3" t="n"/>
       <c r="E53" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>1985.72</v>
+        <v>2694.21</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>28.18</v>
+        <v>19.18</v>
       </c>
       <c r="L53" s="3" t="n">
         <v>11.69</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>29.87</v>
+        <v>17.87</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>302.68</v>
+        <v>398.68</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>60.69</v>
@@ -3274,36 +4064,51 @@
         <v>0</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>363.37</v>
+        <v>459.37</v>
       </c>
       <c r="S53" s="4" t="n">
-        <v>2837</v>
+        <v>2273</v>
+      </c>
+      <c r="T53" s="3" t="n">
+        <v>164</v>
+      </c>
+      <c r="U53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="X53" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="B54" s="3" t="n"/>
       <c r="C54" s="3" t="n"/>
       <c r="D54" s="3" t="n"/>
       <c r="E54" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>32.43</v>
+        <v>64.86</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>1985.72</v>
+        <v>2694.21</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>19.18</v>
@@ -3312,13 +4117,13 @@
         <v>13.36</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>20.54</v>
+        <v>16.54</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>302.68</v>
+        <v>394.68</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>69.36</v>
@@ -3327,21 +4132,36 @@
         <v>0</v>
       </c>
       <c r="R54" s="3" t="n">
-        <v>372.04</v>
+        <v>464.04</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>2891</v>
+        <v>2001</v>
+      </c>
+      <c r="T54" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="U54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="W54" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X54" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42614</v>
+        <v>43009</v>
       </c>
       <c r="B55" s="3" t="n"/>
       <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n"/>
       <c r="E55" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>64.86</v>
@@ -3350,51 +4170,66 @@
         <v>50.87</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>2018.15</v>
+        <v>2694.21</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>19.18</v>
+        <v>18.18</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>15.03</v>
+        <v>16.7</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>22.21</v>
+        <v>14.88</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>302.68</v>
+        <v>394.68</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>78.03</v>
+        <v>86.7</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>380.71</v>
+        <v>481.38</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>2655</v>
+        <v>2001</v>
+      </c>
+      <c r="T55" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X55" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42644</v>
+        <v>43100</v>
       </c>
       <c r="B56" s="3" t="n"/>
       <c r="C56" s="3" t="n"/>
       <c r="D56" s="3" t="n"/>
       <c r="E56" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>64.86</v>
@@ -3403,51 +4238,66 @@
         <v>50.87</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>2018.15</v>
+        <v>2694.21</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>19.18</v>
+        <v>7.18</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>23.88</v>
+        <v>7.18</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>302.68</v>
+        <v>394.68</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>86.7</v>
+        <v>104</v>
       </c>
       <c r="Q56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>389.38</v>
+        <v>498.68</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>2586</v>
+        <v>1818</v>
+      </c>
+      <c r="T56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42675</v>
+        <v>43101</v>
       </c>
       <c r="B57" s="3" t="n"/>
       <c r="C57" s="3" t="n"/>
       <c r="D57" s="3" t="n"/>
       <c r="E57" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>64.86</v>
@@ -3456,51 +4306,66 @@
         <v>50.87</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>2018.15</v>
+        <v>2694.21</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>19.18</v>
+        <v>7.18</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>18.37</v>
+        <v>1.67</v>
       </c>
       <c r="M57" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>23.55</v>
+        <v>8.85</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>302.68</v>
+        <v>498.68</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>95.37</v>
+        <v>8.67</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R57" s="3" t="n">
-        <v>398.05</v>
+        <v>507.35</v>
       </c>
       <c r="S57" s="4" t="n">
-        <v>2763</v>
+        <v>2050</v>
+      </c>
+      <c r="T57" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="U57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="X57" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42705</v>
+        <v>43160</v>
       </c>
       <c r="B58" s="3" t="n"/>
       <c r="C58" s="3" t="n"/>
       <c r="D58" s="3" t="n"/>
       <c r="E58" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F58" s="4" t="n">
         <v>64.86</v>
@@ -3509,51 +4374,66 @@
         <v>50.87</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>2018.15</v>
+        <v>2694.21</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>19.18</v>
+        <v>7.18</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>20</v>
+        <v>5.01</v>
       </c>
       <c r="M58" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>25.18</v>
+        <v>12.19</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>298.68</v>
+        <v>498.68</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>104</v>
+        <v>26.01</v>
       </c>
       <c r="Q58" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="3" t="n">
-        <v>402.68</v>
+        <v>524.6900000000001</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>2367</v>
+        <v>1977</v>
+      </c>
+      <c r="T58" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X58" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42735</v>
+        <v>43191</v>
       </c>
       <c r="B59" s="3" t="n"/>
       <c r="C59" s="3" t="n"/>
       <c r="D59" s="3" t="n"/>
       <c r="E59" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>64.86</v>
@@ -3562,51 +4442,66 @@
         <v>50.87</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>2018.15</v>
+        <v>2694.21</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>0</v>
+        <v>7.18</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>0</v>
+        <v>6.68</v>
       </c>
       <c r="M59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>0</v>
+        <v>13.86</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0</v>
+        <v>498.68</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="Q59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>0</v>
+        <v>533.36</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>1383</v>
+        <v>1980</v>
+      </c>
+      <c r="T59" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U59" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X59" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42736</v>
+        <v>43221</v>
       </c>
       <c r="B60" s="3" t="n"/>
       <c r="C60" s="3" t="n"/>
       <c r="D60" s="3" t="n"/>
       <c r="E60" s="4" t="n">
-        <v>1902.42</v>
+        <v>1904.32</v>
       </c>
       <c r="F60" s="4" t="n">
         <v>64.86</v>
@@ -3615,51 +4510,66 @@
         <v>50.87</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>0</v>
+        <v>674.16</v>
       </c>
       <c r="I60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>2018.15</v>
+        <v>2694.21</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>25.18</v>
+        <v>7.18</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>1.67</v>
+        <v>8.35</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>17.85</v>
+        <v>7.53</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>402.68</v>
+        <v>498.68</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>8.67</v>
+        <v>43.35</v>
       </c>
       <c r="Q60" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>411.35</v>
+        <v>542.03</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>2755</v>
+        <v>2071</v>
+      </c>
+      <c r="T60" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="U60" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="W60" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="X60" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42767</v>
+        <v>43252</v>
       </c>
       <c r="B61" s="3" t="n"/>
       <c r="C61" s="3" t="n"/>
       <c r="D61" s="3" t="n"/>
       <c r="E61" s="4" t="n">
-        <v>1902.42</v>
+        <v>1921.46</v>
       </c>
       <c r="F61" s="4" t="n">
         <v>64.86</v>
@@ -3674,45 +4584,60 @@
         <v>0</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>2692.31</v>
+        <v>2711.35</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>22.18</v>
+        <v>6.18</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>3.34</v>
+        <v>10.02</v>
       </c>
       <c r="M61" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>15.52</v>
+        <v>6.2</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>402.68</v>
+        <v>498.68</v>
       </c>
       <c r="P61" s="3" t="n">
-        <v>17.34</v>
+        <v>52.02</v>
       </c>
       <c r="Q61" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R61" s="3" t="n">
-        <v>420.02</v>
+        <v>550.7</v>
       </c>
       <c r="S61" s="4" t="n">
-        <v>1895</v>
+        <v>3960</v>
+      </c>
+      <c r="T61" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U61" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="V61" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="W61" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="X61" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42795</v>
+        <v>43282</v>
       </c>
       <c r="B62" s="3" t="n"/>
       <c r="C62" s="3" t="n"/>
       <c r="D62" s="3" t="n"/>
       <c r="E62" s="4" t="n">
-        <v>1902.42</v>
+        <v>1921.46</v>
       </c>
       <c r="F62" s="4" t="n">
         <v>64.86</v>
@@ -3727,45 +4652,60 @@
         <v>0</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>2692.31</v>
+        <v>2711.35</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>21.18</v>
+        <v>6.18</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>5.01</v>
+        <v>11.69</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>16.19</v>
+        <v>7.87</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>402.68</v>
+        <v>498.68</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>26.01</v>
+        <v>60.69</v>
       </c>
       <c r="Q62" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>428.69</v>
+        <v>559.37</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>2444</v>
+        <v>1929</v>
+      </c>
+      <c r="T62" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="X62" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42826</v>
+        <v>43313</v>
       </c>
       <c r="B63" s="3" t="n"/>
       <c r="C63" s="3" t="n"/>
       <c r="D63" s="3" t="n"/>
       <c r="E63" s="4" t="n">
-        <v>1902.42</v>
+        <v>1921.46</v>
       </c>
       <c r="F63" s="4" t="n">
         <v>64.86</v>
@@ -3780,48 +4720,63 @@
         <v>0</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>2692.31</v>
+        <v>2711.35</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>21.18</v>
+        <v>6.18</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>6.68</v>
+        <v>13.36</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>17.86</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>402.68</v>
+        <v>494.68</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>34.68</v>
+        <v>69.36</v>
       </c>
       <c r="Q63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>437.36</v>
+        <v>564.04</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>2375</v>
+        <v>2007</v>
+      </c>
+      <c r="T63" s="3" t="n">
+        <v>172</v>
+      </c>
+      <c r="U63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="X63" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42856</v>
+        <v>43374</v>
       </c>
       <c r="B64" s="3" t="n"/>
       <c r="C64" s="3" t="n"/>
       <c r="D64" s="3" t="n"/>
       <c r="E64" s="4" t="n">
-        <v>1902.42</v>
+        <v>1921.46</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>64.86</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="G64" s="4" t="n">
         <v>50.87</v>
@@ -3833,48 +4788,63 @@
         <v>0</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>2692.31</v>
+        <v>2743.78</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>19.18</v>
+        <v>0</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>8.35</v>
+        <v>16.7</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>0</v>
+        <v>11.82</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>16.53</v>
+        <v>4.88</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>402.68</v>
+        <v>492.68</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>43.35</v>
+        <v>86.7</v>
       </c>
       <c r="Q64" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R64" s="3" t="n">
-        <v>446.03</v>
+        <v>579.38</v>
       </c>
       <c r="S64" s="4" t="n">
-        <v>2242</v>
+        <v>2174</v>
+      </c>
+      <c r="T64" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="U64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="W64" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X64" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42887</v>
+        <v>43465</v>
       </c>
       <c r="B65" s="3" t="n"/>
       <c r="C65" s="3" t="n"/>
       <c r="D65" s="3" t="n"/>
       <c r="E65" s="4" t="n">
-        <v>1904.32</v>
+        <v>1921.46</v>
       </c>
       <c r="F65" s="4" t="n">
-        <v>64.86</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>50.87</v>
@@ -3886,48 +4856,63 @@
         <v>0</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>2694.21</v>
+        <v>2743.78</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>19.18</v>
+        <v>0</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>10.02</v>
+        <v>20</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>0</v>
+        <v>11.82</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>16.2</v>
+        <v>8.18</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>402.68</v>
+        <v>492.68</v>
       </c>
       <c r="P65" s="3" t="n">
-        <v>52.02</v>
+        <v>104</v>
       </c>
       <c r="Q65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R65" s="3" t="n">
-        <v>454.7</v>
+        <v>596.6799999999999</v>
       </c>
       <c r="S65" s="4" t="n">
-        <v>2209</v>
+        <v>1846</v>
+      </c>
+      <c r="T65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42917</v>
+        <v>43466</v>
       </c>
       <c r="B66" s="3" t="n"/>
       <c r="C66" s="3" t="n"/>
       <c r="D66" s="3" t="n"/>
       <c r="E66" s="4" t="n">
-        <v>1904.32</v>
+        <v>2061.41</v>
       </c>
       <c r="F66" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>50.87</v>
@@ -3939,48 +4924,63 @@
         <v>0</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>2694.21</v>
+        <v>2895.67</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>19.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>11.69</v>
+        <v>1.67</v>
       </c>
       <c r="M66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>17.87</v>
+        <v>-0.15</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>398.68</v>
+        <v>594.6799999999999</v>
       </c>
       <c r="P66" s="3" t="n">
-        <v>60.69</v>
+        <v>8.67</v>
       </c>
       <c r="Q66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R66" s="3" t="n">
-        <v>459.37</v>
+        <v>603.35</v>
       </c>
       <c r="S66" s="4" t="n">
-        <v>2273</v>
+        <v>2090</v>
+      </c>
+      <c r="T66" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="U66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="W66" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X66" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42948</v>
+        <v>43525</v>
       </c>
       <c r="B67" s="3" t="n"/>
       <c r="C67" s="3" t="n"/>
       <c r="D67" s="3" t="n"/>
       <c r="E67" s="4" t="n">
-        <v>1904.32</v>
+        <v>2061.41</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G67" s="4" t="n">
         <v>50.87</v>
@@ -3992,48 +4992,63 @@
         <v>0</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>2694.21</v>
+        <v>2895.67</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>19.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>13.36</v>
+        <v>5.01</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>16.54</v>
+        <v>0.19</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>394.68</v>
+        <v>591.6799999999999</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>69.36</v>
+        <v>26.01</v>
       </c>
       <c r="Q67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R67" s="3" t="n">
-        <v>464.04</v>
+        <v>617.6900000000001</v>
       </c>
       <c r="S67" s="4" t="n">
-        <v>2001</v>
+        <v>2078</v>
+      </c>
+      <c r="T67" s="3" t="n">
+        <v>157</v>
+      </c>
+      <c r="U67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X67" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42979</v>
+        <v>43556</v>
       </c>
       <c r="B68" s="3" t="n"/>
       <c r="C68" s="3" t="n"/>
       <c r="D68" s="3" t="n"/>
       <c r="E68" s="4" t="n">
-        <v>1904.32</v>
+        <v>2061.41</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G68" s="4" t="n">
         <v>50.87</v>
@@ -4045,48 +5060,63 @@
         <v>0</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>2694.21</v>
+        <v>2895.67</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>18.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>15.03</v>
+        <v>6.68</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>13.21</v>
+        <v>1.86</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>394.68</v>
+        <v>543.6799999999999</v>
       </c>
       <c r="P68" s="3" t="n">
-        <v>78.03</v>
+        <v>34.68</v>
       </c>
       <c r="Q68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R68" s="3" t="n">
-        <v>472.71</v>
+        <v>578.36</v>
       </c>
       <c r="S68" s="4" t="n">
-        <v>1999</v>
+        <v>2141</v>
+      </c>
+      <c r="T68" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="U68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="X68" s="3" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43009</v>
+        <v>43586</v>
       </c>
       <c r="B69" s="3" t="n"/>
       <c r="C69" s="3" t="n"/>
       <c r="D69" s="3" t="n"/>
       <c r="E69" s="4" t="n">
-        <v>1904.32</v>
+        <v>2061.41</v>
       </c>
       <c r="F69" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G69" s="4" t="n">
         <v>50.87</v>
@@ -4098,48 +5128,63 @@
         <v>0</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>2694.21</v>
+        <v>2895.67</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>18.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>16.7</v>
+        <v>8.35</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>14.88</v>
+        <v>3.53</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>394.68</v>
+        <v>511.68</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>86.7</v>
+        <v>43.35</v>
       </c>
       <c r="Q69" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R69" s="3" t="n">
-        <v>481.38</v>
+        <v>555.03</v>
       </c>
       <c r="S69" s="4" t="n">
-        <v>2001</v>
+        <v>2078</v>
+      </c>
+      <c r="T69" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="U69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X69" s="3" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43040</v>
+        <v>43617</v>
       </c>
       <c r="B70" s="3" t="n"/>
       <c r="C70" s="3" t="n"/>
       <c r="D70" s="3" t="n"/>
       <c r="E70" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F70" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>50.87</v>
@@ -4151,48 +5196,63 @@
         <v>0</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>7.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>18.37</v>
+        <v>10.02</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>5.55</v>
+        <v>5.2</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>394.68</v>
+        <v>511.68</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>95.37</v>
+        <v>52.02</v>
       </c>
       <c r="Q70" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R70" s="3" t="n">
-        <v>490.05</v>
+        <v>563.7</v>
       </c>
       <c r="S70" s="4" t="n">
-        <v>1871</v>
+        <v>1913</v>
+      </c>
+      <c r="T70" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X70" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43070</v>
+        <v>43647</v>
       </c>
       <c r="B71" s="3" t="n"/>
       <c r="C71" s="3" t="n"/>
       <c r="D71" s="3" t="n"/>
       <c r="E71" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G71" s="4" t="n">
         <v>50.87</v>
@@ -4204,48 +5264,63 @@
         <v>0</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>7.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>20</v>
+        <v>11.69</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>7.18</v>
+        <v>6.87</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>394.68</v>
+        <v>507.68</v>
       </c>
       <c r="P71" s="3" t="n">
-        <v>104</v>
+        <v>60.69</v>
       </c>
       <c r="Q71" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R71" s="3" t="n">
-        <v>498.68</v>
+        <v>568.37</v>
       </c>
       <c r="S71" s="4" t="n">
-        <v>1838</v>
+        <v>2321</v>
+      </c>
+      <c r="T71" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="U71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X71" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43100</v>
+        <v>43678</v>
       </c>
       <c r="B72" s="3" t="n"/>
       <c r="C72" s="3" t="n"/>
       <c r="D72" s="3" t="n"/>
       <c r="E72" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>50.87</v>
@@ -4257,48 +5332,63 @@
         <v>0</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>0</v>
+        <v>-1.82</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>0</v>
+        <v>13.36</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>0</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0</v>
+        <v>459.68</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>0</v>
+        <v>69.36</v>
       </c>
       <c r="Q72" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R72" s="3" t="n">
-        <v>0</v>
+        <v>529.04</v>
       </c>
       <c r="S72" s="4" t="n">
-        <v>1818</v>
+        <v>2087</v>
+      </c>
+      <c r="T72" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="U72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X72" s="3" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43101</v>
+        <v>43739</v>
       </c>
       <c r="B73" s="3" t="n"/>
       <c r="C73" s="3" t="n"/>
       <c r="D73" s="3" t="n"/>
       <c r="E73" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G73" s="4" t="n">
         <v>50.87</v>
@@ -4310,48 +5400,63 @@
         <v>0</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>7.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>8.85</v>
+        <v>11.88</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>498.68</v>
+        <v>427.68</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>8.67</v>
+        <v>86.7</v>
       </c>
       <c r="Q73" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R73" s="3" t="n">
-        <v>507.35</v>
+        <v>514.38</v>
       </c>
       <c r="S73" s="4" t="n">
-        <v>2050</v>
+        <v>2101</v>
+      </c>
+      <c r="T73" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="U73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="X73" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43132</v>
+        <v>43830</v>
       </c>
       <c r="B74" s="3" t="n"/>
       <c r="C74" s="3" t="n"/>
       <c r="D74" s="3" t="n"/>
       <c r="E74" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G74" s="4" t="n">
         <v>50.87</v>
@@ -4363,48 +5468,63 @@
         <v>0</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>7.18</v>
+        <v>-1.82</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>3.34</v>
+        <v>20</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>10.52</v>
+        <v>15.18</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>498.68</v>
+        <v>395.68</v>
       </c>
       <c r="P74" s="3" t="n">
-        <v>17.34</v>
+        <v>104</v>
       </c>
       <c r="Q74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R74" s="3" t="n">
-        <v>516.02</v>
+        <v>499.68</v>
       </c>
       <c r="S74" s="4" t="n">
-        <v>2058</v>
+        <v>1941</v>
+      </c>
+      <c r="T74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43160</v>
+        <v>43831</v>
       </c>
       <c r="B75" s="3" t="n"/>
       <c r="C75" s="3" t="n"/>
       <c r="D75" s="3" t="n"/>
       <c r="E75" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>50.87</v>
@@ -4416,48 +5536,63 @@
         <v>0</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>7.18</v>
+        <v>15.18</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>5.01</v>
+        <v>1.67</v>
       </c>
       <c r="M75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>12.19</v>
+        <v>16.85</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>498.68</v>
+        <v>427.68</v>
       </c>
       <c r="P75" s="3" t="n">
-        <v>26.01</v>
+        <v>8.67</v>
       </c>
       <c r="Q75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R75" s="3" t="n">
-        <v>524.6900000000001</v>
+        <v>436.35</v>
       </c>
       <c r="S75" s="4" t="n">
-        <v>1977</v>
+        <v>2175</v>
+      </c>
+      <c r="T75" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="U75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X75" s="3" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43191</v>
+        <v>43891</v>
       </c>
       <c r="B76" s="3" t="n"/>
       <c r="C76" s="3" t="n"/>
       <c r="D76" s="3" t="n"/>
       <c r="E76" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G76" s="4" t="n">
         <v>50.87</v>
@@ -4469,48 +5604,63 @@
         <v>0</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>7.18</v>
+        <v>15.18</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>6.68</v>
+        <v>5.01</v>
       </c>
       <c r="M76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>13.86</v>
+        <v>20.19</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>498.68</v>
+        <v>411.68</v>
       </c>
       <c r="P76" s="3" t="n">
-        <v>34.68</v>
+        <v>26.01</v>
       </c>
       <c r="Q76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R76" s="3" t="n">
-        <v>533.36</v>
+        <v>437.69</v>
       </c>
       <c r="S76" s="4" t="n">
-        <v>1980</v>
+        <v>2091</v>
+      </c>
+      <c r="T76" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X76" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43221</v>
+        <v>43922</v>
       </c>
       <c r="B77" s="3" t="n"/>
       <c r="C77" s="3" t="n"/>
       <c r="D77" s="3" t="n"/>
       <c r="E77" s="4" t="n">
-        <v>1904.32</v>
+        <v>2077.9</v>
       </c>
       <c r="F77" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>50.87</v>
@@ -4522,48 +5672,63 @@
         <v>0</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>2694.21</v>
+        <v>2912.16</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>7.18</v>
+        <v>15.18</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>8.35</v>
+        <v>6.68</v>
       </c>
       <c r="M77" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>7.53</v>
+        <v>21.86</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>498.68</v>
+        <v>411.68</v>
       </c>
       <c r="P77" s="3" t="n">
-        <v>43.35</v>
+        <v>34.68</v>
       </c>
       <c r="Q77" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R77" s="3" t="n">
-        <v>542.03</v>
+        <v>446.36</v>
       </c>
       <c r="S77" s="4" t="n">
-        <v>2071</v>
+        <v>2259</v>
+      </c>
+      <c r="T77" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X77" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43252</v>
+        <v>43952</v>
       </c>
       <c r="B78" s="3" t="n"/>
       <c r="C78" s="3" t="n"/>
       <c r="D78" s="3" t="n"/>
       <c r="E78" s="4" t="n">
-        <v>1921.46</v>
+        <v>2077.9</v>
       </c>
       <c r="F78" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>50.87</v>
@@ -4575,48 +5740,63 @@
         <v>0</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>2711.35</v>
+        <v>2912.16</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>0</v>
+        <v>15.18</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="M78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>0</v>
+        <v>23.53</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>0</v>
+        <v>379.68</v>
       </c>
       <c r="P78" s="3" t="n">
-        <v>0</v>
+        <v>43.35</v>
       </c>
       <c r="Q78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R78" s="3" t="n">
-        <v>0</v>
+        <v>423.03</v>
       </c>
       <c r="S78" s="4" t="n">
-        <v>3960</v>
+        <v>2121</v>
+      </c>
+      <c r="T78" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="U78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="X78" s="3" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43282</v>
+        <v>43983</v>
       </c>
       <c r="B79" s="3" t="n"/>
       <c r="C79" s="3" t="n"/>
       <c r="D79" s="3" t="n"/>
       <c r="E79" s="4" t="n">
-        <v>1921.46</v>
+        <v>2092.45</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G79" s="4" t="n">
         <v>50.87</v>
@@ -4628,48 +5808,63 @@
         <v>0</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>2711.35</v>
+        <v>2926.71</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>6.18</v>
+        <v>15.18</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>11.69</v>
+        <v>10.02</v>
       </c>
       <c r="M79" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>7.87</v>
+        <v>25.2</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>498.68</v>
+        <v>347.68</v>
       </c>
       <c r="P79" s="3" t="n">
-        <v>60.69</v>
+        <v>52.02</v>
       </c>
       <c r="Q79" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R79" s="3" t="n">
-        <v>559.37</v>
+        <v>399.7</v>
       </c>
       <c r="S79" s="4" t="n">
-        <v>1929</v>
+        <v>2268</v>
+      </c>
+      <c r="T79" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="U79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X79" s="3" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43313</v>
+        <v>44013</v>
       </c>
       <c r="B80" s="3" t="n"/>
       <c r="C80" s="3" t="n"/>
       <c r="D80" s="3" t="n"/>
       <c r="E80" s="4" t="n">
-        <v>1921.46</v>
+        <v>2092.45</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>64.86</v>
+        <v>109.23</v>
       </c>
       <c r="G80" s="4" t="n">
         <v>50.87</v>
@@ -4681,48 +5876,63 @@
         <v>0</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>2711.35</v>
+        <v>2926.71</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>6.18</v>
+        <v>15.18</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>13.36</v>
+        <v>11.69</v>
       </c>
       <c r="M80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>9.539999999999999</v>
+        <v>26.87</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>494.68</v>
+        <v>347.68</v>
       </c>
       <c r="P80" s="3" t="n">
-        <v>69.36</v>
+        <v>60.69</v>
       </c>
       <c r="Q80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R80" s="3" t="n">
-        <v>564.04</v>
+        <v>408.37</v>
       </c>
       <c r="S80" s="4" t="n">
-        <v>2007</v>
+        <v>2112</v>
+      </c>
+      <c r="T80" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X80" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43344</v>
+        <v>44044</v>
       </c>
       <c r="B81" s="3" t="n"/>
       <c r="C81" s="3" t="n"/>
       <c r="D81" s="3" t="n"/>
       <c r="E81" s="4" t="n">
-        <v>1921.46</v>
+        <v>2092.45</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>97.29000000000001</v>
+        <v>109.23</v>
       </c>
       <c r="G81" s="4" t="n">
         <v>50.87</v>
@@ -4734,48 +5944,63 @@
         <v>0</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>2743.78</v>
+        <v>2926.71</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>3.18</v>
+        <v>15.18</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>15.03</v>
+        <v>13.36</v>
       </c>
       <c r="M81" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>8.210000000000001</v>
+        <v>28.54</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>492.68</v>
+        <v>283.68</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>78.03</v>
+        <v>69.36</v>
       </c>
       <c r="Q81" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R81" s="3" t="n">
-        <v>570.71</v>
+        <v>353.04</v>
       </c>
       <c r="S81" s="4" t="n">
-        <v>2193</v>
+        <v>2178</v>
+      </c>
+      <c r="T81" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="U81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="X81" s="3" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="B82" s="3" t="n"/>
       <c r="C82" s="3" t="n"/>
       <c r="D82" s="3" t="n"/>
       <c r="E82" s="4" t="n">
-        <v>1921.46</v>
+        <v>2092.45</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>97.29000000000001</v>
+        <v>145.64</v>
       </c>
       <c r="G82" s="4" t="n">
         <v>50.87</v>
@@ -4787,22 +6012,22 @@
         <v>0</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>2743.78</v>
+        <v>2963.12</v>
       </c>
       <c r="K82" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L82" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="L82" s="3" t="n">
-        <v>11.82</v>
-      </c>
       <c r="M82" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>4.88</v>
+        <v>31.88</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>492.68</v>
+        <v>227.68</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>86.7</v>
@@ -4811,24 +6036,39 @@
         <v>0</v>
       </c>
       <c r="R82" s="3" t="n">
-        <v>579.38</v>
+        <v>314.38</v>
       </c>
       <c r="S82" s="4" t="n">
-        <v>2174</v>
+        <v>2152</v>
+      </c>
+      <c r="T82" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="3" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="X82" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43405</v>
+        <v>44196</v>
       </c>
       <c r="B83" s="3" t="n"/>
       <c r="C83" s="3" t="n"/>
       <c r="D83" s="3" t="n"/>
       <c r="E83" s="4" t="n">
-        <v>1921.46</v>
+        <v>2092.45</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>97.29000000000001</v>
+        <v>145.64</v>
       </c>
       <c r="G83" s="4" t="n">
         <v>50.87</v>
@@ -4840,1518 +6080,49 @@
         <v>0</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>2743.78</v>
+        <v>2963.12</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>18.37</v>
+        <v>15.18</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>11.82</v>
+        <v>20</v>
       </c>
       <c r="M83" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N83" s="3" t="n">
-        <v>6.55</v>
+        <v>35.18</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>492.68</v>
+        <v>227.68</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>95.37</v>
+        <v>104</v>
       </c>
       <c r="Q83" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R83" s="3" t="n">
-        <v>588.05</v>
+        <v>331.68</v>
       </c>
       <c r="S83" s="4" t="n">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>43435</v>
-      </c>
-      <c r="B84" s="3" t="n"/>
-      <c r="C84" s="3" t="n"/>
-      <c r="D84" s="3" t="n"/>
-      <c r="E84" s="4" t="n">
-        <v>1921.46</v>
-      </c>
-      <c r="F84" s="4" t="n">
-        <v>97.29000000000001</v>
-      </c>
-      <c r="G84" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H84" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I84" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="4" t="n">
-        <v>2743.78</v>
-      </c>
-      <c r="K84" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L84" s="3" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="M84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="O84" s="3" t="n">
-        <v>492.68</v>
-      </c>
-      <c r="P84" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" s="3" t="n">
-        <v>596.6799999999999</v>
-      </c>
-      <c r="S84" s="4" t="n">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>43465</v>
-      </c>
-      <c r="B85" s="3" t="n"/>
-      <c r="C85" s="3" t="n"/>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="4" t="n">
-        <v>1921.46</v>
-      </c>
-      <c r="F85" s="4" t="n">
-        <v>97.29000000000001</v>
-      </c>
-      <c r="G85" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H85" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I85" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="4" t="n">
-        <v>2743.78</v>
-      </c>
-      <c r="K85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" s="4" t="n">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="B86" s="3" t="n"/>
-      <c r="C86" s="3" t="n"/>
-      <c r="D86" s="3" t="n"/>
-      <c r="E86" s="4" t="n">
-        <v>2061.41</v>
-      </c>
-      <c r="F86" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G86" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H86" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I86" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" s="4" t="n">
-        <v>2895.67</v>
-      </c>
-      <c r="K86" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L86" s="3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="O86" s="3" t="n">
-        <v>594.6799999999999</v>
-      </c>
-      <c r="P86" s="3" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="Q86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" s="3" t="n">
-        <v>603.35</v>
-      </c>
-      <c r="S86" s="4" t="n">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>43497</v>
-      </c>
-      <c r="B87" s="3" t="n"/>
-      <c r="C87" s="3" t="n"/>
-      <c r="D87" s="3" t="n"/>
-      <c r="E87" s="4" t="n">
-        <v>2061.41</v>
-      </c>
-      <c r="F87" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G87" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H87" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I87" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="4" t="n">
-        <v>2895.67</v>
-      </c>
-      <c r="K87" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L87" s="3" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="M87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" s="3" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="O87" s="3" t="n">
-        <v>594.6799999999999</v>
-      </c>
-      <c r="P87" s="3" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="Q87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" s="3" t="n">
-        <v>612.02</v>
-      </c>
-      <c r="S87" s="4" t="n">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>43525</v>
-      </c>
-      <c r="B88" s="3" t="n"/>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="4" t="n">
-        <v>2061.41</v>
-      </c>
-      <c r="F88" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G88" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H88" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I88" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="4" t="n">
-        <v>2895.67</v>
-      </c>
-      <c r="K88" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L88" s="3" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="M88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O88" s="3" t="n">
-        <v>591.6799999999999</v>
-      </c>
-      <c r="P88" s="3" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="Q88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" s="3" t="n">
-        <v>617.6900000000001</v>
-      </c>
-      <c r="S88" s="4" t="n">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="B89" s="3" t="n"/>
-      <c r="C89" s="3" t="n"/>
-      <c r="D89" s="3" t="n"/>
-      <c r="E89" s="4" t="n">
-        <v>2061.41</v>
-      </c>
-      <c r="F89" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G89" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H89" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" s="4" t="n">
-        <v>2895.67</v>
-      </c>
-      <c r="K89" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L89" s="3" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="M89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O89" s="3" t="n">
-        <v>543.6799999999999</v>
-      </c>
-      <c r="P89" s="3" t="n">
-        <v>34.68</v>
-      </c>
-      <c r="Q89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="n">
-        <v>578.36</v>
-      </c>
-      <c r="S89" s="4" t="n">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>43586</v>
-      </c>
-      <c r="B90" s="3" t="n"/>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="4" t="n">
-        <v>2061.41</v>
-      </c>
-      <c r="F90" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H90" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I90" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" s="4" t="n">
-        <v>2895.67</v>
-      </c>
-      <c r="K90" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L90" s="3" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="M90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" s="3" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O90" s="3" t="n">
-        <v>511.68</v>
-      </c>
-      <c r="P90" s="3" t="n">
-        <v>43.35</v>
-      </c>
-      <c r="Q90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="3" t="n">
-        <v>555.03</v>
-      </c>
-      <c r="S90" s="4" t="n">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="B91" s="3" t="n"/>
-      <c r="C91" s="3" t="n"/>
-      <c r="D91" s="3" t="n"/>
-      <c r="E91" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F91" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H91" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I91" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K91" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L91" s="3" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="M91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O91" s="3" t="n">
-        <v>511.68</v>
-      </c>
-      <c r="P91" s="3" t="n">
-        <v>52.02</v>
-      </c>
-      <c r="Q91" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="n">
-        <v>563.7</v>
-      </c>
-      <c r="S91" s="4" t="n">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>43647</v>
-      </c>
-      <c r="B92" s="3" t="n"/>
-      <c r="C92" s="3" t="n"/>
-      <c r="D92" s="3" t="n"/>
-      <c r="E92" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F92" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H92" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I92" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K92" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L92" s="3" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="M92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="3" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="O92" s="3" t="n">
-        <v>507.68</v>
-      </c>
-      <c r="P92" s="3" t="n">
-        <v>60.69</v>
-      </c>
-      <c r="Q92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" s="3" t="n">
-        <v>568.37</v>
-      </c>
-      <c r="S92" s="4" t="n">
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>43678</v>
-      </c>
-      <c r="B93" s="3" t="n"/>
-      <c r="C93" s="3" t="n"/>
-      <c r="D93" s="3" t="n"/>
-      <c r="E93" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F93" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G93" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H93" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I93" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K93" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L93" s="3" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="M93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" s="3" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="O93" s="3" t="n">
-        <v>459.68</v>
-      </c>
-      <c r="P93" s="3" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="Q93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" s="3" t="n">
-        <v>529.04</v>
-      </c>
-      <c r="S93" s="4" t="n">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="B94" s="3" t="n"/>
-      <c r="C94" s="3" t="n"/>
-      <c r="D94" s="3" t="n"/>
-      <c r="E94" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F94" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H94" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K94" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L94" s="3" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="M94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="O94" s="3" t="n">
-        <v>429.68</v>
-      </c>
-      <c r="P94" s="3" t="n">
-        <v>78.03</v>
-      </c>
-      <c r="Q94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="n">
-        <v>507.71</v>
-      </c>
-      <c r="S94" s="4" t="n">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>43739</v>
-      </c>
-      <c r="B95" s="3" t="n"/>
-      <c r="C95" s="3" t="n"/>
-      <c r="D95" s="3" t="n"/>
-      <c r="E95" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F95" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H95" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I95" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K95" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L95" s="3" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="M95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" s="3" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="O95" s="3" t="n">
-        <v>427.68</v>
-      </c>
-      <c r="P95" s="3" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="Q95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" s="3" t="n">
-        <v>514.38</v>
-      </c>
-      <c r="S95" s="4" t="n">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>43770</v>
-      </c>
-      <c r="B96" s="3" t="n"/>
-      <c r="C96" s="3" t="n"/>
-      <c r="D96" s="3" t="n"/>
-      <c r="E96" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F96" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G96" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H96" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I96" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K96" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L96" s="3" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="M96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="O96" s="3" t="n">
-        <v>395.68</v>
-      </c>
-      <c r="P96" s="3" t="n">
-        <v>95.37</v>
-      </c>
-      <c r="Q96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3" t="n">
-        <v>491.05</v>
-      </c>
-      <c r="S96" s="4" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>43800</v>
-      </c>
-      <c r="B97" s="3" t="n"/>
-      <c r="C97" s="3" t="n"/>
-      <c r="D97" s="3" t="n"/>
-      <c r="E97" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F97" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G97" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H97" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I97" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K97" s="3" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="L97" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="O97" s="3" t="n">
-        <v>379.68</v>
-      </c>
-      <c r="P97" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" s="3" t="n">
-        <v>483.68</v>
-      </c>
-      <c r="S97" s="4" t="n">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>43830</v>
-      </c>
-      <c r="B98" s="3" t="n"/>
-      <c r="C98" s="3" t="n"/>
-      <c r="D98" s="3" t="n"/>
-      <c r="E98" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F98" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G98" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H98" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I98" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S98" s="4" t="n">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="B99" s="3" t="n"/>
-      <c r="C99" s="3" t="n"/>
-      <c r="D99" s="3" t="n"/>
-      <c r="E99" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F99" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G99" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H99" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I99" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K99" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L99" s="3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" s="3" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="O99" s="3" t="n">
-        <v>427.68</v>
-      </c>
-      <c r="P99" s="3" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="Q99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" s="3" t="n">
-        <v>436.35</v>
-      </c>
-      <c r="S99" s="4" t="n">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>43862</v>
-      </c>
-      <c r="B100" s="3" t="n"/>
-      <c r="C100" s="3" t="n"/>
-      <c r="D100" s="3" t="n"/>
-      <c r="E100" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F100" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G100" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H100" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I100" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K100" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L100" s="3" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="M100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="O100" s="3" t="n">
-        <v>411.68</v>
-      </c>
-      <c r="P100" s="3" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="Q100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="n">
-        <v>429.02</v>
-      </c>
-      <c r="S100" s="4" t="n">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>43891</v>
-      </c>
-      <c r="B101" s="3" t="n"/>
-      <c r="C101" s="3" t="n"/>
-      <c r="D101" s="3" t="n"/>
-      <c r="E101" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F101" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G101" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H101" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I101" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K101" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L101" s="3" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="M101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="n">
-        <v>20.19</v>
-      </c>
-      <c r="O101" s="3" t="n">
-        <v>411.68</v>
-      </c>
-      <c r="P101" s="3" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="Q101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="n">
-        <v>437.69</v>
-      </c>
-      <c r="S101" s="4" t="n">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B102" s="3" t="n"/>
-      <c r="C102" s="3" t="n"/>
-      <c r="D102" s="3" t="n"/>
-      <c r="E102" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F102" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G102" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H102" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I102" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K102" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L102" s="3" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="M102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="n">
-        <v>21.86</v>
-      </c>
-      <c r="O102" s="3" t="n">
-        <v>411.68</v>
-      </c>
-      <c r="P102" s="3" t="n">
-        <v>34.68</v>
-      </c>
-      <c r="Q102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="n">
-        <v>446.36</v>
-      </c>
-      <c r="S102" s="4" t="n">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B103" s="3" t="n"/>
-      <c r="C103" s="3" t="n"/>
-      <c r="D103" s="3" t="n"/>
-      <c r="E103" s="4" t="n">
-        <v>2077.9</v>
-      </c>
-      <c r="F103" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G103" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H103" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I103" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" s="4" t="n">
-        <v>2912.16</v>
-      </c>
-      <c r="K103" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L103" s="3" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="M103" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" s="3" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="O103" s="3" t="n">
-        <v>379.68</v>
-      </c>
-      <c r="P103" s="3" t="n">
-        <v>43.35</v>
-      </c>
-      <c r="Q103" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" s="3" t="n">
-        <v>423.03</v>
-      </c>
-      <c r="S103" s="4" t="n">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>43983</v>
-      </c>
-      <c r="B104" s="3" t="n"/>
-      <c r="C104" s="3" t="n"/>
-      <c r="D104" s="3" t="n"/>
-      <c r="E104" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F104" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G104" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H104" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I104" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" s="4" t="n">
-        <v>2926.71</v>
-      </c>
-      <c r="K104" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L104" s="3" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="M104" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" s="3" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="O104" s="3" t="n">
-        <v>347.68</v>
-      </c>
-      <c r="P104" s="3" t="n">
-        <v>52.02</v>
-      </c>
-      <c r="Q104" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R104" s="3" t="n">
-        <v>399.7</v>
-      </c>
-      <c r="S104" s="4" t="n">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B105" s="3" t="n"/>
-      <c r="C105" s="3" t="n"/>
-      <c r="D105" s="3" t="n"/>
-      <c r="E105" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F105" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G105" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H105" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" s="4" t="n">
-        <v>2926.71</v>
-      </c>
-      <c r="K105" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L105" s="3" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="M105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" s="3" t="n">
-        <v>26.87</v>
-      </c>
-      <c r="O105" s="3" t="n">
-        <v>347.68</v>
-      </c>
-      <c r="P105" s="3" t="n">
-        <v>60.69</v>
-      </c>
-      <c r="Q105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R105" s="3" t="n">
-        <v>408.37</v>
-      </c>
-      <c r="S105" s="4" t="n">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>44044</v>
-      </c>
-      <c r="B106" s="3" t="n"/>
-      <c r="C106" s="3" t="n"/>
-      <c r="D106" s="3" t="n"/>
-      <c r="E106" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F106" s="4" t="n">
-        <v>109.23</v>
-      </c>
-      <c r="G106" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H106" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I106" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" s="4" t="n">
-        <v>2926.71</v>
-      </c>
-      <c r="K106" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L106" s="3" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="M106" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" s="3" t="n">
-        <v>28.54</v>
-      </c>
-      <c r="O106" s="3" t="n">
-        <v>283.68</v>
-      </c>
-      <c r="P106" s="3" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="Q106" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R106" s="3" t="n">
-        <v>353.04</v>
-      </c>
-      <c r="S106" s="4" t="n">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B107" s="3" t="n"/>
-      <c r="C107" s="3" t="n"/>
-      <c r="D107" s="3" t="n"/>
-      <c r="E107" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F107" s="4" t="n">
-        <v>145.64</v>
-      </c>
-      <c r="G107" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H107" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I107" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4" t="n">
-        <v>2963.12</v>
-      </c>
-      <c r="K107" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L107" s="3" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="M107" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" s="3" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="O107" s="3" t="n">
-        <v>227.68</v>
-      </c>
-      <c r="P107" s="3" t="n">
-        <v>78.03</v>
-      </c>
-      <c r="Q107" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R107" s="3" t="n">
-        <v>305.71</v>
-      </c>
-      <c r="S107" s="4" t="n">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B108" s="3" t="n"/>
-      <c r="C108" s="3" t="n"/>
-      <c r="D108" s="3" t="n"/>
-      <c r="E108" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F108" s="4" t="n">
-        <v>145.64</v>
-      </c>
-      <c r="G108" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H108" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I108" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" s="4" t="n">
-        <v>2963.12</v>
-      </c>
-      <c r="K108" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L108" s="3" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="M108" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" s="3" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="O108" s="3" t="n">
-        <v>227.68</v>
-      </c>
-      <c r="P108" s="3" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="Q108" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R108" s="3" t="n">
-        <v>314.38</v>
-      </c>
-      <c r="S108" s="4" t="n">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B109" s="3" t="n"/>
-      <c r="C109" s="3" t="n"/>
-      <c r="D109" s="3" t="n"/>
-      <c r="E109" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F109" s="4" t="n">
-        <v>145.64</v>
-      </c>
-      <c r="G109" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H109" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I109" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" s="4" t="n">
-        <v>2963.12</v>
-      </c>
-      <c r="K109" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L109" s="3" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="M109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" s="3" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="O109" s="3" t="n">
-        <v>227.68</v>
-      </c>
-      <c r="P109" s="3" t="n">
-        <v>95.37</v>
-      </c>
-      <c r="Q109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R109" s="3" t="n">
-        <v>323.05</v>
-      </c>
-      <c r="S109" s="4" t="n">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B110" s="3" t="n"/>
-      <c r="C110" s="3" t="n"/>
-      <c r="D110" s="3" t="n"/>
-      <c r="E110" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F110" s="4" t="n">
-        <v>145.64</v>
-      </c>
-      <c r="G110" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H110" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I110" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" s="4" t="n">
-        <v>2963.12</v>
-      </c>
-      <c r="K110" s="3" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="L110" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" s="3" t="n">
-        <v>35.18</v>
-      </c>
-      <c r="O110" s="3" t="n">
-        <v>227.68</v>
-      </c>
-      <c r="P110" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R110" s="3" t="n">
-        <v>331.68</v>
-      </c>
-      <c r="S110" s="4" t="n">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B111" s="3" t="n"/>
-      <c r="C111" s="3" t="n"/>
-      <c r="D111" s="3" t="n"/>
-      <c r="E111" s="4" t="n">
-        <v>2092.45</v>
-      </c>
-      <c r="F111" s="4" t="n">
-        <v>145.64</v>
-      </c>
-      <c r="G111" s="4" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="H111" s="4" t="n">
-        <v>674.16</v>
-      </c>
-      <c r="I111" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4" t="n">
-        <v>2963.12</v>
-      </c>
-      <c r="K111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S111" s="4" t="n">
         <v>1969</v>
+      </c>
+      <c r="T83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -551,135 +551,135 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-686411</v>
+        <v>41122</v>
       </c>
       <c r="B2" s="3" t="n"/>
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="4" t="n">
-        <v>2092.45</v>
+        <v>1634.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>145.64</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>674.16</v>
+        <v>85.87</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2963.12</v>
+        <v>1730.76</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>22.68</v>
+        <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>15.03</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>35.21</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>492.68</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>78.03</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>570.71</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2655</v>
+        <v>255</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-620515</v>
+        <v>41153</v>
       </c>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="4" t="n">
-        <v>2061.41</v>
+        <v>1634.56</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>109.23</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>674.16</v>
+        <v>85.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2895.67</v>
+        <v>1730.76</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>33.18</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>3.34</v>
+        <v>1.67</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>26.52</v>
+        <v>1.67</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>594.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>17.34</v>
+        <v>8.67</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>612.02</v>
+        <v>8.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2412</v>
+        <v>1339</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="X3" s="3" t="n">
         <v>0</v>
@@ -687,262 +687,262 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-620242</v>
+        <v>41183</v>
       </c>
       <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n"/>
       <c r="E4" s="4" t="n">
-        <v>2077.9</v>
+        <v>1634.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>109.23</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>674.16</v>
+        <v>85.87</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2912.16</v>
+        <v>1730.76</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>22.68</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>18.37</v>
+        <v>3.34</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>38.55</v>
+        <v>3.34</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>492.68</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>95.37</v>
+        <v>17.34</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>588.05</v>
+        <v>17.34</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>2763</v>
+        <v>1695</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-620212</v>
+        <v>41214</v>
       </c>
       <c r="B5" s="3" t="n"/>
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="n">
-        <v>2077.9</v>
+        <v>1634.56</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>109.23</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>674.16</v>
+        <v>85.87</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2912.16</v>
+        <v>1730.76</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>22.68</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>20</v>
+        <v>5.01</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>39.18</v>
+        <v>5.01</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>492.68</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>104</v>
+        <v>26.01</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>596.6799999999999</v>
+        <v>26.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>2530</v>
+        <v>1342</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="U5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-620150</v>
+        <v>41244</v>
       </c>
       <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="4" t="n">
-        <v>2077.9</v>
+        <v>1634.56</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>109.23</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>674.16</v>
+        <v>85.87</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2912.16</v>
+        <v>1730.76</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>3.34</v>
+        <v>6.68</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>18.52</v>
+        <v>5.68</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>411.68</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>17.34</v>
+        <v>34.68</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>429.02</v>
+        <v>34.68</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>2175</v>
+        <v>755</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="U6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>93.5</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-619877</v>
+        <v>41274</v>
       </c>
       <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="4" t="n">
-        <v>2092.45</v>
+        <v>1634.56</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>145.64</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>674.16</v>
+        <v>85.87</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2963.12</v>
+        <v>1730.76</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>18.37</v>
+        <v>6.68</v>
       </c>
       <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>33.55</v>
+        <v>6.68</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>227.68</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>95.37</v>
+        <v>34.68</v>
       </c>
       <c r="Q7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>323.05</v>
+        <v>34.68</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>2243</v>
+        <v>402</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>109.5</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3" t="n">
         <v>0</v>
@@ -959,67 +959,67 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-619847</v>
+        <v>41275</v>
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="4" t="n">
-        <v>2092.45</v>
+        <v>1679.89</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>145.64</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>674.16</v>
+        <v>50.87</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2963.12</v>
+        <v>1730.76</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>15.18</v>
+        <v>5.68</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>20</v>
+        <v>1.67</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>35.18</v>
+        <v>4.35</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>227.68</v>
+        <v>34.68</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>104</v>
+        <v>8.67</v>
       </c>
       <c r="Q8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>331.68</v>
+        <v>43.35</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>2170</v>
+        <v>1271</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="U8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="n">
         <v>0</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41122</v>
+        <v>41306</v>
       </c>
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="4" t="n">
-        <v>1634.56</v>
+        <v>1679.89</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>0</v>
@@ -1042,43 +1042,43 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>85.87</v>
+        <v>50.87</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>1730.76</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>17.34</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0</v>
+        <v>52.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>255</v>
+        <v>1306</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="U9" s="3" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41183</v>
+        <v>41334</v>
       </c>
       <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="4" t="n">
-        <v>1634.56</v>
+        <v>1679.89</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>0</v>
@@ -1110,40 +1110,40 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>85.87</v>
+        <v>50.87</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1730.76</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>3.34</v>
+        <v>5.01</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>3.34</v>
+        <v>7.69</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>17.34</v>
+        <v>26.01</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>17.34</v>
+        <v>60.69</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>1695</v>
+        <v>1264</v>
       </c>
       <c r="T10" s="3" t="n">
         <v>160</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41274</v>
+        <v>41365</v>
       </c>
       <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="4" t="n">
-        <v>1634.56</v>
+        <v>1679.89</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>85.87</v>
+        <v>50.87</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>1730.76</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>6.68</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>6.68</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>34.68</v>
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>34.68</v>
+        <v>69.36</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>402</v>
+        <v>1262</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="U11" s="3" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41275</v>
+        <v>41395</v>
       </c>
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="n"/>
@@ -1258,37 +1258,37 @@
         <v>5.68</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>1.67</v>
+        <v>8.35</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>4.35</v>
+        <v>10.03</v>
       </c>
       <c r="O12" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>8.67</v>
+        <v>43.35</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>43.35</v>
+        <v>78.03</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>1271</v>
+        <v>2472</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="U12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V12" s="3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="W12" s="3" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="n"/>
@@ -1326,31 +1326,31 @@
         <v>5.68</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>5.01</v>
+        <v>10.02</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>7.69</v>
+        <v>11.7</v>
       </c>
       <c r="O13" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>26.01</v>
+        <v>52.02</v>
       </c>
       <c r="Q13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>60.69</v>
+        <v>86.7</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="U13" s="3" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
@@ -1394,31 +1394,31 @@
         <v>5.68</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>6.68</v>
+        <v>11.69</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>9.359999999999999</v>
+        <v>13.37</v>
       </c>
       <c r="O14" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>34.68</v>
+        <v>60.69</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>69.36</v>
+        <v>95.37</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>1262</v>
+        <v>1306</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U14" s="3" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0</v>
@@ -1462,37 +1462,37 @@
         <v>5.68</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>8.35</v>
+        <v>13.36</v>
       </c>
       <c r="M15" s="3" t="n">
         <v>4</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>10.03</v>
+        <v>15.04</v>
       </c>
       <c r="O15" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>43.35</v>
+        <v>69.36</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>78.03</v>
+        <v>104.04</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>2472</v>
+        <v>1262</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="U15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="n"/>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>0</v>
@@ -1530,37 +1530,37 @@
         <v>5.68</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>10.02</v>
+        <v>15.03</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>11.7</v>
+        <v>15.71</v>
       </c>
       <c r="O16" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>52.02</v>
+        <v>78.03</v>
       </c>
       <c r="Q16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>86.7</v>
+        <v>112.71</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W16" s="3" t="n">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n"/>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>0</v>
+        <v>50.87</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>50.87</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>0</v>
@@ -1598,31 +1598,31 @@
         <v>5.68</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>11.69</v>
+        <v>16.7</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>13.37</v>
+        <v>17.38</v>
       </c>
       <c r="O17" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>60.69</v>
+        <v>86.7</v>
       </c>
       <c r="Q17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>95.37</v>
+        <v>121.38</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>1306</v>
+        <v>1963</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="U17" s="3" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="n"/>
@@ -1666,37 +1666,37 @@
         <v>5.68</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>13.36</v>
+        <v>18.37</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>15.04</v>
+        <v>18.05</v>
       </c>
       <c r="O18" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>69.36</v>
+        <v>95.37</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>104.04</v>
+        <v>130.05</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>1262</v>
+        <v>1960</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="U18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V18" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W18" s="3" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41548</v>
+        <v>41609</v>
       </c>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="n"/>
@@ -1734,31 +1734,31 @@
         <v>5.68</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>17.38</v>
+        <v>19.68</v>
       </c>
       <c r="O19" s="3" t="n">
         <v>34.68</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>86.7</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>121.38</v>
+        <v>138.68</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>1963</v>
+        <v>2104</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U19" s="3" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
@@ -1938,34 +1938,34 @@
         <v>19.68</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>5.01</v>
+        <v>3.34</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>24.69</v>
+        <v>23.02</v>
       </c>
       <c r="O22" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>26.01</v>
+        <v>17.34</v>
       </c>
       <c r="Q22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>160.69</v>
+        <v>152.02</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>2130</v>
+        <v>2210</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="U22" s="3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V22" s="3" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="n"/>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="4" t="n">
-        <v>1847.11</v>
+        <v>1724.89</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>0</v>
@@ -2000,40 +2000,40 @@
         <v>0</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>1897.98</v>
+        <v>1775.76</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>19.68</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>6.68</v>
+        <v>5.01</v>
       </c>
       <c r="M23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>26.36</v>
+        <v>24.69</v>
       </c>
       <c r="O23" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>34.68</v>
+        <v>26.01</v>
       </c>
       <c r="Q23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>169.36</v>
+        <v>160.69</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>3158</v>
+        <v>2130</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U23" s="3" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="V23" s="3" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
@@ -2074,34 +2074,34 @@
         <v>19.68</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>8.35</v>
+        <v>6.68</v>
       </c>
       <c r="M24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>28.03</v>
+        <v>26.36</v>
       </c>
       <c r="O24" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>43.35</v>
+        <v>34.68</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>178.03</v>
+        <v>169.36</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>2141</v>
+        <v>3158</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="U24" s="3" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="V24" s="3" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="n"/>
@@ -2142,37 +2142,37 @@
         <v>19.68</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>10.02</v>
+        <v>8.35</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>28.7</v>
+        <v>28.03</v>
       </c>
       <c r="O25" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>52.02</v>
+        <v>43.35</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>186.7</v>
+        <v>178.03</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>2155</v>
+        <v>2141</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="U25" s="3" t="n">
         <v>8</v>
       </c>
       <c r="V25" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W25" s="3" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
@@ -2210,37 +2210,37 @@
         <v>19.68</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>11.69</v>
+        <v>10.02</v>
       </c>
       <c r="M26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>30.37</v>
+        <v>28.7</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>60.69</v>
+        <v>52.02</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>195.37</v>
+        <v>186.7</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>2074</v>
+        <v>2155</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="U26" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V26" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W26" s="3" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="n"/>
@@ -2278,31 +2278,31 @@
         <v>19.68</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>13.36</v>
+        <v>11.69</v>
       </c>
       <c r="M27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>32.04</v>
+        <v>30.37</v>
       </c>
       <c r="O27" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>69.36</v>
+        <v>60.69</v>
       </c>
       <c r="Q27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>204.04</v>
+        <v>195.37</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="U27" s="3" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41913</v>
+        <v>41852</v>
       </c>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
@@ -2328,7 +2328,7 @@
         <v>1847.11</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>32.43</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>50.87</v>
@@ -2340,43 +2340,43 @@
         <v>0</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>1930.41</v>
+        <v>1897.98</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>12.68</v>
+        <v>19.68</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>16.7</v>
+        <v>13.36</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>19.38</v>
+        <v>32.04</v>
       </c>
       <c r="O28" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>86.7</v>
+        <v>69.36</v>
       </c>
       <c r="Q28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>221.38</v>
+        <v>204.04</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>1976</v>
+        <v>2083</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="U28" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V28" s="3" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="W28" s="3" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42004</v>
+        <v>41883</v>
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
@@ -2411,40 +2411,40 @@
         <v>1930.41</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>12.68</v>
+        <v>19.68</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>20</v>
+        <v>15.03</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>22.68</v>
+        <v>28.71</v>
       </c>
       <c r="O29" s="3" t="n">
         <v>134.68</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>104</v>
+        <v>78.03</v>
       </c>
       <c r="Q29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>238.68</v>
+        <v>212.71</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>1326</v>
+        <v>1928</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="U29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V29" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W29" s="3" t="n">
         <v>0</v>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42005</v>
+        <v>41913</v>
       </c>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="4" t="n">
-        <v>1902.42</v>
+        <v>1847.11</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>32.43</v>
@@ -2476,43 +2476,43 @@
         <v>0</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>1985.72</v>
+        <v>1930.41</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>22.68</v>
+        <v>12.68</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>22.85</v>
+        <v>19.38</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>238.68</v>
+        <v>134.68</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>8.67</v>
+        <v>86.7</v>
       </c>
       <c r="Q30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>247.35</v>
+        <v>221.38</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>2300</v>
+        <v>1976</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="U30" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V30" s="3" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="W30" s="3" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42064</v>
+        <v>41944</v>
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="4" t="n">
-        <v>1902.42</v>
+        <v>1847.11</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>32.43</v>
@@ -2544,40 +2544,40 @@
         <v>0</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>1985.72</v>
+        <v>1930.41</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>22.68</v>
+        <v>12.68</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>5.01</v>
+        <v>18.37</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>26.19</v>
+        <v>21.05</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>238.68</v>
+        <v>134.68</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>26.01</v>
+        <v>95.37</v>
       </c>
       <c r="Q31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>264.69</v>
+        <v>230.05</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>2123</v>
+        <v>2111</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="U31" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="3" t="n">
         <v>0</v>
@@ -2591,13 +2591,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42095</v>
+        <v>41974</v>
       </c>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="4" t="n">
-        <v>1902.42</v>
+        <v>1847.11</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>32.43</v>
@@ -2612,43 +2612,43 @@
         <v>0</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>1985.72</v>
+        <v>1930.41</v>
       </c>
       <c r="K32" s="3" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3" t="n">
         <v>22.68</v>
       </c>
-      <c r="L32" s="3" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <v>26.86</v>
-      </c>
       <c r="O32" s="3" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="n">
         <v>238.68</v>
       </c>
-      <c r="P32" s="3" t="n">
-        <v>34.68</v>
-      </c>
-      <c r="Q32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="n">
-        <v>273.36</v>
-      </c>
       <c r="S32" s="4" t="n">
-        <v>2108</v>
+        <v>2465</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V32" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="n">
         <v>0</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42125</v>
+        <v>42004</v>
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="4" t="n">
-        <v>1902.42</v>
+        <v>1847.11</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>32.43</v>
@@ -2680,37 +2680,37 @@
         <v>0</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>1985.72</v>
+        <v>1930.41</v>
       </c>
       <c r="K33" s="3" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3" t="n">
         <v>22.68</v>
       </c>
-      <c r="L33" s="3" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N33" s="3" t="n">
-        <v>28.53</v>
-      </c>
       <c r="O33" s="3" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="n">
         <v>238.68</v>
       </c>
-      <c r="P33" s="3" t="n">
-        <v>43.35</v>
-      </c>
-      <c r="Q33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="n">
-        <v>282.03</v>
-      </c>
       <c r="S33" s="4" t="n">
-        <v>2119</v>
+        <v>1326</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42156</v>
+        <v>42005</v>
       </c>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
@@ -2754,37 +2754,37 @@
         <v>22.68</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>10.02</v>
+        <v>1.67</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>30.2</v>
+        <v>22.85</v>
       </c>
       <c r="O34" s="3" t="n">
         <v>238.68</v>
       </c>
       <c r="P34" s="3" t="n">
-        <v>52.02</v>
+        <v>8.67</v>
       </c>
       <c r="Q34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>290.7</v>
+        <v>247.35</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>2143</v>
+        <v>2300</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U34" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V34" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W34" s="3" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42186</v>
+        <v>42036</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
@@ -2822,34 +2822,34 @@
         <v>22.68</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>11.69</v>
+        <v>3.34</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N35" s="3" t="n">
-        <v>31.87</v>
+        <v>24.52</v>
       </c>
       <c r="O35" s="3" t="n">
         <v>238.68</v>
       </c>
       <c r="P35" s="3" t="n">
-        <v>60.69</v>
+        <v>17.34</v>
       </c>
       <c r="Q35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>299.37</v>
+        <v>256.02</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>2145</v>
+        <v>2412</v>
       </c>
       <c r="T35" s="3" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U35" s="3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V35" s="3" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42217</v>
+        <v>42064</v>
       </c>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
@@ -2890,34 +2890,34 @@
         <v>22.68</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>13.36</v>
+        <v>5.01</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>33.54</v>
+        <v>26.19</v>
       </c>
       <c r="O36" s="3" t="n">
         <v>238.68</v>
       </c>
       <c r="P36" s="3" t="n">
-        <v>69.36</v>
+        <v>26.01</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>308.04</v>
+        <v>264.69</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>2144</v>
+        <v>2123</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="U36" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36" s="3" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42278</v>
+        <v>42095</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
@@ -2958,37 +2958,37 @@
         <v>22.68</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>16.7</v>
+        <v>6.68</v>
       </c>
       <c r="M37" s="3" t="n">
         <v>2.5</v>
       </c>
       <c r="N37" s="3" t="n">
-        <v>36.88</v>
+        <v>26.86</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>198.68</v>
+        <v>238.68</v>
       </c>
       <c r="P37" s="3" t="n">
-        <v>86.7</v>
+        <v>34.68</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>285.38</v>
+        <v>273.36</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>2414</v>
+        <v>2108</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="U37" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V37" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W37" s="3" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42369</v>
+        <v>42125</v>
       </c>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
@@ -3026,31 +3026,31 @@
         <v>22.68</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>20</v>
+        <v>8.35</v>
       </c>
       <c r="M38" s="3" t="n">
         <v>2.5</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>40.18</v>
+        <v>28.53</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>198.68</v>
+        <v>238.68</v>
       </c>
       <c r="P38" s="3" t="n">
-        <v>104</v>
+        <v>43.35</v>
       </c>
       <c r="Q38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>302.68</v>
+        <v>282.03</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1362</v>
+        <v>2119</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="U38" s="3" t="n">
         <v>0</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42370</v>
+        <v>42156</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
@@ -3091,40 +3091,40 @@
         <v>1985.72</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>33.18</v>
+        <v>22.68</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>1.67</v>
+        <v>10.02</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N39" s="3" t="n">
-        <v>24.85</v>
+        <v>30.2</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>302.68</v>
+        <v>238.68</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>8.67</v>
+        <v>52.02</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>311.35</v>
+        <v>290.7</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1970</v>
+        <v>2143</v>
       </c>
       <c r="T39" s="3" t="n">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="U39" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V39" s="3" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="W39" s="3" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42430</v>
+        <v>42186</v>
       </c>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
@@ -3159,31 +3159,31 @@
         <v>1985.72</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>33.18</v>
+        <v>22.68</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>5.01</v>
+        <v>11.69</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N40" s="3" t="n">
-        <v>28.19</v>
+        <v>31.87</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>302.68</v>
+        <v>238.68</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>26.01</v>
+        <v>60.69</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>328.69</v>
+        <v>299.37</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>2793</v>
+        <v>2145</v>
       </c>
       <c r="T40" s="3" t="n">
         <v>168</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42461</v>
+        <v>42217</v>
       </c>
       <c r="B41" s="3" t="n"/>
       <c r="C41" s="3" t="n"/>
@@ -3227,34 +3227,34 @@
         <v>1985.72</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>33.18</v>
+        <v>22.68</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>6.68</v>
+        <v>13.36</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N41" s="3" t="n">
-        <v>29.86</v>
+        <v>33.54</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>302.68</v>
+        <v>238.68</v>
       </c>
       <c r="P41" s="3" t="n">
-        <v>34.68</v>
+        <v>69.36</v>
       </c>
       <c r="Q41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>337.36</v>
+        <v>308.04</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>2191</v>
+        <v>2144</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="U41" s="3" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42491</v>
+        <v>42248</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
@@ -3295,40 +3295,40 @@
         <v>1985.72</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>29.18</v>
+        <v>22.68</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>8.35</v>
+        <v>15.03</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N42" s="3" t="n">
-        <v>27.53</v>
+        <v>35.21</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>302.68</v>
+        <v>198.68</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>43.35</v>
+        <v>78.03</v>
       </c>
       <c r="Q42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>346.03</v>
+        <v>276.71</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>2194</v>
+        <v>2163</v>
       </c>
       <c r="T42" s="3" t="n">
         <v>128</v>
       </c>
       <c r="U42" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V42" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42522</v>
+        <v>42278</v>
       </c>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
@@ -3363,40 +3363,40 @@
         <v>1985.72</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>28.18</v>
+        <v>22.68</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>10.02</v>
+        <v>16.7</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N43" s="3" t="n">
-        <v>28.2</v>
+        <v>36.88</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>302.68</v>
+        <v>198.68</v>
       </c>
       <c r="P43" s="3" t="n">
-        <v>52.02</v>
+        <v>86.7</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>354.7</v>
+        <v>285.38</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>2261</v>
+        <v>2414</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="U43" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V43" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42552</v>
+        <v>42309</v>
       </c>
       <c r="B44" s="3" t="n"/>
       <c r="C44" s="3" t="n"/>
@@ -3431,37 +3431,37 @@
         <v>1985.72</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>28.18</v>
+        <v>22.68</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>11.69</v>
+        <v>18.37</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N44" s="3" t="n">
-        <v>29.87</v>
+        <v>38.55</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>302.68</v>
+        <v>198.68</v>
       </c>
       <c r="P44" s="3" t="n">
-        <v>60.69</v>
+        <v>95.37</v>
       </c>
       <c r="Q44" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>363.37</v>
+        <v>294.05</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>2837</v>
+        <v>2276</v>
       </c>
       <c r="T44" s="3" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="U44" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V44" s="3" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42583</v>
+        <v>42339</v>
       </c>
       <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="n"/>
@@ -3499,40 +3499,40 @@
         <v>1985.72</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>19.18</v>
+        <v>22.68</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>13.36</v>
+        <v>20</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="N45" s="3" t="n">
-        <v>20.54</v>
+        <v>39.18</v>
       </c>
       <c r="O45" s="3" t="n">
+        <v>198.68</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="n">
         <v>302.68</v>
       </c>
-      <c r="P45" s="3" t="n">
-        <v>69.36</v>
-      </c>
-      <c r="Q45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>372.04</v>
-      </c>
       <c r="S45" s="4" t="n">
-        <v>2891</v>
+        <v>2530</v>
       </c>
       <c r="T45" s="3" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="U45" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="W45" s="3" t="n">
         <v>0</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42644</v>
+        <v>42369</v>
       </c>
       <c r="B46" s="3" t="n"/>
       <c r="C46" s="3" t="n"/>
@@ -3552,7 +3552,7 @@
         <v>1902.42</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>50.87</v>
@@ -3564,37 +3564,37 @@
         <v>0</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>2018.15</v>
+        <v>1985.72</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>19.18</v>
+        <v>22.68</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="N46" s="3" t="n">
-        <v>23.88</v>
+        <v>40.18</v>
       </c>
       <c r="O46" s="3" t="n">
+        <v>198.68</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="n">
         <v>302.68</v>
       </c>
-      <c r="P46" s="3" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="Q46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="n">
-        <v>389.38</v>
-      </c>
       <c r="S46" s="4" t="n">
-        <v>2586</v>
+        <v>1362</v>
       </c>
       <c r="T46" s="3" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="n">
         <v>0</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42735</v>
+        <v>42370</v>
       </c>
       <c r="B47" s="3" t="n"/>
       <c r="C47" s="3" t="n"/>
@@ -3620,7 +3620,7 @@
         <v>1902.42</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>50.87</v>
@@ -3632,43 +3632,43 @@
         <v>0</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>2018.15</v>
+        <v>1985.72</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>19.18</v>
+        <v>33.18</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>20</v>
+        <v>1.67</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N47" s="3" t="n">
-        <v>25.18</v>
+        <v>24.85</v>
       </c>
       <c r="O47" s="3" t="n">
         <v>302.68</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>104</v>
+        <v>8.67</v>
       </c>
       <c r="Q47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>406.68</v>
+        <v>311.35</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>1383</v>
+        <v>1970</v>
       </c>
       <c r="T47" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U47" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V47" s="3" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="W47" s="3" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42736</v>
+        <v>42401</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
@@ -3688,7 +3688,7 @@
         <v>1902.42</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>50.87</v>
@@ -3700,46 +3700,46 @@
         <v>0</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>2018.15</v>
+        <v>1985.72</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>25.18</v>
+        <v>33.18</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>1.67</v>
+        <v>3.34</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N48" s="3" t="n">
-        <v>17.85</v>
+        <v>26.52</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>402.68</v>
+        <v>302.68</v>
       </c>
       <c r="P48" s="3" t="n">
-        <v>8.67</v>
+        <v>17.34</v>
       </c>
       <c r="Q48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>411.35</v>
+        <v>320.02</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>2755</v>
+        <v>2189</v>
       </c>
       <c r="T48" s="3" t="n">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="U48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V48" s="3" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42795</v>
+        <v>42430</v>
       </c>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
@@ -3756,22 +3756,22 @@
         <v>1902.42</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>2692.31</v>
+        <v>1985.72</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>21.18</v>
+        <v>33.18</v>
       </c>
       <c r="L49" s="3" t="n">
         <v>5.01</v>
@@ -3780,10 +3780,10 @@
         <v>10</v>
       </c>
       <c r="N49" s="3" t="n">
-        <v>16.19</v>
+        <v>28.19</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>402.68</v>
+        <v>302.68</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>26.01</v>
@@ -3792,22 +3792,22 @@
         <v>0</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>428.69</v>
+        <v>328.69</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>2444</v>
+        <v>2793</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="U49" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="n">
         <v>0</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42826</v>
+        <v>42461</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
@@ -3824,22 +3824,22 @@
         <v>1902.42</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>2692.31</v>
+        <v>1985.72</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>21.18</v>
+        <v>33.18</v>
       </c>
       <c r="L50" s="3" t="n">
         <v>6.68</v>
@@ -3848,10 +3848,10 @@
         <v>10</v>
       </c>
       <c r="N50" s="3" t="n">
-        <v>17.86</v>
+        <v>29.86</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>402.68</v>
+        <v>302.68</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>34.68</v>
@@ -3860,22 +3860,22 @@
         <v>0</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>437.36</v>
+        <v>337.36</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>2375</v>
+        <v>2191</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="U50" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V50" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W50" s="3" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="X50" s="3" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42856</v>
+        <v>42491</v>
       </c>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
@@ -3892,34 +3892,34 @@
         <v>1902.42</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>2692.31</v>
+        <v>1985.72</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>19.18</v>
+        <v>29.18</v>
       </c>
       <c r="L51" s="3" t="n">
         <v>8.35</v>
       </c>
       <c r="M51" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N51" s="3" t="n">
-        <v>16.53</v>
+        <v>27.53</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>402.68</v>
+        <v>302.68</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>43.35</v>
@@ -3928,22 +3928,22 @@
         <v>0</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>446.03</v>
+        <v>346.03</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>2242</v>
+        <v>2194</v>
       </c>
       <c r="T51" s="3" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="U51" s="3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V51" s="3" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="W51" s="3" t="n">
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="X51" s="3" t="n">
         <v>0</v>
@@ -3951,43 +3951,43 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42887</v>
+        <v>42522</v>
       </c>
       <c r="B52" s="3" t="n"/>
       <c r="C52" s="3" t="n"/>
       <c r="D52" s="3" t="n"/>
       <c r="E52" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>2694.21</v>
+        <v>1985.72</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>19.18</v>
+        <v>28.18</v>
       </c>
       <c r="L52" s="3" t="n">
         <v>10.02</v>
       </c>
       <c r="M52" s="3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N52" s="3" t="n">
-        <v>16.2</v>
+        <v>28.2</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>402.68</v>
+        <v>302.68</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>52.02</v>
@@ -3996,22 +3996,22 @@
         <v>0</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>454.7</v>
+        <v>354.7</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>2209</v>
+        <v>2261</v>
       </c>
       <c r="T52" s="3" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="U52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V52" s="3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W52" s="3" t="n">
-        <v>134.5</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="n">
         <v>0</v>
@@ -4019,43 +4019,43 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42917</v>
+        <v>42552</v>
       </c>
       <c r="B53" s="3" t="n"/>
       <c r="C53" s="3" t="n"/>
       <c r="D53" s="3" t="n"/>
       <c r="E53" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>2694.21</v>
+        <v>1985.72</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>19.18</v>
+        <v>28.18</v>
       </c>
       <c r="L53" s="3" t="n">
         <v>11.69</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N53" s="3" t="n">
-        <v>17.87</v>
+        <v>29.87</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>398.68</v>
+        <v>302.68</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>60.69</v>
@@ -4064,51 +4064,51 @@
         <v>0</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>459.37</v>
+        <v>363.37</v>
       </c>
       <c r="S53" s="4" t="n">
-        <v>2273</v>
+        <v>2837</v>
       </c>
       <c r="T53" s="3" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="U53" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W53" s="3" t="n">
-        <v>160.5</v>
+        <v>0</v>
       </c>
       <c r="X53" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42948</v>
+        <v>42583</v>
       </c>
       <c r="B54" s="3" t="n"/>
       <c r="C54" s="3" t="n"/>
       <c r="D54" s="3" t="n"/>
       <c r="E54" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>64.86</v>
+        <v>32.43</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>50.87</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>2694.21</v>
+        <v>1985.72</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>19.18</v>
@@ -4117,13 +4117,13 @@
         <v>13.36</v>
       </c>
       <c r="M54" s="3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N54" s="3" t="n">
-        <v>16.54</v>
+        <v>20.54</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>394.68</v>
+        <v>302.68</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>69.36</v>
@@ -4132,36 +4132,36 @@
         <v>0</v>
       </c>
       <c r="R54" s="3" t="n">
-        <v>464.04</v>
+        <v>372.04</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>2001</v>
+        <v>2891</v>
       </c>
       <c r="T54" s="3" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="U54" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V54" s="3" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="W54" s="3" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43009</v>
+        <v>42614</v>
       </c>
       <c r="B55" s="3" t="n"/>
       <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n"/>
       <c r="E55" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>64.86</v>
@@ -4170,43 +4170,43 @@
         <v>50.87</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>2694.21</v>
+        <v>2018.15</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>18.18</v>
+        <v>19.18</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>16.7</v>
+        <v>15.03</v>
       </c>
       <c r="M55" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N55" s="3" t="n">
-        <v>14.88</v>
+        <v>22.21</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>394.68</v>
+        <v>302.68</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>86.7</v>
+        <v>78.03</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>481.38</v>
+        <v>380.71</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>2001</v>
+        <v>2655</v>
       </c>
       <c r="T55" s="3" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="U55" s="3" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="3" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="X55" s="3" t="n">
         <v>0</v>
@@ -4223,13 +4223,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43100</v>
+        <v>42644</v>
       </c>
       <c r="B56" s="3" t="n"/>
       <c r="C56" s="3" t="n"/>
       <c r="D56" s="3" t="n"/>
       <c r="E56" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>64.86</v>
@@ -4238,43 +4238,43 @@
         <v>50.87</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>2694.21</v>
+        <v>2018.15</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>7.18</v>
+        <v>19.18</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N56" s="3" t="n">
-        <v>7.18</v>
+        <v>23.88</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>394.68</v>
+        <v>302.68</v>
       </c>
       <c r="P56" s="3" t="n">
-        <v>104</v>
+        <v>86.7</v>
       </c>
       <c r="Q56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>498.68</v>
+        <v>389.38</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>1818</v>
+        <v>2586</v>
       </c>
       <c r="T56" s="3" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="U56" s="3" t="n">
         <v>0</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43101</v>
+        <v>42675</v>
       </c>
       <c r="B57" s="3" t="n"/>
       <c r="C57" s="3" t="n"/>
       <c r="D57" s="3" t="n"/>
       <c r="E57" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>64.86</v>
@@ -4306,52 +4306,52 @@
         <v>50.87</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>2694.21</v>
+        <v>2018.15</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>7.18</v>
+        <v>19.18</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>1.67</v>
+        <v>18.37</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N57" s="3" t="n">
-        <v>8.85</v>
+        <v>23.55</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>498.68</v>
+        <v>302.68</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>8.67</v>
+        <v>95.37</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R57" s="3" t="n">
-        <v>507.35</v>
+        <v>398.05</v>
       </c>
       <c r="S57" s="4" t="n">
-        <v>2050</v>
+        <v>2763</v>
       </c>
       <c r="T57" s="3" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="U57" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V57" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W57" s="3" t="n">
-        <v>83.5</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3" t="n">
         <v>0</v>
@@ -4359,13 +4359,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43160</v>
+        <v>42705</v>
       </c>
       <c r="B58" s="3" t="n"/>
       <c r="C58" s="3" t="n"/>
       <c r="D58" s="3" t="n"/>
       <c r="E58" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F58" s="4" t="n">
         <v>64.86</v>
@@ -4374,43 +4374,43 @@
         <v>50.87</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>2694.21</v>
+        <v>2018.15</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>7.18</v>
+        <v>19.18</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>5.01</v>
+        <v>20</v>
       </c>
       <c r="M58" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N58" s="3" t="n">
-        <v>12.19</v>
+        <v>25.18</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>498.68</v>
+        <v>298.68</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>26.01</v>
+        <v>104</v>
       </c>
       <c r="Q58" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="3" t="n">
-        <v>524.6900000000001</v>
+        <v>402.68</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>1977</v>
+        <v>2367</v>
       </c>
       <c r="T58" s="3" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="U58" s="3" t="n">
         <v>0</v>
@@ -4419,21 +4419,21 @@
         <v>0</v>
       </c>
       <c r="W58" s="3" t="n">
-        <v>64.5</v>
+        <v>51.5</v>
       </c>
       <c r="X58" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43191</v>
+        <v>42735</v>
       </c>
       <c r="B59" s="3" t="n"/>
       <c r="C59" s="3" t="n"/>
       <c r="D59" s="3" t="n"/>
       <c r="E59" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>64.86</v>
@@ -4442,52 +4442,52 @@
         <v>50.87</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>2694.21</v>
+        <v>2018.15</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>7.18</v>
+        <v>19.18</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>6.68</v>
+        <v>20</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N59" s="3" t="n">
-        <v>13.86</v>
+        <v>25.18</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>498.68</v>
+        <v>302.68</v>
       </c>
       <c r="P59" s="3" t="n">
-        <v>34.68</v>
+        <v>104</v>
       </c>
       <c r="Q59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>533.36</v>
+        <v>406.68</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>1980</v>
+        <v>1383</v>
       </c>
       <c r="T59" s="3" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W59" s="3" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="n">
         <v>0</v>
@@ -4495,13 +4495,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43221</v>
+        <v>42736</v>
       </c>
       <c r="B60" s="3" t="n"/>
       <c r="C60" s="3" t="n"/>
       <c r="D60" s="3" t="n"/>
       <c r="E60" s="4" t="n">
-        <v>1904.32</v>
+        <v>1902.42</v>
       </c>
       <c r="F60" s="4" t="n">
         <v>64.86</v>
@@ -4510,52 +4510,52 @@
         <v>50.87</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>674.16</v>
+        <v>0</v>
       </c>
       <c r="I60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>2694.21</v>
+        <v>2018.15</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>7.18</v>
+        <v>25.18</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>8.35</v>
+        <v>1.67</v>
       </c>
       <c r="M60" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N60" s="3" t="n">
-        <v>7.53</v>
+        <v>17.85</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>498.68</v>
+        <v>402.68</v>
       </c>
       <c r="P60" s="3" t="n">
-        <v>43.35</v>
+        <v>8.67</v>
       </c>
       <c r="Q60" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>542.03</v>
+        <v>411.35</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>2071</v>
+        <v>2755</v>
       </c>
       <c r="T60" s="3" t="n">
         <v>88</v>
       </c>
       <c r="U60" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="W60" s="3" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="X60" s="3" t="n">
         <v>0</v>
@@ -4563,13 +4563,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43252</v>
+        <v>42767</v>
       </c>
       <c r="B61" s="3" t="n"/>
       <c r="C61" s="3" t="n"/>
       <c r="D61" s="3" t="n"/>
       <c r="E61" s="4" t="n">
-        <v>1921.46</v>
+        <v>1902.42</v>
       </c>
       <c r="F61" s="4" t="n">
         <v>64.86</v>
@@ -4584,46 +4584,46 @@
         <v>0</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>2711.35</v>
+        <v>2692.31</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>6.18</v>
+        <v>22.18</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>10.02</v>
+        <v>3.34</v>
       </c>
       <c r="M61" s="3" t="n">
         <v>10</v>
       </c>
       <c r="N61" s="3" t="n">
-        <v>6.2</v>
+        <v>15.52</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>498.68</v>
+        <v>402.68</v>
       </c>
       <c r="P61" s="3" t="n">
-        <v>52.02</v>
+        <v>17.34</v>
       </c>
       <c r="Q61" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R61" s="3" t="n">
-        <v>550.7</v>
+        <v>420.02</v>
       </c>
       <c r="S61" s="4" t="n">
-        <v>3960</v>
+        <v>1895</v>
       </c>
       <c r="T61" s="3" t="n">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="U61" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="V61" s="3" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="W61" s="3" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="X61" s="3" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43282</v>
+        <v>42795</v>
       </c>
       <c r="B62" s="3" t="n"/>
       <c r="C62" s="3" t="n"/>
       <c r="D62" s="3" t="n"/>
       <c r="E62" s="4" t="n">
-        <v>1921.46</v>
+        <v>1902.42</v>
       </c>
       <c r="F62" s="4" t="n">
         <v>64.86</v>
@@ -4652,46 +4652,46 @@
         <v>0</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>2711.35</v>
+        <v>2692.31</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>6.18</v>
+        <v>21.18</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>11.69</v>
+        <v>5.01</v>
       </c>
       <c r="M62" s="3" t="n">
         <v>10</v>
       </c>
       <c r="N62" s="3" t="n">
-        <v>7.87</v>
+        <v>16.19</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>498.68</v>
+        <v>402.68</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>60.69</v>
+        <v>26.01</v>
       </c>
       <c r="Q62" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>559.37</v>
+        <v>428.69</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>1929</v>
+        <v>2444</v>
       </c>
       <c r="T62" s="3" t="n">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="U62" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V62" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W62" s="3" t="n">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="X62" s="3" t="n">
         <v>0</v>
@@ -4699,13 +4699,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43313</v>
+        <v>42826</v>
       </c>
       <c r="B63" s="3" t="n"/>
       <c r="C63" s="3" t="n"/>
       <c r="D63" s="3" t="n"/>
       <c r="E63" s="4" t="n">
-        <v>1921.46</v>
+        <v>1902.42</v>
       </c>
       <c r="F63" s="4" t="n">
         <v>64.86</v>
@@ -4720,63 +4720,63 @@
         <v>0</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>2711.35</v>
+        <v>2692.31</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>6.18</v>
+        <v>21.18</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>13.36</v>
+        <v>6.68</v>
       </c>
       <c r="M63" s="3" t="n">
         <v>10</v>
       </c>
       <c r="N63" s="3" t="n">
-        <v>9.539999999999999</v>
+        <v>17.86</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>494.68</v>
+        <v>402.68</v>
       </c>
       <c r="P63" s="3" t="n">
-        <v>69.36</v>
+        <v>34.68</v>
       </c>
       <c r="Q63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>564.04</v>
+        <v>437.36</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>2007</v>
+        <v>2375</v>
       </c>
       <c r="T63" s="3" t="n">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="U63" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W63" s="3" t="n">
-        <v>77.5</v>
+        <v>166</v>
       </c>
       <c r="X63" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43374</v>
+        <v>42856</v>
       </c>
       <c r="B64" s="3" t="n"/>
       <c r="C64" s="3" t="n"/>
       <c r="D64" s="3" t="n"/>
       <c r="E64" s="4" t="n">
-        <v>1921.46</v>
+        <v>1902.42</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>97.29000000000001</v>
+        <v>64.86</v>
       </c>
       <c r="G64" s="4" t="n">
         <v>50.87</v>
@@ -4788,46 +4788,46 @@
         <v>0</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>2743.78</v>
+        <v>2692.31</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>0</v>
+        <v>19.18</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>16.7</v>
+        <v>8.35</v>
       </c>
       <c r="M64" s="3" t="n">
-        <v>11.82</v>
+        <v>11</v>
       </c>
       <c r="N64" s="3" t="n">
-        <v>4.88</v>
+        <v>16.53</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>492.68</v>
+        <v>402.68</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>86.7</v>
+        <v>43.35</v>
       </c>
       <c r="Q64" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R64" s="3" t="n">
-        <v>579.38</v>
+        <v>446.03</v>
       </c>
       <c r="S64" s="4" t="n">
-        <v>2174</v>
+        <v>2242</v>
       </c>
       <c r="T64" s="3" t="n">
         <v>120</v>
       </c>
       <c r="U64" s="3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V64" s="3" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="W64" s="3" t="n">
-        <v>64.5</v>
+        <v>128.5</v>
       </c>
       <c r="X64" s="3" t="n">
         <v>0</v>
@@ -4835,16 +4835,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43465</v>
+        <v>42887</v>
       </c>
       <c r="B65" s="3" t="n"/>
       <c r="C65" s="3" t="n"/>
       <c r="D65" s="3" t="n"/>
       <c r="E65" s="4" t="n">
-        <v>1921.46</v>
+        <v>1904.32</v>
       </c>
       <c r="F65" s="4" t="n">
-        <v>97.29000000000001</v>
+        <v>64.86</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>50.87</v>
@@ -4856,46 +4856,46 @@
         <v>0</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>2743.78</v>
+        <v>2694.21</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>0</v>
+        <v>19.18</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>20</v>
+        <v>10.02</v>
       </c>
       <c r="M65" s="3" t="n">
-        <v>11.82</v>
+        <v>13</v>
       </c>
       <c r="N65" s="3" t="n">
-        <v>8.18</v>
+        <v>16.2</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>492.68</v>
+        <v>402.68</v>
       </c>
       <c r="P65" s="3" t="n">
-        <v>104</v>
+        <v>52.02</v>
       </c>
       <c r="Q65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R65" s="3" t="n">
-        <v>596.6799999999999</v>
+        <v>454.7</v>
       </c>
       <c r="S65" s="4" t="n">
-        <v>1846</v>
+        <v>2209</v>
       </c>
       <c r="T65" s="3" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="U65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V65" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W65" s="3" t="n">
-        <v>0</v>
+        <v>134.5</v>
       </c>
       <c r="X65" s="3" t="n">
         <v>0</v>
@@ -4903,16 +4903,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43466</v>
+        <v>42917</v>
       </c>
       <c r="B66" s="3" t="n"/>
       <c r="C66" s="3" t="n"/>
       <c r="D66" s="3" t="n"/>
       <c r="E66" s="4" t="n">
-        <v>2061.41</v>
+        <v>1904.32</v>
       </c>
       <c r="F66" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>50.87</v>
@@ -4924,63 +4924,63 @@
         <v>0</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>2895.67</v>
+        <v>2694.21</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>-1.82</v>
+        <v>19.18</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>1.67</v>
+        <v>11.69</v>
       </c>
       <c r="M66" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N66" s="3" t="n">
-        <v>-0.15</v>
+        <v>17.87</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>594.6799999999999</v>
+        <v>398.68</v>
       </c>
       <c r="P66" s="3" t="n">
-        <v>8.67</v>
+        <v>60.69</v>
       </c>
       <c r="Q66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R66" s="3" t="n">
-        <v>603.35</v>
+        <v>459.37</v>
       </c>
       <c r="S66" s="4" t="n">
-        <v>2090</v>
+        <v>2273</v>
       </c>
       <c r="T66" s="3" t="n">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="U66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V66" s="3" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="W66" s="3" t="n">
-        <v>64.5</v>
+        <v>160.5</v>
       </c>
       <c r="X66" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43525</v>
+        <v>42948</v>
       </c>
       <c r="B67" s="3" t="n"/>
       <c r="C67" s="3" t="n"/>
       <c r="D67" s="3" t="n"/>
       <c r="E67" s="4" t="n">
-        <v>2061.41</v>
+        <v>1904.32</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G67" s="4" t="n">
         <v>50.87</v>
@@ -4992,63 +4992,63 @@
         <v>0</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>2895.67</v>
+        <v>2694.21</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>-1.82</v>
+        <v>19.18</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>5.01</v>
+        <v>13.36</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N67" s="3" t="n">
-        <v>0.19</v>
+        <v>16.54</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>591.6799999999999</v>
+        <v>394.68</v>
       </c>
       <c r="P67" s="3" t="n">
-        <v>26.01</v>
+        <v>69.36</v>
       </c>
       <c r="Q67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R67" s="3" t="n">
-        <v>617.6900000000001</v>
+        <v>464.04</v>
       </c>
       <c r="S67" s="4" t="n">
-        <v>2078</v>
+        <v>2001</v>
       </c>
       <c r="T67" s="3" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="U67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V67" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W67" s="3" t="n">
         <v>64.5</v>
       </c>
       <c r="X67" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43556</v>
+        <v>42979</v>
       </c>
       <c r="B68" s="3" t="n"/>
       <c r="C68" s="3" t="n"/>
       <c r="D68" s="3" t="n"/>
       <c r="E68" s="4" t="n">
-        <v>2061.41</v>
+        <v>1904.32</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G68" s="4" t="n">
         <v>50.87</v>
@@ -5060,63 +5060,63 @@
         <v>0</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>2895.67</v>
+        <v>2694.21</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>-1.82</v>
+        <v>18.18</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>6.68</v>
+        <v>15.03</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N68" s="3" t="n">
-        <v>1.86</v>
+        <v>13.21</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>543.6799999999999</v>
+        <v>394.68</v>
       </c>
       <c r="P68" s="3" t="n">
-        <v>34.68</v>
+        <v>78.03</v>
       </c>
       <c r="Q68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R68" s="3" t="n">
-        <v>578.36</v>
+        <v>472.71</v>
       </c>
       <c r="S68" s="4" t="n">
-        <v>2141</v>
+        <v>1999</v>
       </c>
       <c r="T68" s="3" t="n">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="U68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V68" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W68" s="3" t="n">
-        <v>83.5</v>
+        <v>64.5</v>
       </c>
       <c r="X68" s="3" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43586</v>
+        <v>43009</v>
       </c>
       <c r="B69" s="3" t="n"/>
       <c r="C69" s="3" t="n"/>
       <c r="D69" s="3" t="n"/>
       <c r="E69" s="4" t="n">
-        <v>2061.41</v>
+        <v>1904.32</v>
       </c>
       <c r="F69" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G69" s="4" t="n">
         <v>50.87</v>
@@ -5128,37 +5128,37 @@
         <v>0</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>2895.67</v>
+        <v>2694.21</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>-1.82</v>
+        <v>18.18</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>8.35</v>
+        <v>16.7</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N69" s="3" t="n">
-        <v>3.53</v>
+        <v>14.88</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>511.68</v>
+        <v>394.68</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>43.35</v>
+        <v>86.7</v>
       </c>
       <c r="Q69" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R69" s="3" t="n">
-        <v>555.03</v>
+        <v>481.38</v>
       </c>
       <c r="S69" s="4" t="n">
-        <v>2078</v>
+        <v>2001</v>
       </c>
       <c r="T69" s="3" t="n">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="U69" s="3" t="n">
         <v>0</v>
@@ -5170,21 +5170,21 @@
         <v>64.5</v>
       </c>
       <c r="X69" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43617</v>
+        <v>43040</v>
       </c>
       <c r="B70" s="3" t="n"/>
       <c r="C70" s="3" t="n"/>
       <c r="D70" s="3" t="n"/>
       <c r="E70" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F70" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>50.87</v>
@@ -5196,46 +5196,46 @@
         <v>0</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>-1.82</v>
+        <v>7.18</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>10.02</v>
+        <v>18.37</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N70" s="3" t="n">
-        <v>5.2</v>
+        <v>5.55</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>511.68</v>
+        <v>394.68</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>52.02</v>
+        <v>95.37</v>
       </c>
       <c r="Q70" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R70" s="3" t="n">
-        <v>563.7</v>
+        <v>490.05</v>
       </c>
       <c r="S70" s="4" t="n">
-        <v>1913</v>
+        <v>1871</v>
       </c>
       <c r="T70" s="3" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="U70" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V70" s="3" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="W70" s="3" t="n">
-        <v>64.5</v>
+        <v>19.5</v>
       </c>
       <c r="X70" s="3" t="n">
         <v>0</v>
@@ -5243,16 +5243,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43647</v>
+        <v>43070</v>
       </c>
       <c r="B71" s="3" t="n"/>
       <c r="C71" s="3" t="n"/>
       <c r="D71" s="3" t="n"/>
       <c r="E71" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G71" s="4" t="n">
         <v>50.87</v>
@@ -5264,37 +5264,37 @@
         <v>0</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>-1.82</v>
+        <v>7.18</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>11.69</v>
+        <v>20</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N71" s="3" t="n">
-        <v>6.87</v>
+        <v>7.18</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>507.68</v>
+        <v>394.68</v>
       </c>
       <c r="P71" s="3" t="n">
-        <v>60.69</v>
+        <v>104</v>
       </c>
       <c r="Q71" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R71" s="3" t="n">
-        <v>568.37</v>
+        <v>498.68</v>
       </c>
       <c r="S71" s="4" t="n">
-        <v>2321</v>
+        <v>1838</v>
       </c>
       <c r="T71" s="3" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="U71" s="3" t="n">
         <v>0</v>
@@ -5303,24 +5303,24 @@
         <v>0</v>
       </c>
       <c r="W71" s="3" t="n">
-        <v>64.5</v>
+        <v>61</v>
       </c>
       <c r="X71" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43678</v>
+        <v>43100</v>
       </c>
       <c r="B72" s="3" t="n"/>
       <c r="C72" s="3" t="n"/>
       <c r="D72" s="3" t="n"/>
       <c r="E72" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>50.87</v>
@@ -5332,37 +5332,37 @@
         <v>0</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>-1.82</v>
+        <v>7.18</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>13.36</v>
+        <v>20</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N72" s="3" t="n">
-        <v>8.539999999999999</v>
+        <v>7.18</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>459.68</v>
+        <v>394.68</v>
       </c>
       <c r="P72" s="3" t="n">
-        <v>69.36</v>
+        <v>104</v>
       </c>
       <c r="Q72" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R72" s="3" t="n">
-        <v>529.04</v>
+        <v>498.68</v>
       </c>
       <c r="S72" s="4" t="n">
-        <v>2087</v>
+        <v>1818</v>
       </c>
       <c r="T72" s="3" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="U72" s="3" t="n">
         <v>0</v>
@@ -5371,24 +5371,24 @@
         <v>0</v>
       </c>
       <c r="W72" s="3" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="X72" s="3" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43739</v>
+        <v>43101</v>
       </c>
       <c r="B73" s="3" t="n"/>
       <c r="C73" s="3" t="n"/>
       <c r="D73" s="3" t="n"/>
       <c r="E73" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G73" s="4" t="n">
         <v>50.87</v>
@@ -5400,37 +5400,37 @@
         <v>0</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>-1.82</v>
+        <v>7.18</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="M73" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N73" s="3" t="n">
-        <v>11.88</v>
+        <v>8.85</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>427.68</v>
+        <v>498.68</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>86.7</v>
+        <v>8.67</v>
       </c>
       <c r="Q73" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R73" s="3" t="n">
-        <v>514.38</v>
+        <v>507.35</v>
       </c>
       <c r="S73" s="4" t="n">
-        <v>2101</v>
+        <v>2050</v>
       </c>
       <c r="T73" s="3" t="n">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="U73" s="3" t="n">
         <v>0</v>
@@ -5439,24 +5439,24 @@
         <v>0</v>
       </c>
       <c r="W73" s="3" t="n">
-        <v>71</v>
+        <v>83.5</v>
       </c>
       <c r="X73" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43830</v>
+        <v>43132</v>
       </c>
       <c r="B74" s="3" t="n"/>
       <c r="C74" s="3" t="n"/>
       <c r="D74" s="3" t="n"/>
       <c r="E74" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G74" s="4" t="n">
         <v>50.87</v>
@@ -5468,46 +5468,46 @@
         <v>0</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>-1.82</v>
+        <v>7.18</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>20</v>
+        <v>3.34</v>
       </c>
       <c r="M74" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N74" s="3" t="n">
-        <v>15.18</v>
+        <v>10.52</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>395.68</v>
+        <v>498.68</v>
       </c>
       <c r="P74" s="3" t="n">
-        <v>104</v>
+        <v>17.34</v>
       </c>
       <c r="Q74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R74" s="3" t="n">
-        <v>499.68</v>
+        <v>516.02</v>
       </c>
       <c r="S74" s="4" t="n">
-        <v>1941</v>
+        <v>2058</v>
       </c>
       <c r="T74" s="3" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="U74" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="W74" s="3" t="n">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="X74" s="3" t="n">
         <v>0</v>
@@ -5515,16 +5515,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43831</v>
+        <v>43160</v>
       </c>
       <c r="B75" s="3" t="n"/>
       <c r="C75" s="3" t="n"/>
       <c r="D75" s="3" t="n"/>
       <c r="E75" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>50.87</v>
@@ -5536,37 +5536,37 @@
         <v>0</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>15.18</v>
+        <v>7.18</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>1.67</v>
+        <v>5.01</v>
       </c>
       <c r="M75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="3" t="n">
-        <v>16.85</v>
+        <v>12.19</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>427.68</v>
+        <v>498.68</v>
       </c>
       <c r="P75" s="3" t="n">
-        <v>8.67</v>
+        <v>26.01</v>
       </c>
       <c r="Q75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R75" s="3" t="n">
-        <v>436.35</v>
+        <v>524.6900000000001</v>
       </c>
       <c r="S75" s="4" t="n">
-        <v>2175</v>
+        <v>1977</v>
       </c>
       <c r="T75" s="3" t="n">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="U75" s="3" t="n">
         <v>0</v>
@@ -5578,21 +5578,21 @@
         <v>64.5</v>
       </c>
       <c r="X75" s="3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43891</v>
+        <v>43191</v>
       </c>
       <c r="B76" s="3" t="n"/>
       <c r="C76" s="3" t="n"/>
       <c r="D76" s="3" t="n"/>
       <c r="E76" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G76" s="4" t="n">
         <v>50.87</v>
@@ -5604,40 +5604,40 @@
         <v>0</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>15.18</v>
+        <v>7.18</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>5.01</v>
+        <v>6.68</v>
       </c>
       <c r="M76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N76" s="3" t="n">
-        <v>20.19</v>
+        <v>13.86</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>411.68</v>
+        <v>498.68</v>
       </c>
       <c r="P76" s="3" t="n">
-        <v>26.01</v>
+        <v>34.68</v>
       </c>
       <c r="Q76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R76" s="3" t="n">
-        <v>437.69</v>
+        <v>533.36</v>
       </c>
       <c r="S76" s="4" t="n">
-        <v>2091</v>
+        <v>1980</v>
       </c>
       <c r="T76" s="3" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="U76" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V76" s="3" t="n">
         <v>0</v>
@@ -5651,16 +5651,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43922</v>
+        <v>43221</v>
       </c>
       <c r="B77" s="3" t="n"/>
       <c r="C77" s="3" t="n"/>
       <c r="D77" s="3" t="n"/>
       <c r="E77" s="4" t="n">
-        <v>2077.9</v>
+        <v>1904.32</v>
       </c>
       <c r="F77" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>50.87</v>
@@ -5672,46 +5672,46 @@
         <v>0</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>2912.16</v>
+        <v>2694.21</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>15.18</v>
+        <v>7.18</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>6.68</v>
+        <v>8.35</v>
       </c>
       <c r="M77" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N77" s="3" t="n">
-        <v>21.86</v>
+        <v>7.53</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>411.68</v>
+        <v>498.68</v>
       </c>
       <c r="P77" s="3" t="n">
-        <v>34.68</v>
+        <v>43.35</v>
       </c>
       <c r="Q77" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R77" s="3" t="n">
-        <v>446.36</v>
+        <v>542.03</v>
       </c>
       <c r="S77" s="4" t="n">
-        <v>2259</v>
+        <v>2071</v>
       </c>
       <c r="T77" s="3" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="U77" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V77" s="3" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="W77" s="3" t="n">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="X77" s="3" t="n">
         <v>0</v>
@@ -5719,16 +5719,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43952</v>
+        <v>43252</v>
       </c>
       <c r="B78" s="3" t="n"/>
       <c r="C78" s="3" t="n"/>
       <c r="D78" s="3" t="n"/>
       <c r="E78" s="4" t="n">
-        <v>2077.9</v>
+        <v>1921.46</v>
       </c>
       <c r="F78" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>50.87</v>
@@ -5740,63 +5740,63 @@
         <v>0</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>2912.16</v>
+        <v>2711.35</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>15.18</v>
+        <v>6.18</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>8.35</v>
+        <v>10.02</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N78" s="3" t="n">
-        <v>23.53</v>
+        <v>6.2</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>379.68</v>
+        <v>498.68</v>
       </c>
       <c r="P78" s="3" t="n">
-        <v>43.35</v>
+        <v>52.02</v>
       </c>
       <c r="Q78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R78" s="3" t="n">
-        <v>423.03</v>
+        <v>550.7</v>
       </c>
       <c r="S78" s="4" t="n">
-        <v>2121</v>
+        <v>3960</v>
       </c>
       <c r="T78" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U78" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="V78" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="W78" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="U78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" s="3" t="n">
-        <v>74</v>
-      </c>
       <c r="X78" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43983</v>
+        <v>43282</v>
       </c>
       <c r="B79" s="3" t="n"/>
       <c r="C79" s="3" t="n"/>
       <c r="D79" s="3" t="n"/>
       <c r="E79" s="4" t="n">
-        <v>2092.45</v>
+        <v>1921.46</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G79" s="4" t="n">
         <v>50.87</v>
@@ -5808,37 +5808,37 @@
         <v>0</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>2926.71</v>
+        <v>2711.35</v>
       </c>
       <c r="K79" s="3" t="n">
-        <v>15.18</v>
+        <v>6.18</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>10.02</v>
+        <v>11.69</v>
       </c>
       <c r="M79" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N79" s="3" t="n">
-        <v>25.2</v>
+        <v>7.87</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>347.68</v>
+        <v>498.68</v>
       </c>
       <c r="P79" s="3" t="n">
-        <v>52.02</v>
+        <v>60.69</v>
       </c>
       <c r="Q79" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R79" s="3" t="n">
-        <v>399.7</v>
+        <v>559.37</v>
       </c>
       <c r="S79" s="4" t="n">
-        <v>2268</v>
+        <v>1929</v>
       </c>
       <c r="T79" s="3" t="n">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="U79" s="3" t="n">
         <v>0</v>
@@ -5847,24 +5847,24 @@
         <v>0</v>
       </c>
       <c r="W79" s="3" t="n">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="X79" s="3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44013</v>
+        <v>43313</v>
       </c>
       <c r="B80" s="3" t="n"/>
       <c r="C80" s="3" t="n"/>
       <c r="D80" s="3" t="n"/>
       <c r="E80" s="4" t="n">
-        <v>2092.45</v>
+        <v>1921.46</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>109.23</v>
+        <v>64.86</v>
       </c>
       <c r="G80" s="4" t="n">
         <v>50.87</v>
@@ -5876,37 +5876,37 @@
         <v>0</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>2926.71</v>
+        <v>2711.35</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>15.18</v>
+        <v>6.18</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>11.69</v>
+        <v>13.36</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N80" s="3" t="n">
-        <v>26.87</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>347.68</v>
+        <v>494.68</v>
       </c>
       <c r="P80" s="3" t="n">
-        <v>60.69</v>
+        <v>69.36</v>
       </c>
       <c r="Q80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R80" s="3" t="n">
-        <v>408.37</v>
+        <v>564.04</v>
       </c>
       <c r="S80" s="4" t="n">
-        <v>2112</v>
+        <v>2007</v>
       </c>
       <c r="T80" s="3" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="U80" s="3" t="n">
         <v>0</v>
@@ -5915,24 +5915,24 @@
         <v>0</v>
       </c>
       <c r="W80" s="3" t="n">
-        <v>64.5</v>
+        <v>77.5</v>
       </c>
       <c r="X80" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44044</v>
+        <v>43344</v>
       </c>
       <c r="B81" s="3" t="n"/>
       <c r="C81" s="3" t="n"/>
       <c r="D81" s="3" t="n"/>
       <c r="E81" s="4" t="n">
-        <v>2092.45</v>
+        <v>1921.46</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>109.23</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="G81" s="4" t="n">
         <v>50.87</v>
@@ -5944,63 +5944,63 @@
         <v>0</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>2926.71</v>
+        <v>2743.78</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>15.18</v>
+        <v>3.18</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>13.36</v>
+        <v>15.03</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N81" s="3" t="n">
-        <v>28.54</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>283.68</v>
+        <v>492.68</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>69.36</v>
+        <v>78.03</v>
       </c>
       <c r="Q81" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R81" s="3" t="n">
-        <v>353.04</v>
+        <v>570.71</v>
       </c>
       <c r="S81" s="4" t="n">
-        <v>2178</v>
+        <v>2193</v>
       </c>
       <c r="T81" s="3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="U81" s="3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V81" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W81" s="3" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X81" s="3" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="B82" s="3" t="n"/>
       <c r="C82" s="3" t="n"/>
       <c r="D82" s="3" t="n"/>
       <c r="E82" s="4" t="n">
-        <v>2092.45</v>
+        <v>1921.46</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>145.64</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="G82" s="4" t="n">
         <v>50.87</v>
@@ -6012,22 +6012,22 @@
         <v>0</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>2963.12</v>
+        <v>2743.78</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="L82" s="3" t="n">
         <v>16.7</v>
       </c>
       <c r="M82" s="3" t="n">
-        <v>0</v>
+        <v>11.82</v>
       </c>
       <c r="N82" s="3" t="n">
-        <v>31.88</v>
+        <v>4.88</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>227.68</v>
+        <v>492.68</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>86.7</v>
@@ -6036,22 +6036,22 @@
         <v>0</v>
       </c>
       <c r="R82" s="3" t="n">
-        <v>314.38</v>
+        <v>579.38</v>
       </c>
       <c r="S82" s="4" t="n">
-        <v>2152</v>
+        <v>2174</v>
       </c>
       <c r="T82" s="3" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="U82" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V82" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W82" s="3" t="n">
-        <v>77.5</v>
+        <v>64.5</v>
       </c>
       <c r="X82" s="3" t="n">
         <v>0</v>
@@ -6059,16 +6059,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44196</v>
+        <v>43405</v>
       </c>
       <c r="B83" s="3" t="n"/>
       <c r="C83" s="3" t="n"/>
       <c r="D83" s="3" t="n"/>
       <c r="E83" s="4" t="n">
-        <v>2092.45</v>
+        <v>1921.46</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>145.64</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="G83" s="4" t="n">
         <v>50.87</v>
@@ -6080,48 +6080,1952 @@
         <v>0</v>
       </c>
       <c r="J83" s="4" t="n">
+        <v>2743.78</v>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="M83" s="3" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="N83" s="3" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="O83" s="3" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="P83" s="3" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="Q83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="n">
+        <v>588.05</v>
+      </c>
+      <c r="S83" s="4" t="n">
+        <v>2056</v>
+      </c>
+      <c r="T83" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="U83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="X83" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B84" s="3" t="n"/>
+      <c r="C84" s="3" t="n"/>
+      <c r="D84" s="3" t="n"/>
+      <c r="E84" s="4" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="F84" s="4" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I84" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4" t="n">
+        <v>2743.78</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M84" s="3" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="N84" s="3" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="O84" s="3" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="P84" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3" t="n">
+        <v>596.6799999999999</v>
+      </c>
+      <c r="S84" s="4" t="n">
+        <v>1852</v>
+      </c>
+      <c r="T84" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W84" s="3" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="X84" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B85" s="3" t="n"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="4" t="n">
+        <v>1921.46</v>
+      </c>
+      <c r="F85" s="4" t="n">
+        <v>97.29000000000001</v>
+      </c>
+      <c r="G85" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H85" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I85" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4" t="n">
+        <v>2743.78</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M85" s="3" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="N85" s="3" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="O85" s="3" t="n">
+        <v>492.68</v>
+      </c>
+      <c r="P85" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3" t="n">
+        <v>596.6799999999999</v>
+      </c>
+      <c r="S85" s="4" t="n">
+        <v>1846</v>
+      </c>
+      <c r="T85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B86" s="3" t="n"/>
+      <c r="C86" s="3" t="n"/>
+      <c r="D86" s="3" t="n"/>
+      <c r="E86" s="4" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="F86" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G86" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H86" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I86" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4" t="n">
+        <v>2895.67</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L86" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="O86" s="3" t="n">
+        <v>594.6799999999999</v>
+      </c>
+      <c r="P86" s="3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3" t="n">
+        <v>603.35</v>
+      </c>
+      <c r="S86" s="4" t="n">
+        <v>2090</v>
+      </c>
+      <c r="T86" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="U86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="W86" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X86" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B87" s="3" t="n"/>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+      <c r="E87" s="4" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="F87" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H87" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I87" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4" t="n">
+        <v>2895.67</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L87" s="3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M87" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" s="3" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="O87" s="3" t="n">
+        <v>594.6799999999999</v>
+      </c>
+      <c r="P87" s="3" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="Q87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3" t="n">
+        <v>612.02</v>
+      </c>
+      <c r="S87" s="4" t="n">
+        <v>2128</v>
+      </c>
+      <c r="T87" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="W87" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="X87" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B88" s="3" t="n"/>
+      <c r="C88" s="3" t="n"/>
+      <c r="D88" s="3" t="n"/>
+      <c r="E88" s="4" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="F88" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H88" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I88" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4" t="n">
+        <v>2895.67</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L88" s="3" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="M88" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O88" s="3" t="n">
+        <v>591.6799999999999</v>
+      </c>
+      <c r="P88" s="3" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="Q88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3" t="n">
+        <v>617.6900000000001</v>
+      </c>
+      <c r="S88" s="4" t="n">
+        <v>2078</v>
+      </c>
+      <c r="T88" s="3" t="n">
+        <v>157</v>
+      </c>
+      <c r="U88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X88" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B89" s="3" t="n"/>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+      <c r="E89" s="4" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H89" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I89" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4" t="n">
+        <v>2895.67</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L89" s="3" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="M89" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O89" s="3" t="n">
+        <v>543.6799999999999</v>
+      </c>
+      <c r="P89" s="3" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="Q89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="n">
+        <v>578.36</v>
+      </c>
+      <c r="S89" s="4" t="n">
+        <v>2141</v>
+      </c>
+      <c r="T89" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="U89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="X89" s="3" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B90" s="3" t="n"/>
+      <c r="C90" s="3" t="n"/>
+      <c r="D90" s="3" t="n"/>
+      <c r="E90" s="4" t="n">
+        <v>2061.41</v>
+      </c>
+      <c r="F90" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H90" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4" t="n">
+        <v>2895.67</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L90" s="3" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="M90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" s="3" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O90" s="3" t="n">
+        <v>511.68</v>
+      </c>
+      <c r="P90" s="3" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="Q90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" s="3" t="n">
+        <v>555.03</v>
+      </c>
+      <c r="S90" s="4" t="n">
+        <v>2078</v>
+      </c>
+      <c r="T90" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="U90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X90" s="3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B91" s="3" t="n"/>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+      <c r="E91" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H91" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L91" s="3" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="M91" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O91" s="3" t="n">
+        <v>511.68</v>
+      </c>
+      <c r="P91" s="3" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="Q91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="n">
+        <v>563.7</v>
+      </c>
+      <c r="S91" s="4" t="n">
+        <v>1913</v>
+      </c>
+      <c r="T91" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X91" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B92" s="3" t="n"/>
+      <c r="C92" s="3" t="n"/>
+      <c r="D92" s="3" t="n"/>
+      <c r="E92" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F92" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H92" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I92" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L92" s="3" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="M92" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" s="3" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="O92" s="3" t="n">
+        <v>507.68</v>
+      </c>
+      <c r="P92" s="3" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="Q92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3" t="n">
+        <v>568.37</v>
+      </c>
+      <c r="S92" s="4" t="n">
+        <v>2321</v>
+      </c>
+      <c r="T92" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="U92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X92" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B93" s="3" t="n"/>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F93" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H93" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I93" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L93" s="3" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="M93" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" s="3" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="O93" s="3" t="n">
+        <v>459.68</v>
+      </c>
+      <c r="P93" s="3" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="Q93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3" t="n">
+        <v>529.04</v>
+      </c>
+      <c r="S93" s="4" t="n">
+        <v>2087</v>
+      </c>
+      <c r="T93" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="U93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X93" s="3" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B94" s="3" t="n"/>
+      <c r="C94" s="3" t="n"/>
+      <c r="D94" s="3" t="n"/>
+      <c r="E94" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F94" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H94" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L94" s="3" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="M94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="O94" s="3" t="n">
+        <v>429.68</v>
+      </c>
+      <c r="P94" s="3" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="Q94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="n">
+        <v>507.71</v>
+      </c>
+      <c r="S94" s="4" t="n">
+        <v>2302</v>
+      </c>
+      <c r="T94" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="U94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X94" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B95" s="3" t="n"/>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+      <c r="E95" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F95" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H95" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L95" s="3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M95" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" s="3" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="O95" s="3" t="n">
+        <v>427.68</v>
+      </c>
+      <c r="P95" s="3" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="Q95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" s="3" t="n">
+        <v>514.38</v>
+      </c>
+      <c r="S95" s="4" t="n">
+        <v>2101</v>
+      </c>
+      <c r="T95" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="U95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="X95" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B96" s="3" t="n"/>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F96" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H96" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L96" s="3" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="M96" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" s="3" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="O96" s="3" t="n">
+        <v>395.68</v>
+      </c>
+      <c r="P96" s="3" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="Q96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3" t="n">
+        <v>491.05</v>
+      </c>
+      <c r="S96" s="4" t="n">
+        <v>2245</v>
+      </c>
+      <c r="T96" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="X96" s="3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B97" s="3" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F97" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L97" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M97" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="O97" s="3" t="n">
+        <v>379.68</v>
+      </c>
+      <c r="P97" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3" t="n">
+        <v>483.68</v>
+      </c>
+      <c r="S97" s="4" t="n">
+        <v>1923</v>
+      </c>
+      <c r="T97" s="3" t="n">
+        <v>144</v>
+      </c>
+      <c r="U97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X97" s="3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B98" s="3" t="n"/>
+      <c r="C98" s="3" t="n"/>
+      <c r="D98" s="3" t="n"/>
+      <c r="E98" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F98" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H98" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I98" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="L98" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M98" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="O98" s="3" t="n">
+        <v>395.68</v>
+      </c>
+      <c r="P98" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3" t="n">
+        <v>499.68</v>
+      </c>
+      <c r="S98" s="4" t="n">
+        <v>1941</v>
+      </c>
+      <c r="T98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B99" s="3" t="n"/>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F99" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I99" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L99" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="O99" s="3" t="n">
+        <v>427.68</v>
+      </c>
+      <c r="P99" s="3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3" t="n">
+        <v>436.35</v>
+      </c>
+      <c r="S99" s="4" t="n">
+        <v>2175</v>
+      </c>
+      <c r="T99" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="U99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X99" s="3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B100" s="3" t="n"/>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="3" t="n"/>
+      <c r="E100" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F100" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H100" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I100" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L100" s="3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="O100" s="3" t="n">
+        <v>411.68</v>
+      </c>
+      <c r="P100" s="3" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="Q100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="n">
+        <v>429.02</v>
+      </c>
+      <c r="S100" s="4" t="n">
+        <v>2175</v>
+      </c>
+      <c r="T100" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="X100" s="3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B101" s="3" t="n"/>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F101" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H101" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I101" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L101" s="3" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="M101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="O101" s="3" t="n">
+        <v>411.68</v>
+      </c>
+      <c r="P101" s="3" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="Q101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="n">
+        <v>437.69</v>
+      </c>
+      <c r="S101" s="4" t="n">
+        <v>2091</v>
+      </c>
+      <c r="T101" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="U101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X101" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B102" s="3" t="n"/>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="3" t="n"/>
+      <c r="E102" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F102" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H102" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I102" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L102" s="3" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="M102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="O102" s="3" t="n">
+        <v>411.68</v>
+      </c>
+      <c r="P102" s="3" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="Q102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="n">
+        <v>446.36</v>
+      </c>
+      <c r="S102" s="4" t="n">
+        <v>2259</v>
+      </c>
+      <c r="T102" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X102" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="4" t="n">
+        <v>2077.9</v>
+      </c>
+      <c r="F103" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H103" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I103" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="4" t="n">
+        <v>2912.16</v>
+      </c>
+      <c r="K103" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L103" s="3" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="M103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" s="3" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="O103" s="3" t="n">
+        <v>379.68</v>
+      </c>
+      <c r="P103" s="3" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="Q103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="3" t="n">
+        <v>423.03</v>
+      </c>
+      <c r="S103" s="4" t="n">
+        <v>2121</v>
+      </c>
+      <c r="T103" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="U103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="X103" s="3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B104" s="3" t="n"/>
+      <c r="C104" s="3" t="n"/>
+      <c r="D104" s="3" t="n"/>
+      <c r="E104" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F104" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G104" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H104" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I104" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4" t="n">
+        <v>2926.71</v>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L104" s="3" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="M104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" s="3" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="O104" s="3" t="n">
+        <v>347.68</v>
+      </c>
+      <c r="P104" s="3" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="Q104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" s="3" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="S104" s="4" t="n">
+        <v>2268</v>
+      </c>
+      <c r="T104" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="U104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X104" s="3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B105" s="3" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F105" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I105" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="4" t="n">
+        <v>2926.71</v>
+      </c>
+      <c r="K105" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L105" s="3" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="M105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" s="3" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="O105" s="3" t="n">
+        <v>347.68</v>
+      </c>
+      <c r="P105" s="3" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="Q105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="3" t="n">
+        <v>408.37</v>
+      </c>
+      <c r="S105" s="4" t="n">
+        <v>2112</v>
+      </c>
+      <c r="T105" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X105" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B106" s="3" t="n"/>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="3" t="n"/>
+      <c r="E106" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F106" s="4" t="n">
+        <v>109.23</v>
+      </c>
+      <c r="G106" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H106" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I106" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4" t="n">
+        <v>2926.71</v>
+      </c>
+      <c r="K106" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L106" s="3" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="M106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" s="3" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="O106" s="3" t="n">
+        <v>283.68</v>
+      </c>
+      <c r="P106" s="3" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="Q106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" s="3" t="n">
+        <v>353.04</v>
+      </c>
+      <c r="S106" s="4" t="n">
+        <v>2178</v>
+      </c>
+      <c r="T106" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="U106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="X106" s="3" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B107" s="3" t="n"/>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+      <c r="E107" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F107" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H107" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I107" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="4" t="n">
         <v>2963.12</v>
       </c>
-      <c r="K83" s="3" t="n">
+      <c r="K107" s="3" t="n">
         <v>15.18</v>
       </c>
-      <c r="L83" s="3" t="n">
+      <c r="L107" s="3" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="M107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" s="3" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="O107" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P107" s="3" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="Q107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" s="3" t="n">
+        <v>305.71</v>
+      </c>
+      <c r="S107" s="4" t="n">
+        <v>2210</v>
+      </c>
+      <c r="T107" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="U107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" s="3" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="X107" s="3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B108" s="3" t="n"/>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F108" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H108" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I108" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K108" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L108" s="3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" s="3" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="O108" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P108" s="3" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="Q108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" s="3" t="n">
+        <v>314.38</v>
+      </c>
+      <c r="S108" s="4" t="n">
+        <v>2152</v>
+      </c>
+      <c r="T108" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" s="3" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="X108" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B109" s="3" t="n"/>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F109" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H109" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I109" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K109" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L109" s="3" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="M109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" s="3" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="O109" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P109" s="3" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="Q109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" s="3" t="n">
+        <v>323.05</v>
+      </c>
+      <c r="S109" s="4" t="n">
+        <v>2243</v>
+      </c>
+      <c r="T109" s="3" t="n">
+        <v>176</v>
+      </c>
+      <c r="U109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" s="3" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="X109" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B110" s="3" t="n"/>
+      <c r="C110" s="3" t="n"/>
+      <c r="D110" s="3" t="n"/>
+      <c r="E110" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F110" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H110" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K110" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L110" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="M83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="n">
+      <c r="M110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3" t="n">
         <v>35.18</v>
       </c>
-      <c r="O83" s="3" t="n">
+      <c r="O110" s="3" t="n">
         <v>227.68</v>
       </c>
-      <c r="P83" s="3" t="n">
+      <c r="P110" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="Q83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="n">
+      <c r="Q110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" s="3" t="n">
         <v>331.68</v>
       </c>
-      <c r="S83" s="4" t="n">
+      <c r="S110" s="4" t="n">
+        <v>2170</v>
+      </c>
+      <c r="T110" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="U110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="X110" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B111" s="3" t="n"/>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F111" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H111" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I111" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K111" s="3" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="L111" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="3" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="O111" s="3" t="n">
+        <v>227.68</v>
+      </c>
+      <c r="P111" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" s="3" t="n">
+        <v>331.68</v>
+      </c>
+      <c r="S111" s="4" t="n">
         <v>1969</v>
       </c>
-      <c r="T83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3" t="n">
+      <c r="T111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" s="3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,6 +426,32 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="36" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
+    <col width="34" customWidth="1" min="20" max="20"/>
+    <col width="42" customWidth="1" min="21" max="21"/>
+    <col width="26" customWidth="1" min="22" max="22"/>
+    <col width="40" customWidth="1" min="23" max="23"/>
+    <col width="22" customWidth="1" min="24" max="24"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -8029,6 +8055,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B112" s="3" t="n"/>
+      <c r="C112" s="3" t="n"/>
+      <c r="D112" s="3" t="n"/>
+      <c r="E112" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F112" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H112" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I112" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K112" s="3" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="L112" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" s="3" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="O112" s="3" t="n">
+        <v>281.68</v>
+      </c>
+      <c r="P112" s="3" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Q112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" s="3" t="n">
+        <v>290.35</v>
+      </c>
+      <c r="S112" s="4" t="n">
+        <v>2167</v>
+      </c>
+      <c r="T112" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="U112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="X112" s="3" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -451,6 +451,7 @@
     <col width="26" customWidth="1" min="22" max="22"/>
     <col width="40" customWidth="1" min="23" max="23"/>
     <col width="22" customWidth="1" min="24" max="24"/>
+    <col width="12" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,6 +575,11 @@
           <t>legenda_rol</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>detail</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,6 +648,7 @@
       <c r="X2" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -710,6 +717,7 @@
       <c r="X3" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -778,6 +786,7 @@
       <c r="X4" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -846,6 +855,7 @@
       <c r="X5" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -914,6 +924,7 @@
       <c r="X6" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -982,6 +993,7 @@
       <c r="X7" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1050,6 +1062,7 @@
       <c r="X8" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1118,6 +1131,7 @@
       <c r="X9" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1186,6 +1200,7 @@
       <c r="X10" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1254,6 +1269,7 @@
       <c r="X11" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1322,6 +1338,7 @@
       <c r="X12" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1390,6 +1407,7 @@
       <c r="X13" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1458,6 +1476,7 @@
       <c r="X14" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1526,6 +1545,7 @@
       <c r="X15" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1594,6 +1614,7 @@
       <c r="X16" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1662,6 +1683,7 @@
       <c r="X17" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1730,6 +1752,7 @@
       <c r="X18" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1798,6 +1821,7 @@
       <c r="X19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1866,6 +1890,7 @@
       <c r="X20" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1934,6 +1959,7 @@
       <c r="X21" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2002,6 +2028,7 @@
       <c r="X22" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2070,6 +2097,7 @@
       <c r="X23" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2138,6 +2166,7 @@
       <c r="X24" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2206,6 +2235,7 @@
       <c r="X25" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2274,6 +2304,7 @@
       <c r="X26" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2342,6 +2373,7 @@
       <c r="X27" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2410,6 +2442,7 @@
       <c r="X28" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2478,6 +2511,7 @@
       <c r="X29" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2546,6 +2580,7 @@
       <c r="X30" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2614,6 +2649,7 @@
       <c r="X31" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2682,6 +2718,7 @@
       <c r="X32" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2750,6 +2787,7 @@
       <c r="X33" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2818,6 +2856,7 @@
       <c r="X34" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y34" s="1" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2886,6 +2925,7 @@
       <c r="X35" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2954,6 +2994,7 @@
       <c r="X36" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3022,6 +3063,7 @@
       <c r="X37" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3090,6 +3132,7 @@
       <c r="X38" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y38" s="1" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3158,6 +3201,7 @@
       <c r="X39" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3226,6 +3270,7 @@
       <c r="X40" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y40" s="1" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3294,6 +3339,7 @@
       <c r="X41" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y41" s="1" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3362,6 +3408,7 @@
       <c r="X42" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y42" s="1" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3430,6 +3477,7 @@
       <c r="X43" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y43" s="1" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3498,6 +3546,7 @@
       <c r="X44" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y44" s="1" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3566,6 +3615,7 @@
       <c r="X45" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y45" s="1" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3634,6 +3684,7 @@
       <c r="X46" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y46" s="1" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3702,6 +3753,7 @@
       <c r="X47" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y47" s="1" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3770,6 +3822,7 @@
       <c r="X48" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3838,6 +3891,7 @@
       <c r="X49" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y49" s="1" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3906,6 +3960,7 @@
       <c r="X50" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3974,6 +4029,7 @@
       <c r="X51" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -4042,6 +4098,7 @@
       <c r="X52" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y52" s="1" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -4110,6 +4167,7 @@
       <c r="X53" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4178,6 +4236,7 @@
       <c r="X54" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4246,6 +4305,7 @@
       <c r="X55" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y55" s="1" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -4314,6 +4374,7 @@
       <c r="X56" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y56" s="1" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -4382,6 +4443,7 @@
       <c r="X57" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y57" s="1" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4450,6 +4512,7 @@
       <c r="X58" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="Y58" s="1" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4518,6 +4581,7 @@
       <c r="X59" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y59" s="1" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4586,6 +4650,7 @@
       <c r="X60" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y60" s="1" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -4654,6 +4719,7 @@
       <c r="X61" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y61" s="1" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4722,6 +4788,7 @@
       <c r="X62" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y62" s="1" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4790,6 +4857,7 @@
       <c r="X63" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y63" s="1" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4858,6 +4926,7 @@
       <c r="X64" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y64" s="1" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4926,6 +4995,7 @@
       <c r="X65" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y65" s="1" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4994,6 +5064,7 @@
       <c r="X66" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="Y66" s="1" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -5062,6 +5133,7 @@
       <c r="X67" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="Y67" s="1" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -5130,6 +5202,7 @@
       <c r="X68" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y68" s="1" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -5198,6 +5271,7 @@
       <c r="X69" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y69" s="1" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -5266,6 +5340,7 @@
       <c r="X70" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y70" s="1" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -5334,6 +5409,7 @@
       <c r="X71" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y71" s="1" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -5402,6 +5478,7 @@
       <c r="X72" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y72" s="1" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -5470,6 +5547,7 @@
       <c r="X73" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y73" s="1" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -5538,6 +5616,7 @@
       <c r="X74" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y74" s="1" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -5606,6 +5685,7 @@
       <c r="X75" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y75" s="1" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -5674,6 +5754,7 @@
       <c r="X76" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y76" s="1" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5742,6 +5823,7 @@
       <c r="X77" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y77" s="1" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5810,6 +5892,7 @@
       <c r="X78" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y78" s="1" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5878,6 +5961,7 @@
       <c r="X79" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y79" s="1" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5946,6 +6030,7 @@
       <c r="X80" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="Y80" s="1" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -6014,6 +6099,7 @@
       <c r="X81" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="Y81" s="1" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -6082,6 +6168,7 @@
       <c r="X82" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y82" s="1" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -6150,6 +6237,7 @@
       <c r="X83" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y83" s="1" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -6218,6 +6306,7 @@
       <c r="X84" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y84" s="1" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -6286,6 +6375,7 @@
       <c r="X85" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y85" s="1" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -6354,6 +6444,7 @@
       <c r="X86" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="Y86" s="1" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -6422,6 +6513,7 @@
       <c r="X87" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y87" s="1" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -6490,6 +6582,7 @@
       <c r="X88" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="Y88" s="1" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -6558,6 +6651,7 @@
       <c r="X89" s="3" t="n">
         <v>48</v>
       </c>
+      <c r="Y89" s="1" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -6626,6 +6720,7 @@
       <c r="X90" s="3" t="n">
         <v>32</v>
       </c>
+      <c r="Y90" s="1" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -6694,6 +6789,7 @@
       <c r="X91" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y91" s="1" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -6762,6 +6858,7 @@
       <c r="X92" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="Y92" s="1" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6830,6 +6927,7 @@
       <c r="X93" s="3" t="n">
         <v>48</v>
       </c>
+      <c r="Y93" s="1" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6898,6 +6996,7 @@
       <c r="X94" s="3" t="n">
         <v>30</v>
       </c>
+      <c r="Y94" s="1" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6966,6 +7065,7 @@
       <c r="X95" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="Y95" s="1" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -7034,6 +7134,7 @@
       <c r="X96" s="3" t="n">
         <v>32</v>
       </c>
+      <c r="Y96" s="1" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -7102,6 +7203,7 @@
       <c r="X97" s="3" t="n">
         <v>16</v>
       </c>
+      <c r="Y97" s="1" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -7170,6 +7272,7 @@
       <c r="X98" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y98" s="1" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -7238,6 +7341,7 @@
       <c r="X99" s="3" t="n">
         <v>56</v>
       </c>
+      <c r="Y99" s="1" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -7306,6 +7410,7 @@
       <c r="X100" s="3" t="n">
         <v>16</v>
       </c>
+      <c r="Y100" s="1" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -7374,6 +7479,7 @@
       <c r="X101" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y101" s="1" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -7442,6 +7548,7 @@
       <c r="X102" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y102" s="1" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -7510,6 +7617,7 @@
       <c r="X103" s="3" t="n">
         <v>32</v>
       </c>
+      <c r="Y103" s="1" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -7578,6 +7686,7 @@
       <c r="X104" s="3" t="n">
         <v>32</v>
       </c>
+      <c r="Y104" s="1" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -7646,6 +7755,7 @@
       <c r="X105" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y105" s="1" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -7714,6 +7824,7 @@
       <c r="X106" s="3" t="n">
         <v>64</v>
       </c>
+      <c r="Y106" s="1" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -7782,6 +7893,7 @@
       <c r="X107" s="3" t="n">
         <v>56</v>
       </c>
+      <c r="Y107" s="1" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -7850,6 +7962,7 @@
       <c r="X108" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y108" s="1" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7918,6 +8031,7 @@
       <c r="X109" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y109" s="1" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7986,6 +8100,7 @@
       <c r="X110" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y110" s="1" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -8054,6 +8169,7 @@
       <c r="X111" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="Y111" s="1" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -8122,6 +8238,76 @@
       <c r="X112" s="3" t="n">
         <v>50</v>
       </c>
+      <c r="Y112" s="1" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B113" s="3" t="n"/>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="3" t="n"/>
+      <c r="E113" s="4" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F113" s="4" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H113" s="4" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I113" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K113" s="3" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="L113" s="3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="3" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="O113" s="3" t="n">
+        <v>246.68</v>
+      </c>
+      <c r="P113" s="3" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="Q113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" s="3" t="n">
+        <v>264.02</v>
+      </c>
+      <c r="S113" s="4" t="n">
+        <v>2140</v>
+      </c>
+      <c r="T113" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="U113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" s="3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="X113" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y113" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17687,6 +17687,157 @@
       <c r="BV113" s="1" t="n"/>
       <c r="BW113" s="1" t="n"/>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="n"/>
+      <c r="E114" s="3" t="n">
+        <v>2092.45</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>145.64</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>674.16</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="K114" s="4" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="L114" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="M114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" s="4" t="n">
+        <v>40.19</v>
+      </c>
+      <c r="O114" s="4" t="n">
+        <v>246.68</v>
+      </c>
+      <c r="P114" s="4" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="Q114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" s="4" t="n">
+        <v>272.69</v>
+      </c>
+      <c r="S114" s="3" t="n">
+        <v>2284</v>
+      </c>
+      <c r="T114" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="U114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" s="4" t="n">
+        <v>129</v>
+      </c>
+      <c r="X114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="1" t="n"/>
+      <c r="Z114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="1" t="n"/>
+      <c r="AB114" s="4" t="n">
+        <v>-10.65</v>
+      </c>
+      <c r="AC114" s="1" t="n"/>
+      <c r="AD114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="4" t="n">
+        <v>-20.61</v>
+      </c>
+      <c r="AF114" s="4" t="n">
+        <v>-53.61</v>
+      </c>
+      <c r="AG114" s="1" t="n"/>
+      <c r="AH114" s="1" t="n"/>
+      <c r="AI114" s="4" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="AJ114" s="1" t="n"/>
+      <c r="AK114" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AL114" s="1" t="n"/>
+      <c r="AM114" s="1" t="n"/>
+      <c r="AN114" s="1" t="n"/>
+      <c r="AO114" s="1" t="n"/>
+      <c r="AP114" s="4" t="n">
+        <v>-10.81</v>
+      </c>
+      <c r="AQ114" s="4" t="n">
+        <v>-331.12</v>
+      </c>
+      <c r="AR114" s="1" t="n"/>
+      <c r="AS114" s="1" t="n"/>
+      <c r="AT114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU114" s="1" t="n"/>
+      <c r="AV114" s="1" t="n"/>
+      <c r="AW114" s="1" t="n"/>
+      <c r="AX114" s="1" t="n"/>
+      <c r="AY114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" s="4" t="n">
+        <v>-891.99</v>
+      </c>
+      <c r="BA114" s="4" t="n">
+        <v>517</v>
+      </c>
+      <c r="BB114" s="4" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="BC114" s="1" t="n"/>
+      <c r="BD114" s="1" t="n"/>
+      <c r="BE114" s="1" t="n"/>
+      <c r="BF114" s="1" t="n"/>
+      <c r="BG114" s="1" t="n"/>
+      <c r="BH114" s="1" t="n"/>
+      <c r="BI114" s="1" t="n"/>
+      <c r="BJ114" s="1" t="n"/>
+      <c r="BK114" s="1" t="n"/>
+      <c r="BL114" s="4" t="n">
+        <v>2963.12</v>
+      </c>
+      <c r="BM114" s="1" t="n"/>
+      <c r="BN114" s="1" t="n"/>
+      <c r="BO114" s="1" t="n"/>
+      <c r="BP114" s="1" t="n"/>
+      <c r="BQ114" s="1" t="n"/>
+      <c r="BR114" s="1" t="n"/>
+      <c r="BS114" s="1" t="n"/>
+      <c r="BT114" s="1" t="n"/>
+      <c r="BU114" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV114" s="1" t="n"/>
+      <c r="BW114" s="1" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
